--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220"/>
+    <workbookView windowWidth="28695" windowHeight="13335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669">
   <si>
     <t>标记</t>
   </si>
@@ -1301,6 +1301,729 @@
   </si>
   <si>
     <t xml:space="preserve">a. 活跃的 熙熙攘攘的 </t>
+  </si>
+  <si>
+    <t>camouflage</t>
+  </si>
+  <si>
+    <t>blend with circumstances</t>
+  </si>
+  <si>
+    <t>v. 伪装</t>
+  </si>
+  <si>
+    <t>decorate</t>
+  </si>
+  <si>
+    <t>disguise</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>shipment</t>
+  </si>
+  <si>
+    <t>n. 货物</t>
+  </si>
+  <si>
+    <t>celebrated</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>a. 著名的</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>a. 主要的</t>
+  </si>
+  <si>
+    <t>centain</t>
+  </si>
+  <si>
+    <t>specified</t>
+  </si>
+  <si>
+    <t>a. 指定的</t>
+  </si>
+  <si>
+    <t>chancy</t>
+  </si>
+  <si>
+    <t>risky</t>
+  </si>
+  <si>
+    <t>a. 冒险的</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>v. 引导</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>v. 提供帮助</t>
+  </si>
+  <si>
+    <t>chaotic</t>
+  </si>
+  <si>
+    <t>disorganized</t>
+  </si>
+  <si>
+    <t>a. 混乱的</t>
+  </si>
+  <si>
+    <t>cherish</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>v. 珍爱</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>chisel</t>
+  </si>
+  <si>
+    <t>carve</t>
+  </si>
+  <si>
+    <t>v. 刻</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>v. 选择</t>
+  </si>
+  <si>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>persistent</t>
+  </si>
+  <si>
+    <t>a. 长期的 不断的</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>habitual</t>
+  </si>
+  <si>
+    <t>inveterate</t>
+  </si>
+  <si>
+    <t>chronically</t>
+  </si>
+  <si>
+    <t>constantly</t>
+  </si>
+  <si>
+    <t>ad. 长期地</t>
+  </si>
+  <si>
+    <t>circuitous</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>a. 迂回的</t>
+  </si>
+  <si>
+    <t>circumstance</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>n. 环境 情况</t>
+  </si>
+  <si>
+    <t>cite</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>v. 引用</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>a. 典型的</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>a. 容易看见的</t>
+  </si>
+  <si>
+    <t>cling to</t>
+  </si>
+  <si>
+    <t>attach to</t>
+  </si>
+  <si>
+    <t>v. 附着的</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>a. 周密的</t>
+  </si>
+  <si>
+    <t>clue</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>n. 线索</t>
+  </si>
+  <si>
+    <t>coating</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>n. 覆盖层</t>
+  </si>
+  <si>
+    <t>coincide with</t>
+  </si>
+  <si>
+    <t>be at the same time as</t>
+  </si>
+  <si>
+    <t>v. 同时发生</t>
+  </si>
+  <si>
+    <t>collaborate</t>
+  </si>
+  <si>
+    <t>cooperate</t>
+  </si>
+  <si>
+    <t>v. 合作</t>
+  </si>
+  <si>
+    <t>joint effect</t>
+  </si>
+  <si>
+    <t>n. 合作成果</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>v. 收集</t>
+  </si>
+  <si>
+    <t>collide with</t>
+  </si>
+  <si>
+    <t>run into</t>
+  </si>
+  <si>
+    <t>v. 碰撞</t>
+  </si>
+  <si>
+    <t>collide</t>
+  </si>
+  <si>
+    <t>hit each other</t>
+  </si>
+  <si>
+    <t>commemorate</t>
+  </si>
+  <si>
+    <t>celebrate</t>
+  </si>
+  <si>
+    <t>v. 庆祝 纪念</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>compressed</t>
+  </si>
+  <si>
+    <t>a. 紧密的 简明的</t>
+  </si>
+  <si>
+    <t>concise</t>
+  </si>
+  <si>
+    <t>comparable</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>a. 可比较的</t>
+  </si>
+  <si>
+    <t>compel</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>v. 强迫</t>
+  </si>
+  <si>
+    <t>compelling</t>
+  </si>
+  <si>
+    <t>convincing</t>
+  </si>
+  <si>
+    <t>a. 令人信服的</t>
+  </si>
+  <si>
+    <t>compensate</t>
+  </si>
+  <si>
+    <t>reimburse</t>
+  </si>
+  <si>
+    <t>v. 赔偿 补偿</t>
+  </si>
+  <si>
+    <t>compensate for</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>phrv. 赔偿 补偿</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>v. 抗议</t>
+  </si>
+  <si>
+    <t>complement</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>n. 补充物</t>
+  </si>
+  <si>
+    <t>add to</t>
+  </si>
+  <si>
+    <t>v. 补充</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
+    <t>totally</t>
+  </si>
+  <si>
+    <t>ad. 完全地</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>elaborate</t>
+  </si>
+  <si>
+    <t>a. 复杂的</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>n. 复合物 综合体</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>made things more difficult</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>consitiuent</t>
+  </si>
+  <si>
+    <t>a. 组成的</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>mixture</t>
+  </si>
+  <si>
+    <t>n. 合成物</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>understandable</t>
+  </si>
+  <si>
+    <t>a. 能理解的</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>a. 全部的</t>
+  </si>
+  <si>
+    <t>comprise</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>v. 组成</t>
+  </si>
+  <si>
+    <t>make up</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>v. 感兴趣</t>
+  </si>
+  <si>
+    <t>conclusive</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>a. 最后的</t>
+  </si>
+  <si>
+    <t>ultimate</t>
+  </si>
+  <si>
+    <t>conducive</t>
+  </si>
+  <si>
+    <t>contributive</t>
+  </si>
+  <si>
+    <t>a. 有助于...的</t>
+  </si>
+  <si>
+    <t>n. 布局 结构</t>
+  </si>
+  <si>
+    <t>confine</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>v. 限制</t>
+  </si>
+  <si>
+    <t>confront</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>v. 面临</t>
+  </si>
+  <si>
+    <t>congeal</t>
+  </si>
+  <si>
+    <t>solidify</t>
+  </si>
+  <si>
+    <t>v. 使凝结</t>
+  </si>
+  <si>
+    <t>consecutive</t>
+  </si>
+  <si>
+    <t>successive</t>
+  </si>
+  <si>
+    <t>a. 连续的</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>n. 结果 重要性</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>consequent</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>a. 随后的</t>
+  </si>
+  <si>
+    <t>resultant</t>
+  </si>
+  <si>
+    <t>a. 作为结果的</t>
+  </si>
+  <si>
+    <t>resulting</t>
+  </si>
+  <si>
+    <t>consequential</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>a. 重要的</t>
+  </si>
+  <si>
+    <t>consequently</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>ad. 因此</t>
+  </si>
+  <si>
+    <t>thus</t>
+  </si>
+  <si>
+    <t>conserve</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>v. 保存</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>think about</t>
+  </si>
+  <si>
+    <t>v. 考虑 认为</t>
+  </si>
+  <si>
+    <t>think as</t>
+  </si>
+  <si>
+    <t>view as</t>
+  </si>
+  <si>
+    <t>considerable</t>
+  </si>
+  <si>
+    <t>a. 相当大的</t>
+  </si>
+  <si>
+    <t>considerate体谅</t>
+  </si>
+  <si>
+    <t>consist of</t>
+  </si>
+  <si>
+    <t>compose of</t>
+  </si>
+  <si>
+    <t>v. 由...组成的</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>a. 一致的</t>
+  </si>
+  <si>
+    <t>be consistent with</t>
+  </si>
+  <si>
+    <t>be compatible with</t>
+  </si>
+  <si>
+    <t>phr. 一致的</t>
+  </si>
+  <si>
+    <t>consistently</t>
+  </si>
+  <si>
+    <t>regularly</t>
+  </si>
+  <si>
+    <t>ad. 一致的</t>
+  </si>
+  <si>
+    <t>conspicuous</t>
+  </si>
+  <si>
+    <t>notable</t>
+  </si>
+  <si>
+    <t>a. 明显的</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>a. 固定的 不变的</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>ad. 经常 不断地</t>
+  </si>
+  <si>
+    <t>constellation</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>n. 一系列 一群</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>constitution</t>
+  </si>
+  <si>
+    <t>n. 组成 构成</t>
+  </si>
+  <si>
+    <t>constrain</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>n. 限制</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t>consume</t>
+  </si>
+  <si>
+    <t>eat up</t>
+  </si>
+  <si>
+    <t>v. 消耗 吃 喝</t>
+  </si>
+  <si>
+    <t>consumed</t>
+  </si>
+  <si>
+    <t>used up</t>
+  </si>
+  <si>
+    <t>v. 消耗</t>
+  </si>
+  <si>
+    <t>contemplate</t>
+  </si>
+  <si>
+    <t>v. 沉思</t>
+  </si>
+  <si>
+    <t>contentious</t>
+  </si>
+  <si>
+    <t>disputed</t>
+  </si>
+  <si>
+    <t>a. 好争吵的</t>
+  </si>
+  <si>
+    <t>continual</t>
+  </si>
+  <si>
+    <t>a. 不间断的 连续的</t>
   </si>
 </sst>
 </file>
@@ -1308,12 +2031,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1329,14 +2059,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1345,10 +2067,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1369,8 +2098,75 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,58 +2181,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1444,23 +2188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1487,7 +2217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,7 +2229,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,13 +2289,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,13 +2355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,121 +2391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,10 +2405,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1688,7 +2435,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,28 +2470,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1752,8 +2482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1777,152 +2507,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1933,6 +2663,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,12 +2723,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -2001,7 +2732,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2248,27 +2979,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.33333333333333" style="1"/>
-    <col min="2" max="2" width="16.6583333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.675" customWidth="1"/>
-    <col min="4" max="4" width="24.075" customWidth="1"/>
+    <col min="2" max="2" width="16.6592592592593" customWidth="1"/>
+    <col min="3" max="3" width="21.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="24.0740740740741" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="24.8083333333333" customWidth="1"/>
-    <col min="7" max="7" width="32.15" customWidth="1"/>
+    <col min="6" max="6" width="24.8074074074074" customWidth="1"/>
+    <col min="7" max="7" width="32.1481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4534,6 +5266,1131 @@
       </c>
       <c r="D174" t="s">
         <v>427</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C175" t="s">
+        <v>429</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C176" t="s">
+        <v>431</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C177" t="s">
+        <v>432</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C178" t="s">
+        <v>433</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
+        <v>434</v>
+      </c>
+      <c r="C179" t="s">
+        <v>435</v>
+      </c>
+      <c r="D179" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
+        <v>437</v>
+      </c>
+      <c r="C180" t="s">
+        <v>438</v>
+      </c>
+      <c r="D180" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>440</v>
+      </c>
+      <c r="C181" t="s">
+        <v>441</v>
+      </c>
+      <c r="D181" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>443</v>
+      </c>
+      <c r="C182" t="s">
+        <v>444</v>
+      </c>
+      <c r="D182" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" t="s">
+        <v>446</v>
+      </c>
+      <c r="C183" t="s">
+        <v>447</v>
+      </c>
+      <c r="D183" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" t="s">
+        <v>449</v>
+      </c>
+      <c r="C184" t="s">
+        <v>450</v>
+      </c>
+      <c r="D184" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" t="s">
+        <v>449</v>
+      </c>
+      <c r="C185" t="s">
+        <v>452</v>
+      </c>
+      <c r="D185" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" t="s">
+        <v>449</v>
+      </c>
+      <c r="C186" t="s">
+        <v>116</v>
+      </c>
+      <c r="D186" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" t="s">
+        <v>454</v>
+      </c>
+      <c r="C187" t="s">
+        <v>455</v>
+      </c>
+      <c r="D187" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" t="s">
+        <v>457</v>
+      </c>
+      <c r="C188" t="s">
+        <v>458</v>
+      </c>
+      <c r="D188" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" t="s">
+        <v>460</v>
+      </c>
+      <c r="C189" t="s">
+        <v>461</v>
+      </c>
+      <c r="D189" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>462</v>
+      </c>
+      <c r="C190" t="s">
+        <v>463</v>
+      </c>
+      <c r="D190" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" t="s">
+        <v>465</v>
+      </c>
+      <c r="C191" t="s">
+        <v>466</v>
+      </c>
+      <c r="D191" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" t="s">
+        <v>468</v>
+      </c>
+      <c r="C192" t="s">
+        <v>469</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" t="s">
+        <v>468</v>
+      </c>
+      <c r="C193" t="s">
+        <v>471</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C194" t="s">
+        <v>472</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C195" t="s">
+        <v>473</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" t="s">
+        <v>474</v>
+      </c>
+      <c r="C196" t="s">
+        <v>475</v>
+      </c>
+      <c r="D196" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" t="s">
+        <v>477</v>
+      </c>
+      <c r="C197" t="s">
+        <v>478</v>
+      </c>
+      <c r="D197" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" t="s">
+        <v>480</v>
+      </c>
+      <c r="C198" t="s">
+        <v>481</v>
+      </c>
+      <c r="D198" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" t="s">
+        <v>483</v>
+      </c>
+      <c r="C199" t="s">
+        <v>484</v>
+      </c>
+      <c r="D199" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" t="s">
+        <v>483</v>
+      </c>
+      <c r="C200" t="s">
+        <v>152</v>
+      </c>
+      <c r="D200" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" t="s">
+        <v>486</v>
+      </c>
+      <c r="C201" t="s">
+        <v>487</v>
+      </c>
+      <c r="D201" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" t="s">
+        <v>489</v>
+      </c>
+      <c r="C202" t="s">
+        <v>214</v>
+      </c>
+      <c r="D202" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" t="s">
+        <v>489</v>
+      </c>
+      <c r="C203" t="s">
+        <v>490</v>
+      </c>
+      <c r="D203" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" t="s">
+        <v>492</v>
+      </c>
+      <c r="C204" t="s">
+        <v>493</v>
+      </c>
+      <c r="D204" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" t="s">
+        <v>495</v>
+      </c>
+      <c r="C205" t="s">
+        <v>496</v>
+      </c>
+      <c r="D205" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" t="s">
+        <v>498</v>
+      </c>
+      <c r="C206" t="s">
+        <v>499</v>
+      </c>
+      <c r="D206" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
+        <v>501</v>
+      </c>
+      <c r="C207" t="s">
+        <v>502</v>
+      </c>
+      <c r="D207" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" t="s">
+        <v>504</v>
+      </c>
+      <c r="C208" t="s">
+        <v>505</v>
+      </c>
+      <c r="D208" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" t="s">
+        <v>507</v>
+      </c>
+      <c r="C209" t="s">
+        <v>508</v>
+      </c>
+      <c r="D209" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" t="s">
+        <v>507</v>
+      </c>
+      <c r="C210" t="s">
+        <v>510</v>
+      </c>
+      <c r="D210" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" t="s">
+        <v>512</v>
+      </c>
+      <c r="D211" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" t="s">
+        <v>514</v>
+      </c>
+      <c r="C212" t="s">
+        <v>515</v>
+      </c>
+      <c r="D212" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" t="s">
+        <v>517</v>
+      </c>
+      <c r="C213" t="s">
+        <v>518</v>
+      </c>
+      <c r="D213" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" t="s">
+        <v>519</v>
+      </c>
+      <c r="C214" t="s">
+        <v>520</v>
+      </c>
+      <c r="D214" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" t="s">
+        <v>522</v>
+      </c>
+      <c r="C215" t="s">
+        <v>523</v>
+      </c>
+      <c r="D215" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" t="s">
+        <v>522</v>
+      </c>
+      <c r="C216" t="s">
+        <v>525</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" t="s">
+        <v>526</v>
+      </c>
+      <c r="C217" t="s">
+        <v>527</v>
+      </c>
+      <c r="D217" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" t="s">
+        <v>529</v>
+      </c>
+      <c r="C218" t="s">
+        <v>530</v>
+      </c>
+      <c r="D218" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" t="s">
+        <v>532</v>
+      </c>
+      <c r="C219" t="s">
+        <v>533</v>
+      </c>
+      <c r="D219" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" t="s">
+        <v>535</v>
+      </c>
+      <c r="C220" t="s">
+        <v>536</v>
+      </c>
+      <c r="D220" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>538</v>
+      </c>
+      <c r="C221" t="s">
+        <v>539</v>
+      </c>
+      <c r="D221" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>541</v>
+      </c>
+      <c r="C222" t="s">
+        <v>542</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>544</v>
+      </c>
+      <c r="C223" t="s">
+        <v>545</v>
+      </c>
+      <c r="D223" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" t="s">
+        <v>544</v>
+      </c>
+      <c r="C224" t="s">
+        <v>547</v>
+      </c>
+      <c r="D224" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" t="s">
+        <v>549</v>
+      </c>
+      <c r="C225" t="s">
+        <v>550</v>
+      </c>
+      <c r="D225" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" t="s">
+        <v>552</v>
+      </c>
+      <c r="C226" t="s">
+        <v>553</v>
+      </c>
+      <c r="D226" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" t="s">
+        <v>552</v>
+      </c>
+      <c r="C227" t="s">
+        <v>555</v>
+      </c>
+      <c r="D227" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" t="s">
+        <v>557</v>
+      </c>
+      <c r="C228" t="s">
+        <v>558</v>
+      </c>
+      <c r="D228" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" t="s">
+        <v>557</v>
+      </c>
+      <c r="C229" t="s">
+        <v>552</v>
+      </c>
+      <c r="D229" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" t="s">
+        <v>559</v>
+      </c>
+      <c r="C230" t="s">
+        <v>560</v>
+      </c>
+      <c r="D230" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" t="s">
+        <v>562</v>
+      </c>
+      <c r="C231" t="s">
+        <v>563</v>
+      </c>
+      <c r="D231" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" t="s">
+        <v>565</v>
+      </c>
+      <c r="C232" t="s">
+        <v>566</v>
+      </c>
+      <c r="D232" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" t="s">
+        <v>565</v>
+      </c>
+      <c r="C233" t="s">
+        <v>568</v>
+      </c>
+      <c r="D233" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" t="s">
+        <v>570</v>
+      </c>
+      <c r="C234" t="s">
+        <v>571</v>
+      </c>
+      <c r="D234" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="B235" t="s">
+        <v>570</v>
+      </c>
+      <c r="C235" t="s">
+        <v>573</v>
+      </c>
+      <c r="D235" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" t="s">
+        <v>574</v>
+      </c>
+      <c r="C236" t="s">
+        <v>575</v>
+      </c>
+      <c r="D236" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="B237" t="s">
+        <v>577</v>
+      </c>
+      <c r="C237" t="s">
+        <v>578</v>
+      </c>
+      <c r="D237" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" t="s">
+        <v>577</v>
+      </c>
+      <c r="C238" t="s">
+        <v>580</v>
+      </c>
+      <c r="D238" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4">
+      <c r="B239" t="s">
+        <v>581</v>
+      </c>
+      <c r="C239" t="s">
+        <v>582</v>
+      </c>
+      <c r="D239" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4">
+      <c r="B240" t="s">
+        <v>265</v>
+      </c>
+      <c r="C240" t="s">
+        <v>571</v>
+      </c>
+      <c r="D240" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4">
+      <c r="B241" t="s">
+        <v>265</v>
+      </c>
+      <c r="C241" t="s">
+        <v>264</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4">
+      <c r="B242" t="s">
+        <v>585</v>
+      </c>
+      <c r="C242" t="s">
+        <v>586</v>
+      </c>
+      <c r="D242" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4">
+      <c r="B243" t="s">
+        <v>588</v>
+      </c>
+      <c r="C243" t="s">
+        <v>589</v>
+      </c>
+      <c r="D243" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4">
+      <c r="B244" t="s">
+        <v>591</v>
+      </c>
+      <c r="C244" t="s">
+        <v>592</v>
+      </c>
+      <c r="D244" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4">
+      <c r="B245" t="s">
+        <v>594</v>
+      </c>
+      <c r="C245" t="s">
+        <v>595</v>
+      </c>
+      <c r="D245" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4">
+      <c r="B246" t="s">
+        <v>597</v>
+      </c>
+      <c r="C246" t="s">
+        <v>598</v>
+      </c>
+      <c r="D246" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4">
+      <c r="B247" t="s">
+        <v>597</v>
+      </c>
+      <c r="C247" t="s">
+        <v>600</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="B248" t="s">
+        <v>601</v>
+      </c>
+      <c r="C248" t="s">
+        <v>602</v>
+      </c>
+      <c r="D248" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4">
+      <c r="B249" t="s">
+        <v>601</v>
+      </c>
+      <c r="C249" t="s">
+        <v>604</v>
+      </c>
+      <c r="D249" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" t="s">
+        <v>601</v>
+      </c>
+      <c r="C250" t="s">
+        <v>606</v>
+      </c>
+      <c r="D250" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="B251" t="s">
+        <v>607</v>
+      </c>
+      <c r="C251" t="s">
+        <v>608</v>
+      </c>
+      <c r="D251" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4">
+      <c r="B252" t="s">
+        <v>610</v>
+      </c>
+      <c r="C252" t="s">
+        <v>611</v>
+      </c>
+      <c r="D252" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4">
+      <c r="B253" t="s">
+        <v>610</v>
+      </c>
+      <c r="C253" t="s">
+        <v>613</v>
+      </c>
+      <c r="D253" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4">
+      <c r="B254" t="s">
+        <v>614</v>
+      </c>
+      <c r="C254" t="s">
+        <v>615</v>
+      </c>
+      <c r="D254" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4">
+      <c r="B255" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4">
+      <c r="B256" t="s">
+        <v>617</v>
+      </c>
+      <c r="C256" t="s">
+        <v>620</v>
+      </c>
+      <c r="D256" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" t="s">
+        <v>617</v>
+      </c>
+      <c r="C257" t="s">
+        <v>621</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
+        <v>622</v>
+      </c>
+      <c r="C258" t="s">
+        <v>38</v>
+      </c>
+      <c r="D258" t="s">
+        <v>623</v>
+      </c>
+      <c r="E258" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259" t="s">
+        <v>625</v>
+      </c>
+      <c r="C259" t="s">
+        <v>626</v>
+      </c>
+      <c r="D259" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260" t="s">
+        <v>628</v>
+      </c>
+      <c r="C260" t="s">
+        <v>629</v>
+      </c>
+      <c r="D260" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" t="s">
+        <v>631</v>
+      </c>
+      <c r="C261" t="s">
+        <v>632</v>
+      </c>
+      <c r="D261" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262" t="s">
+        <v>634</v>
+      </c>
+      <c r="C262" t="s">
+        <v>635</v>
+      </c>
+      <c r="D262" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263" t="s">
+        <v>637</v>
+      </c>
+      <c r="C263" t="s">
+        <v>638</v>
+      </c>
+      <c r="D263" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264" t="s">
+        <v>640</v>
+      </c>
+      <c r="C264" t="s">
+        <v>641</v>
+      </c>
+      <c r="D264" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="B265" t="s">
+        <v>475</v>
+      </c>
+      <c r="C265" t="s">
+        <v>643</v>
+      </c>
+      <c r="D265" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266" t="s">
+        <v>645</v>
+      </c>
+      <c r="C266" t="s">
+        <v>646</v>
+      </c>
+      <c r="D266" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4">
+      <c r="B267" t="s">
+        <v>645</v>
+      </c>
+      <c r="C267" t="s">
+        <v>648</v>
+      </c>
+      <c r="D267" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4">
+      <c r="B268" t="s">
+        <v>649</v>
+      </c>
+      <c r="C268" t="s">
+        <v>559</v>
+      </c>
+      <c r="D268" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="B269" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4">
+      <c r="B270" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C270" t="s">
+        <v>586</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4">
+      <c r="B271" t="s">
+        <v>653</v>
+      </c>
+      <c r="C271" t="s">
+        <v>655</v>
+      </c>
+      <c r="D271" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4">
+      <c r="B272" t="s">
+        <v>656</v>
+      </c>
+      <c r="C272" t="s">
+        <v>657</v>
+      </c>
+      <c r="D272" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="B273" t="s">
+        <v>659</v>
+      </c>
+      <c r="C273" t="s">
+        <v>660</v>
+      </c>
+      <c r="D273" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="B274" t="s">
+        <v>662</v>
+      </c>
+      <c r="C274" t="s">
+        <v>617</v>
+      </c>
+      <c r="D274" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="B275" t="s">
+        <v>664</v>
+      </c>
+      <c r="C275" t="s">
+        <v>665</v>
+      </c>
+      <c r="D275" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4">
+      <c r="B276" t="s">
+        <v>667</v>
+      </c>
+      <c r="C276" t="s">
+        <v>640</v>
+      </c>
+      <c r="D276" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840">
   <si>
     <t>标记</t>
   </si>
@@ -2024,6 +2024,519 @@
   </si>
   <si>
     <t>a. 不间断的 连续的</t>
+  </si>
+  <si>
+    <t>continuous</t>
+  </si>
+  <si>
+    <t>uninterrupted</t>
+  </si>
+  <si>
+    <t>a. 连续的 持续的</t>
+  </si>
+  <si>
+    <t>on the contrary</t>
+  </si>
+  <si>
+    <t>on the other hand</t>
+  </si>
+  <si>
+    <t>phr. 恰恰相反</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>contrive</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>v. 发明</t>
+  </si>
+  <si>
+    <t>invent</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>customary</t>
+  </si>
+  <si>
+    <t>a. 习惯的 惯例的</t>
+  </si>
+  <si>
+    <t>traditional</t>
+  </si>
+  <si>
+    <t>converging</t>
+  </si>
+  <si>
+    <t>concentrating</t>
+  </si>
+  <si>
+    <t>a. 收缩的 汇聚的</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>v. 使转变</t>
+  </si>
+  <si>
+    <t>convert into</t>
+  </si>
+  <si>
+    <t>v. 转变成</t>
+  </si>
+  <si>
+    <t>convict</t>
+  </si>
+  <si>
+    <t>condemn</t>
+  </si>
+  <si>
+    <t>v. 宣判</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>doom</t>
+  </si>
+  <si>
+    <t>conviction</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>n. 相信 信念</t>
+  </si>
+  <si>
+    <t>strong belief</t>
+  </si>
+  <si>
+    <t>n. 坚定的信念</t>
+  </si>
+  <si>
+    <t>cope with</t>
+  </si>
+  <si>
+    <t>deal with</t>
+  </si>
+  <si>
+    <t>phrv. 应付 处理</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>n. 核心 要点</t>
+  </si>
+  <si>
+    <t>correspondence</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>n. 一致</t>
+  </si>
+  <si>
+    <t>corroborate</t>
+  </si>
+  <si>
+    <t>v. 证实 确认</t>
+  </si>
+  <si>
+    <t>costly</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>a. 贵重的 昂贵的</t>
+  </si>
+  <si>
+    <t>counsel</t>
+  </si>
+  <si>
+    <t>advise</t>
+  </si>
+  <si>
+    <t>v. 忠告</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>oppose</t>
+  </si>
+  <si>
+    <t>v. 反对</t>
+  </si>
+  <si>
+    <t>counter of</t>
+  </si>
+  <si>
+    <t>in the opposite of</t>
+  </si>
+  <si>
+    <t>a. 相反的</t>
+  </si>
+  <si>
+    <t>counterpart</t>
+  </si>
+  <si>
+    <t>n. 副本 同等物</t>
+  </si>
+  <si>
+    <t>similitude</t>
+  </si>
+  <si>
+    <t>n. 副本</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>countervail</t>
+  </si>
+  <si>
+    <t>v. 抵抗 对抗</t>
+  </si>
+  <si>
+    <t>copious</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>v. 与...联系起来</t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>a. 隐蔽的 有盖的</t>
+  </si>
+  <si>
+    <t>crawl</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>v. 爬行 移动</t>
+  </si>
+  <si>
+    <t>v. 创作 产生</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>inventive</t>
+  </si>
+  <si>
+    <t>a. 创造的</t>
+  </si>
+  <si>
+    <t>crest</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>n. 顶峰</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>crucial</t>
+  </si>
+  <si>
+    <t>a. 关键的</t>
+  </si>
+  <si>
+    <t>criticize</t>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>v. 批评 责备</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>crucially</t>
+  </si>
+  <si>
+    <t>decisively</t>
+  </si>
+  <si>
+    <t>ad. 关键地</t>
+  </si>
+  <si>
+    <t>crushed</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>a. 碾碎了的</t>
+  </si>
+  <si>
+    <t>cumbersome</t>
+  </si>
+  <si>
+    <t>awkward</t>
+  </si>
+  <si>
+    <t>a. 笨重的 麻烦的</t>
+  </si>
+  <si>
+    <t>clumsy</t>
+  </si>
+  <si>
+    <t>unwieldy</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>v. 控制 遏制</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>a. 现在</t>
+  </si>
+  <si>
+    <t>dam</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>v. 阻止 控制</t>
+  </si>
+  <si>
+    <t>dangle</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>v. 吊</t>
+  </si>
+  <si>
+    <t>daring</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>a. 大胆的</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t>v. 辩论 争论</t>
+  </si>
+  <si>
+    <t>decimate</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>v. 大量毁灭</t>
+  </si>
+  <si>
+    <t>decimation</t>
+  </si>
+  <si>
+    <t>destruction</t>
+  </si>
+  <si>
+    <t>n. 大量毁灭</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <t>n. 程度</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>delicate</t>
+  </si>
+  <si>
+    <t>dainty</t>
+  </si>
+  <si>
+    <t>a. 易碎的 精美的</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>v. 使高兴</t>
+  </si>
+  <si>
+    <t>pleasure</t>
+  </si>
+  <si>
+    <t>n. 高兴 愉快</t>
+  </si>
+  <si>
+    <t>deluxe</t>
+  </si>
+  <si>
+    <t>lavish</t>
+  </si>
+  <si>
+    <t>a. 奢华的</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>n. 需要 需求</t>
+  </si>
+  <si>
+    <t>in great demand</t>
+  </si>
+  <si>
+    <t>in popularity</t>
+  </si>
+  <si>
+    <t>phr. 普遍</t>
+  </si>
+  <si>
+    <t>demise</t>
+  </si>
+  <si>
+    <t>extinction</t>
+  </si>
+  <si>
+    <t>n. 死亡</t>
+  </si>
+  <si>
+    <t>demography</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>n. 人口统计</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>crowded</t>
+  </si>
+  <si>
+    <t>a. 稠密的 密集的</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t>rely on</t>
+  </si>
+  <si>
+    <t>v. 依赖 依靠</t>
+  </si>
+  <si>
+    <t>dependable</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>a. 可信赖的</t>
+  </si>
+  <si>
+    <t>depict</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>v. 描述</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>v. 描写 描绘</t>
+  </si>
+  <si>
+    <t>depletion</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>n. 消耗</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>lay down</t>
+  </si>
+  <si>
+    <t>v. 放下 放置</t>
+  </si>
+  <si>
+    <t>v. 沉淀</t>
   </si>
 </sst>
 </file>
@@ -2986,10 +3499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="D276" sqref="D276"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -6393,6 +6906,798 @@
         <v>668</v>
       </c>
     </row>
+    <row r="277" spans="2:4">
+      <c r="B277" t="s">
+        <v>669</v>
+      </c>
+      <c r="C277" t="s">
+        <v>670</v>
+      </c>
+      <c r="D277" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278" t="s">
+        <v>672</v>
+      </c>
+      <c r="C278" t="s">
+        <v>673</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="B279" t="s">
+        <v>672</v>
+      </c>
+      <c r="C279" t="s">
+        <v>675</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="B280" t="s">
+        <v>676</v>
+      </c>
+      <c r="C280" t="s">
+        <v>677</v>
+      </c>
+      <c r="D280" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281" t="s">
+        <v>676</v>
+      </c>
+      <c r="C281" t="s">
+        <v>679</v>
+      </c>
+      <c r="D281" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282" t="s">
+        <v>680</v>
+      </c>
+      <c r="C282" t="s">
+        <v>681</v>
+      </c>
+      <c r="D282" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283" t="s">
+        <v>680</v>
+      </c>
+      <c r="C283" t="s">
+        <v>683</v>
+      </c>
+      <c r="D283" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284" t="s">
+        <v>684</v>
+      </c>
+      <c r="C284" t="s">
+        <v>685</v>
+      </c>
+      <c r="D284" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285" t="s">
+        <v>687</v>
+      </c>
+      <c r="C285" t="s">
+        <v>688</v>
+      </c>
+      <c r="D285" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
+      <c r="B286" t="s">
+        <v>690</v>
+      </c>
+      <c r="C286" t="s">
+        <v>158</v>
+      </c>
+      <c r="D286" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4">
+      <c r="B287" t="s">
+        <v>692</v>
+      </c>
+      <c r="C287" t="s">
+        <v>693</v>
+      </c>
+      <c r="D287" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
+      <c r="B288" t="s">
+        <v>692</v>
+      </c>
+      <c r="C288" t="s">
+        <v>695</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
+        <v>692</v>
+      </c>
+      <c r="C289" t="s">
+        <v>696</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>697</v>
+      </c>
+      <c r="C290" t="s">
+        <v>698</v>
+      </c>
+      <c r="D290" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
+        <v>697</v>
+      </c>
+      <c r="C291" t="s">
+        <v>700</v>
+      </c>
+      <c r="D291" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292" t="s">
+        <v>702</v>
+      </c>
+      <c r="C292" t="s">
+        <v>703</v>
+      </c>
+      <c r="D292" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
+        <v>702</v>
+      </c>
+      <c r="C293" t="s">
+        <v>705</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="B294" t="s">
+        <v>706</v>
+      </c>
+      <c r="C294" t="s">
+        <v>707</v>
+      </c>
+      <c r="D294" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="B295" t="s">
+        <v>709</v>
+      </c>
+      <c r="C295" t="s">
+        <v>710</v>
+      </c>
+      <c r="D295" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="B296" t="s">
+        <v>712</v>
+      </c>
+      <c r="C296" t="s">
+        <v>320</v>
+      </c>
+      <c r="D296" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="B297" t="s">
+        <v>714</v>
+      </c>
+      <c r="C297" t="s">
+        <v>715</v>
+      </c>
+      <c r="D297" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="B298" t="s">
+        <v>717</v>
+      </c>
+      <c r="C298" t="s">
+        <v>718</v>
+      </c>
+      <c r="D298" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299" t="s">
+        <v>720</v>
+      </c>
+      <c r="C299" t="s">
+        <v>721</v>
+      </c>
+      <c r="D299" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="B300" t="s">
+        <v>723</v>
+      </c>
+      <c r="C300" t="s">
+        <v>724</v>
+      </c>
+      <c r="D300" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="B301" t="s">
+        <v>726</v>
+      </c>
+      <c r="C301" t="s">
+        <v>527</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
+      <c r="B302" t="s">
+        <v>726</v>
+      </c>
+      <c r="C302" t="s">
+        <v>728</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="B303" t="s">
+        <v>726</v>
+      </c>
+      <c r="C303" t="s">
+        <v>730</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="B304" t="s">
+        <v>731</v>
+      </c>
+      <c r="C304" t="s">
+        <v>535</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" t="s">
+        <v>731</v>
+      </c>
+      <c r="C305" t="s">
+        <v>721</v>
+      </c>
+      <c r="D305" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306" t="s">
+        <v>733</v>
+      </c>
+      <c r="C306" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307" t="s">
+        <v>734</v>
+      </c>
+      <c r="C307" t="s">
+        <v>735</v>
+      </c>
+      <c r="D307" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4">
+      <c r="B308" t="s">
+        <v>737</v>
+      </c>
+      <c r="C308" t="s">
+        <v>738</v>
+      </c>
+      <c r="D308" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309" t="s">
+        <v>740</v>
+      </c>
+      <c r="C309" t="s">
+        <v>741</v>
+      </c>
+      <c r="D309" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" t="s">
+        <v>677</v>
+      </c>
+      <c r="C310" t="s">
+        <v>679</v>
+      </c>
+      <c r="D310" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311" t="s">
+        <v>744</v>
+      </c>
+      <c r="C311" t="s">
+        <v>745</v>
+      </c>
+      <c r="D311" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" t="s">
+        <v>747</v>
+      </c>
+      <c r="C312" t="s">
+        <v>748</v>
+      </c>
+      <c r="D312" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" t="s">
+        <v>750</v>
+      </c>
+      <c r="C313" t="s">
+        <v>751</v>
+      </c>
+      <c r="D313" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="B314" t="s">
+        <v>750</v>
+      </c>
+      <c r="C314" t="s">
+        <v>441</v>
+      </c>
+      <c r="D314" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315" t="s">
+        <v>753</v>
+      </c>
+      <c r="C315" t="s">
+        <v>754</v>
+      </c>
+      <c r="D315" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" t="s">
+        <v>751</v>
+      </c>
+      <c r="C316" t="s">
+        <v>756</v>
+      </c>
+      <c r="D316" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="B317" t="s">
+        <v>757</v>
+      </c>
+      <c r="C317" t="s">
+        <v>758</v>
+      </c>
+      <c r="D317" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="B318" t="s">
+        <v>760</v>
+      </c>
+      <c r="C318" t="s">
+        <v>761</v>
+      </c>
+      <c r="D318" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="B319" t="s">
+        <v>763</v>
+      </c>
+      <c r="C319" t="s">
+        <v>764</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="B320" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C320" t="s">
+        <v>766</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="B321" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C321" t="s">
+        <v>767</v>
+      </c>
+      <c r="D321" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4">
+      <c r="B322" t="s">
+        <v>768</v>
+      </c>
+      <c r="C322" t="s">
+        <v>769</v>
+      </c>
+      <c r="D322" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4">
+      <c r="B323" t="s">
+        <v>771</v>
+      </c>
+      <c r="C323" t="s">
+        <v>772</v>
+      </c>
+      <c r="D323" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="B324" t="s">
+        <v>774</v>
+      </c>
+      <c r="C324" t="s">
+        <v>775</v>
+      </c>
+      <c r="D324" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="B325" t="s">
+        <v>777</v>
+      </c>
+      <c r="C325" t="s">
+        <v>778</v>
+      </c>
+      <c r="D325" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="B326" t="s">
+        <v>780</v>
+      </c>
+      <c r="C326" t="s">
+        <v>781</v>
+      </c>
+      <c r="D326" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4">
+      <c r="B327" t="s">
+        <v>754</v>
+      </c>
+      <c r="C327" t="s">
+        <v>783</v>
+      </c>
+      <c r="D327" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4">
+      <c r="B328" t="s">
+        <v>785</v>
+      </c>
+      <c r="C328" t="s">
+        <v>786</v>
+      </c>
+      <c r="D328" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4">
+      <c r="B329" t="s">
+        <v>788</v>
+      </c>
+      <c r="C329" t="s">
+        <v>789</v>
+      </c>
+      <c r="D329" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4">
+      <c r="B330" t="s">
+        <v>791</v>
+      </c>
+      <c r="C330" t="s">
+        <v>792</v>
+      </c>
+      <c r="D330" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4">
+      <c r="B331" t="s">
+        <v>791</v>
+      </c>
+      <c r="C331" t="s">
+        <v>794</v>
+      </c>
+      <c r="D331" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4">
+      <c r="B332" t="s">
+        <v>795</v>
+      </c>
+      <c r="C332" t="s">
+        <v>796</v>
+      </c>
+      <c r="D332" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4">
+      <c r="B333" t="s">
+        <v>798</v>
+      </c>
+      <c r="C333" t="s">
+        <v>799</v>
+      </c>
+      <c r="D333" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4">
+      <c r="B334" t="s">
+        <v>798</v>
+      </c>
+      <c r="C334" t="s">
+        <v>801</v>
+      </c>
+      <c r="D334" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4">
+      <c r="B335" t="s">
+        <v>803</v>
+      </c>
+      <c r="C335" t="s">
+        <v>804</v>
+      </c>
+      <c r="D335" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4">
+      <c r="B336" t="s">
+        <v>806</v>
+      </c>
+      <c r="C336" t="s">
+        <v>807</v>
+      </c>
+      <c r="D336" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="B337" t="s">
+        <v>809</v>
+      </c>
+      <c r="C337" t="s">
+        <v>810</v>
+      </c>
+      <c r="D337" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="B338" t="s">
+        <v>812</v>
+      </c>
+      <c r="C338" t="s">
+        <v>813</v>
+      </c>
+      <c r="D338" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>815</v>
+      </c>
+      <c r="C339" t="s">
+        <v>816</v>
+      </c>
+      <c r="D339" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="B340" t="s">
+        <v>818</v>
+      </c>
+      <c r="C340" t="s">
+        <v>819</v>
+      </c>
+      <c r="D340" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>818</v>
+      </c>
+      <c r="C341" t="s">
+        <v>821</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>822</v>
+      </c>
+      <c r="C342" t="s">
+        <v>823</v>
+      </c>
+      <c r="D342" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>825</v>
+      </c>
+      <c r="C343" t="s">
+        <v>826</v>
+      </c>
+      <c r="D343" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>828</v>
+      </c>
+      <c r="C344" t="s">
+        <v>829</v>
+      </c>
+      <c r="D344" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
+        <v>828</v>
+      </c>
+      <c r="C345" t="s">
+        <v>831</v>
+      </c>
+      <c r="D345" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
+      <c r="B346" t="s">
+        <v>833</v>
+      </c>
+      <c r="C346" t="s">
+        <v>834</v>
+      </c>
+      <c r="D346" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4">
+      <c r="B347" t="s">
+        <v>836</v>
+      </c>
+      <c r="C347" t="s">
+        <v>837</v>
+      </c>
+      <c r="D347" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4">
+      <c r="B348" t="s">
+        <v>836</v>
+      </c>
+      <c r="C348" t="s">
+        <v>64</v>
+      </c>
+      <c r="D348" t="s">
+        <v>839</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A175"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13335"/>
+    <workbookView windowWidth="19410" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005">
   <si>
     <t>标记</t>
   </si>
@@ -2537,6 +2537,501 @@
   </si>
   <si>
     <t>v. 沉淀</t>
+  </si>
+  <si>
+    <t>34页</t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>v. 源于 导出</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>v. 设计</t>
+  </si>
+  <si>
+    <t>designate</t>
+  </si>
+  <si>
+    <t>identify</t>
+  </si>
+  <si>
+    <t>v. 命名 指定</t>
+  </si>
+  <si>
+    <t>detractor</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>n. 诽谤者 恶意批评者</t>
+  </si>
+  <si>
+    <t>detrimental</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>a. 有害的 不利的</t>
+  </si>
+  <si>
+    <t>deviate</t>
+  </si>
+  <si>
+    <t>digress</t>
+  </si>
+  <si>
+    <t>v. 偏离</t>
+  </si>
+  <si>
+    <t>deviation</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>n. 背离</t>
+  </si>
+  <si>
+    <t>devise</t>
+  </si>
+  <si>
+    <t>v. 设计 发明</t>
+  </si>
+  <si>
+    <t>devoid of</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>a. 缺乏的</t>
+  </si>
+  <si>
+    <t>lack of</t>
+  </si>
+  <si>
+    <t>scant of</t>
+  </si>
+  <si>
+    <t>devoted</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>a. 专心致志的</t>
+  </si>
+  <si>
+    <t>devoted to</t>
+  </si>
+  <si>
+    <t>concentrated on</t>
+  </si>
+  <si>
+    <t>35页</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>v. 命令</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>v. 口授 命令</t>
+  </si>
+  <si>
+    <t>differential</t>
+  </si>
+  <si>
+    <t>uneven</t>
+  </si>
+  <si>
+    <t>a. 差别的 独特的</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>spread out</t>
+  </si>
+  <si>
+    <t>v. 扩散 散步</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>diligent</t>
+  </si>
+  <si>
+    <t>a. 勤奋的</t>
+  </si>
+  <si>
+    <t>diligently</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>ad. 勤奋地</t>
+  </si>
+  <si>
+    <t>dilute</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>v. 稀薄 使薄弱</t>
+  </si>
+  <si>
+    <t>dim</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>v. 变暗淡</t>
+  </si>
+  <si>
+    <t>disassemble</t>
+  </si>
+  <si>
+    <t>break apart</t>
+  </si>
+  <si>
+    <t>v. 拆开</t>
+  </si>
+  <si>
+    <t>break up</t>
+  </si>
+  <si>
+    <t>disband</t>
+  </si>
+  <si>
+    <t>dismiss</t>
+  </si>
+  <si>
+    <t>v. 解散 遣散</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>throw up</t>
+  </si>
+  <si>
+    <t>v. 摒弃 丢弃</t>
+  </si>
+  <si>
+    <t>throw away</t>
+  </si>
+  <si>
+    <t>36页</t>
+  </si>
+  <si>
+    <t>discernible</t>
+  </si>
+  <si>
+    <t>a. 可辨别的</t>
+  </si>
+  <si>
+    <t>discriminating</t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>v. 释放</t>
+  </si>
+  <si>
+    <t>disentangle</t>
+  </si>
+  <si>
+    <t>v. 解开</t>
+  </si>
+  <si>
+    <t>disgust</t>
+  </si>
+  <si>
+    <t>distaste</t>
+  </si>
+  <si>
+    <t>v. 厌恶</t>
+  </si>
+  <si>
+    <t>disintegrate</t>
+  </si>
+  <si>
+    <t>v. 分裂 碎裂</t>
+  </si>
+  <si>
+    <t>fall apart</t>
+  </si>
+  <si>
+    <t>tear apart</t>
+  </si>
+  <si>
+    <t>dismantle</t>
+  </si>
+  <si>
+    <t>demolish</t>
+  </si>
+  <si>
+    <t>v. 拆开 拆除</t>
+  </si>
+  <si>
+    <t>disorder</t>
+  </si>
+  <si>
+    <t>anarchy</t>
+  </si>
+  <si>
+    <t>n. 混乱</t>
+  </si>
+  <si>
+    <t>dispensable</t>
+  </si>
+  <si>
+    <t>not necessary</t>
+  </si>
+  <si>
+    <t>a. 非必要的</t>
+  </si>
+  <si>
+    <t>dispersal</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>n. 散布 驱散</t>
+  </si>
+  <si>
+    <t>displace</t>
+  </si>
+  <si>
+    <t>move out of position</t>
+  </si>
+  <si>
+    <t>v. 迫使...离开</t>
+  </si>
+  <si>
+    <t>37页</t>
+  </si>
+  <si>
+    <t>disposition</t>
+  </si>
+  <si>
+    <t>temperament</t>
+  </si>
+  <si>
+    <t>n. 性格 性情</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>contention</t>
+  </si>
+  <si>
+    <t>n. 争论 争执</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>dissipate</t>
+  </si>
+  <si>
+    <t>disperse</t>
+  </si>
+  <si>
+    <t>v. 驱散</t>
+  </si>
+  <si>
+    <t>dissipated</t>
+  </si>
+  <si>
+    <t>dispersed</t>
+  </si>
+  <si>
+    <t>a. 分散的</t>
+  </si>
+  <si>
+    <t>dissuade</t>
+  </si>
+  <si>
+    <t>discourage</t>
+  </si>
+  <si>
+    <t>v. 劝阻</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>clear and recognizable</t>
+  </si>
+  <si>
+    <t>a. 清楚的 明确的</t>
+  </si>
+  <si>
+    <t>distinction</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>n. 差别</t>
+  </si>
+  <si>
+    <t>excellence</t>
+  </si>
+  <si>
+    <t>n. 优秀 卓越</t>
+  </si>
+  <si>
+    <t>honor</t>
+  </si>
+  <si>
+    <t>n. 荣誉</t>
+  </si>
+  <si>
+    <t>distinctive</t>
+  </si>
+  <si>
+    <t>a. 有特色的</t>
+  </si>
+  <si>
+    <t>distinguish</t>
+  </si>
+  <si>
+    <t>notice from the difference</t>
+  </si>
+  <si>
+    <t>v. 区别 识别</t>
+  </si>
+  <si>
+    <t>38页</t>
+  </si>
+  <si>
+    <t>distribute</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>v. 分配 散步</t>
+  </si>
+  <si>
+    <t>geographic range</t>
+  </si>
+  <si>
+    <t>n. 分布区域</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>n. 散布</t>
+  </si>
+  <si>
+    <t>disturb</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>v. 打乱 扰乱</t>
+  </si>
+  <si>
+    <t>diverse</t>
+  </si>
+  <si>
+    <t>a. 不同的</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>n. 多样性</t>
+  </si>
+  <si>
+    <t>divest</t>
+  </si>
+  <si>
+    <t>get rid of</t>
+  </si>
+  <si>
+    <t>v. 剥夺</t>
+  </si>
+  <si>
+    <t>deprive</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>a. 家庭的 国内的</t>
+  </si>
+  <si>
+    <t>dormant</t>
+  </si>
+  <si>
+    <t>hibernated</t>
+  </si>
+  <si>
+    <t>a. 休眠的</t>
+  </si>
+  <si>
+    <t>dramatically</t>
+  </si>
+  <si>
+    <t>greatly</t>
+  </si>
+  <si>
+    <t>ad. 戏剧性地</t>
+  </si>
+  <si>
+    <t>drastic</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>a. 激烈的 极端的</t>
+  </si>
+  <si>
+    <t>drastically</t>
+  </si>
+  <si>
+    <t>obviously</t>
+  </si>
+  <si>
+    <t>ad. 大大地 彻底地</t>
   </si>
 </sst>
 </file>
@@ -2544,8 +3039,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2566,6 +3061,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2574,120 +3076,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2703,18 +3091,131 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2730,7 +3231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2742,13 +3249,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2760,25 +3285,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2790,73 +3393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2868,43 +3405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,6 +3416,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2929,17 +3439,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2968,6 +3467,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2985,18 +3493,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3020,168 +3521,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3499,15 +4009,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E348"/>
+  <dimension ref="A1:E419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="D348" sqref="D348"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="E405" sqref="E405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="1"/>
+    <col min="1" max="1" width="9.33333333333333" style="2"/>
     <col min="2" max="2" width="16.6592592592593" customWidth="1"/>
     <col min="3" max="3" width="21.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="24.0740740740741" customWidth="1"/>
@@ -3517,7 +4027,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3531,7 +4041,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3545,7 +4055,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -3559,7 +4069,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -3617,7 +4127,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -3631,21 +4141,21 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -3670,7 +4180,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -3695,7 +4205,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -3720,7 +4230,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -3756,7 +4266,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -3770,7 +4280,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -3795,7 +4305,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" t="s">
@@ -3809,7 +4319,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" t="s">
@@ -3823,7 +4333,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -3859,7 +4369,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -3961,7 +4471,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -3997,7 +4507,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -4022,7 +4532,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -4036,7 +4546,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -4050,7 +4560,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -4064,7 +4574,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -4100,7 +4610,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -4114,7 +4624,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -4128,7 +4638,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -4142,7 +4652,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -4156,16 +4666,16 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>9</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4236,21 +4746,21 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>9</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -4264,7 +4774,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -4278,7 +4788,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -4292,7 +4802,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -4306,7 +4816,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -4342,7 +4852,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -4356,21 +4866,21 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>9</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>1</v>
       </c>
       <c r="B69" t="s">
@@ -4395,7 +4905,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -4420,7 +4930,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -4434,21 +4944,21 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>9</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -4473,7 +4983,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -4487,7 +4997,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -4501,7 +5011,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -4537,7 +5047,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -4562,7 +5072,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>1</v>
       </c>
       <c r="B84" t="s">
@@ -4576,7 +5086,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -4590,7 +5100,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -4615,7 +5125,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>1</v>
       </c>
       <c r="B88" t="s">
@@ -4629,7 +5139,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -4643,7 +5153,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -4657,7 +5167,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -4671,7 +5181,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -4685,7 +5195,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -4699,7 +5209,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -4713,7 +5223,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>1</v>
       </c>
       <c r="B95" t="s">
@@ -4727,7 +5237,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -4741,21 +5251,21 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>9</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -4769,7 +5279,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>1</v>
       </c>
       <c r="B99" t="s">
@@ -4805,21 +5315,21 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>9</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>0</v>
       </c>
       <c r="B103" t="s">
@@ -4833,7 +5343,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>0</v>
       </c>
       <c r="B104" t="s">
@@ -4847,21 +5357,21 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>9</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>0</v>
       </c>
       <c r="B106" t="s">
@@ -4875,7 +5385,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>0</v>
       </c>
       <c r="B107" t="s">
@@ -4889,7 +5399,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>0</v>
       </c>
       <c r="B108" t="s">
@@ -4914,7 +5424,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>0</v>
       </c>
       <c r="B110" t="s">
@@ -4928,7 +5438,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>0</v>
       </c>
       <c r="B111" t="s">
@@ -4942,7 +5452,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>0</v>
       </c>
       <c r="B112" t="s">
@@ -4956,7 +5466,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>0</v>
       </c>
       <c r="B113" t="s">
@@ -4970,7 +5480,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>0</v>
       </c>
       <c r="B114" t="s">
@@ -4984,7 +5494,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -4998,7 +5508,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>1</v>
       </c>
       <c r="B116" t="s">
@@ -5045,7 +5555,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>0</v>
       </c>
       <c r="B120" t="s">
@@ -5059,7 +5569,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>0</v>
       </c>
       <c r="B121" t="s">
@@ -5073,21 +5583,21 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>9</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>0</v>
       </c>
       <c r="B123" t="s">
@@ -5112,7 +5622,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>0</v>
       </c>
       <c r="B125" t="s">
@@ -5126,7 +5636,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>0</v>
       </c>
       <c r="B126" t="s">
@@ -5140,7 +5650,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>0</v>
       </c>
       <c r="B127" t="s">
@@ -5154,21 +5664,21 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>9</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>0</v>
       </c>
       <c r="B129" t="s">
@@ -5182,7 +5692,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>0</v>
       </c>
       <c r="B130" t="s">
@@ -5196,7 +5706,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>0</v>
       </c>
       <c r="B131" t="s">
@@ -5210,7 +5720,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>0</v>
       </c>
       <c r="B132" t="s">
@@ -5224,7 +5734,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>0</v>
       </c>
       <c r="B133" t="s">
@@ -5238,7 +5748,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -5285,7 +5795,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>1</v>
       </c>
       <c r="B138" t="s">
@@ -5299,7 +5809,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -5324,7 +5834,7 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>0</v>
       </c>
       <c r="B141" t="s">
@@ -5338,7 +5848,7 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>0</v>
       </c>
       <c r="B142" t="s">
@@ -5352,7 +5862,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>1</v>
       </c>
       <c r="B143" t="s">
@@ -5366,7 +5876,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>1</v>
       </c>
       <c r="B144" t="s">
@@ -5380,7 +5890,7 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>1</v>
       </c>
       <c r="B145" t="s">
@@ -5394,7 +5904,7 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>0</v>
       </c>
       <c r="B146" t="s">
@@ -5408,7 +5918,7 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>0</v>
       </c>
       <c r="B147" t="s">
@@ -5422,7 +5932,7 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>0</v>
       </c>
       <c r="B148" t="s">
@@ -5436,7 +5946,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>0</v>
       </c>
       <c r="B149" t="s">
@@ -5450,7 +5960,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>1</v>
       </c>
       <c r="B150" t="s">
@@ -5475,35 +5985,35 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>9</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>9</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>0</v>
       </c>
       <c r="B154" t="s">
@@ -5517,7 +6027,7 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>0</v>
       </c>
       <c r="B155" t="s">
@@ -5531,7 +6041,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>1</v>
       </c>
       <c r="B156" t="s">
@@ -5545,7 +6055,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>0</v>
       </c>
       <c r="B157" t="s">
@@ -5559,7 +6069,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>1</v>
       </c>
       <c r="B158" t="s">
@@ -5573,30 +6083,30 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>9</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>9</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="4" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5656,7 +6166,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>1</v>
       </c>
       <c r="B166" t="s">
@@ -5670,21 +6180,21 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>9</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="4" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>1</v>
       </c>
       <c r="B168" t="s">
@@ -5698,7 +6208,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -5712,7 +6222,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>1</v>
       </c>
       <c r="B170" t="s">
@@ -5726,7 +6236,7 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>0</v>
       </c>
       <c r="B171" t="s">
@@ -5740,7 +6250,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>0</v>
       </c>
       <c r="B172" t="s">
@@ -5754,7 +6264,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>1</v>
       </c>
       <c r="B173" t="s">
@@ -5768,7 +6278,7 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>0</v>
       </c>
       <c r="B174" t="s">
@@ -5782,46 +6292,46 @@
       </c>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="5" t="s">
         <v>428</v>
       </c>
       <c r="C175" t="s">
         <v>429</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="5" t="s">
         <v>428</v>
       </c>
       <c r="C176" t="s">
         <v>431</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="5" t="s">
         <v>428</v>
       </c>
       <c r="C177" t="s">
         <v>432</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="5" t="s">
         <v>428</v>
       </c>
       <c r="C178" t="s">
         <v>433</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5975,7 +6485,7 @@
       <c r="C192" t="s">
         <v>469</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="5" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5986,29 +6496,29 @@
       <c r="C193" t="s">
         <v>471</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" s="5" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="5" t="s">
+      <c r="B194" t="s">
         <v>468</v>
       </c>
       <c r="C194" t="s">
         <v>472</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="5" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="5" t="s">
+      <c r="B195" t="s">
         <v>468</v>
       </c>
       <c r="C195" t="s">
         <v>473</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="5" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6239,7 +6749,7 @@
       <c r="C216" t="s">
         <v>525</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6305,7 +6815,7 @@
       <c r="C222" t="s">
         <v>542</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6514,7 +7024,7 @@
       <c r="C241" t="s">
         <v>264</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="D241" t="s">
         <v>584</v>
       </c>
     </row>
@@ -6580,7 +7090,7 @@
       <c r="C247" t="s">
         <v>600</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D247" t="s">
         <v>599</v>
       </c>
     </row>
@@ -6662,13 +7172,13 @@
       </c>
     </row>
     <row r="255" spans="2:4">
-      <c r="B255" s="5" t="s">
+      <c r="B255" t="s">
         <v>617</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="C255" t="s">
         <v>618</v>
       </c>
-      <c r="D255" s="5" t="s">
+      <c r="D255" t="s">
         <v>619</v>
       </c>
     </row>
@@ -6690,7 +7200,7 @@
       <c r="C257" t="s">
         <v>621</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257" t="s">
         <v>619</v>
       </c>
     </row>
@@ -6819,24 +7329,24 @@
       </c>
     </row>
     <row r="269" spans="2:4">
-      <c r="B269" s="5" t="s">
+      <c r="B269" t="s">
         <v>651</v>
       </c>
-      <c r="C269" s="5" t="s">
+      <c r="C269" t="s">
         <v>652</v>
       </c>
-      <c r="D269" s="5" t="s">
+      <c r="D269" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="270" spans="2:4">
-      <c r="B270" s="5" t="s">
+      <c r="B270" t="s">
         <v>653</v>
       </c>
       <c r="C270" t="s">
         <v>586</v>
       </c>
-      <c r="D270" s="5" t="s">
+      <c r="D270" t="s">
         <v>654</v>
       </c>
     </row>
@@ -6924,7 +7434,7 @@
       <c r="C278" t="s">
         <v>673</v>
       </c>
-      <c r="D278" s="4" t="s">
+      <c r="D278" s="5" t="s">
         <v>674</v>
       </c>
     </row>
@@ -6935,7 +7445,7 @@
       <c r="C279" t="s">
         <v>675</v>
       </c>
-      <c r="D279" s="4" t="s">
+      <c r="D279" s="5" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7034,7 +7544,7 @@
       <c r="C288" t="s">
         <v>695</v>
       </c>
-      <c r="D288" s="5" t="s">
+      <c r="D288" t="s">
         <v>694</v>
       </c>
     </row>
@@ -7045,7 +7555,7 @@
       <c r="C289" t="s">
         <v>696</v>
       </c>
-      <c r="D289" s="5" t="s">
+      <c r="D289" t="s">
         <v>694</v>
       </c>
     </row>
@@ -7089,7 +7599,7 @@
       <c r="C293" t="s">
         <v>705</v>
       </c>
-      <c r="D293" s="5" t="s">
+      <c r="D293" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7177,7 +7687,7 @@
       <c r="C301" t="s">
         <v>527</v>
       </c>
-      <c r="D301" s="4" t="s">
+      <c r="D301" s="5" t="s">
         <v>727</v>
       </c>
     </row>
@@ -7188,7 +7698,7 @@
       <c r="C302" t="s">
         <v>728</v>
       </c>
-      <c r="D302" s="4" t="s">
+      <c r="D302" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7199,7 +7709,7 @@
       <c r="C303" t="s">
         <v>730</v>
       </c>
-      <c r="D303" s="4" t="s">
+      <c r="D303" s="5" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7210,7 +7720,7 @@
       <c r="C304" t="s">
         <v>535</v>
       </c>
-      <c r="D304" s="5" t="s">
+      <c r="D304" t="s">
         <v>732</v>
       </c>
     </row>
@@ -7375,23 +7885,23 @@
       <c r="C319" t="s">
         <v>764</v>
       </c>
-      <c r="D319" s="5" t="s">
+      <c r="D319" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="320" spans="2:4">
-      <c r="B320" s="5" t="s">
+      <c r="B320" t="s">
         <v>763</v>
       </c>
       <c r="C320" t="s">
         <v>766</v>
       </c>
-      <c r="D320" s="5" t="s">
+      <c r="D320" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="321" spans="2:4">
-      <c r="B321" s="5" t="s">
+      <c r="B321" t="s">
         <v>763</v>
       </c>
       <c r="C321" t="s">
@@ -7617,7 +8127,7 @@
       <c r="C341" t="s">
         <v>821</v>
       </c>
-      <c r="D341" s="5" t="s">
+      <c r="D341" t="s">
         <v>820</v>
       </c>
     </row>
@@ -7696,6 +8206,752 @@
       </c>
       <c r="D348" t="s">
         <v>839</v>
+      </c>
+    </row>
+    <row r="350" s="1" customFormat="1" spans="1:2">
+      <c r="A350" s="6"/>
+      <c r="B350" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="B351" t="s">
+        <v>841</v>
+      </c>
+      <c r="C351" t="s">
+        <v>261</v>
+      </c>
+      <c r="D351" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4">
+      <c r="B352" t="s">
+        <v>843</v>
+      </c>
+      <c r="C352" t="s">
+        <v>677</v>
+      </c>
+      <c r="D352" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4">
+      <c r="B353" t="s">
+        <v>845</v>
+      </c>
+      <c r="C353" t="s">
+        <v>846</v>
+      </c>
+      <c r="D353" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4">
+      <c r="B354" t="s">
+        <v>848</v>
+      </c>
+      <c r="C354" t="s">
+        <v>849</v>
+      </c>
+      <c r="D354" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="B355" t="s">
+        <v>851</v>
+      </c>
+      <c r="C355" t="s">
+        <v>852</v>
+      </c>
+      <c r="D355" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4">
+      <c r="B356" t="s">
+        <v>854</v>
+      </c>
+      <c r="C356" t="s">
+        <v>855</v>
+      </c>
+      <c r="D356" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4">
+      <c r="B357" t="s">
+        <v>857</v>
+      </c>
+      <c r="C357" t="s">
+        <v>858</v>
+      </c>
+      <c r="D357" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4">
+      <c r="B358" t="s">
+        <v>860</v>
+      </c>
+      <c r="C358" t="s">
+        <v>677</v>
+      </c>
+      <c r="D358" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4">
+      <c r="B359" t="s">
+        <v>862</v>
+      </c>
+      <c r="C359" t="s">
+        <v>863</v>
+      </c>
+      <c r="D359" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4">
+      <c r="B360" t="s">
+        <v>862</v>
+      </c>
+      <c r="C360" t="s">
+        <v>865</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4">
+      <c r="B361" t="s">
+        <v>862</v>
+      </c>
+      <c r="C361" t="s">
+        <v>866</v>
+      </c>
+      <c r="D361" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4">
+      <c r="B362" t="s">
+        <v>867</v>
+      </c>
+      <c r="C362" t="s">
+        <v>868</v>
+      </c>
+      <c r="D362" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4">
+      <c r="B363" t="s">
+        <v>870</v>
+      </c>
+      <c r="C363" t="s">
+        <v>871</v>
+      </c>
+      <c r="D363" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="364" s="1" customFormat="1" spans="1:4">
+      <c r="A364" s="6"/>
+      <c r="B364" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D364" s="8"/>
+    </row>
+    <row r="365" spans="2:4">
+      <c r="B365" t="s">
+        <v>873</v>
+      </c>
+      <c r="C365" t="s">
+        <v>874</v>
+      </c>
+      <c r="D365" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4">
+      <c r="B366" t="s">
+        <v>873</v>
+      </c>
+      <c r="C366" t="s">
+        <v>876</v>
+      </c>
+      <c r="D366" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4">
+      <c r="B367" t="s">
+        <v>878</v>
+      </c>
+      <c r="C367" t="s">
+        <v>879</v>
+      </c>
+      <c r="D367" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4">
+      <c r="B368" t="s">
+        <v>881</v>
+      </c>
+      <c r="C368" t="s">
+        <v>882</v>
+      </c>
+      <c r="D368" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4">
+      <c r="B369" t="s">
+        <v>881</v>
+      </c>
+      <c r="C369" t="s">
+        <v>884</v>
+      </c>
+      <c r="D369" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="B370" t="s">
+        <v>885</v>
+      </c>
+      <c r="C370" t="s">
+        <v>496</v>
+      </c>
+      <c r="D370" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4">
+      <c r="B371" t="s">
+        <v>887</v>
+      </c>
+      <c r="C371" t="s">
+        <v>888</v>
+      </c>
+      <c r="D371" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4">
+      <c r="B372" t="s">
+        <v>890</v>
+      </c>
+      <c r="C372" t="s">
+        <v>891</v>
+      </c>
+      <c r="D372" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4">
+      <c r="B373" t="s">
+        <v>893</v>
+      </c>
+      <c r="C373" t="s">
+        <v>894</v>
+      </c>
+      <c r="D373" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4">
+      <c r="B374" t="s">
+        <v>896</v>
+      </c>
+      <c r="C374" t="s">
+        <v>897</v>
+      </c>
+      <c r="D374" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4">
+      <c r="B375" t="s">
+        <v>896</v>
+      </c>
+      <c r="C375" t="s">
+        <v>899</v>
+      </c>
+      <c r="D375" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4">
+      <c r="B376" t="s">
+        <v>900</v>
+      </c>
+      <c r="C376" t="s">
+        <v>901</v>
+      </c>
+      <c r="D376" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4">
+      <c r="B377" t="s">
+        <v>903</v>
+      </c>
+      <c r="C377" t="s">
+        <v>904</v>
+      </c>
+      <c r="D377" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4">
+      <c r="B378" t="s">
+        <v>903</v>
+      </c>
+      <c r="C378" t="s">
+        <v>906</v>
+      </c>
+      <c r="D378" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="379" s="1" customFormat="1" spans="1:2">
+      <c r="A379" s="6"/>
+      <c r="B379" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4">
+      <c r="B380" t="s">
+        <v>908</v>
+      </c>
+      <c r="C380" t="s">
+        <v>238</v>
+      </c>
+      <c r="D380" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4">
+      <c r="B381" t="s">
+        <v>908</v>
+      </c>
+      <c r="C381" t="s">
+        <v>910</v>
+      </c>
+      <c r="D381" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4">
+      <c r="B382" t="s">
+        <v>911</v>
+      </c>
+      <c r="C382" t="s">
+        <v>912</v>
+      </c>
+      <c r="D382" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4">
+      <c r="B383" t="s">
+        <v>914</v>
+      </c>
+      <c r="C383" t="s">
+        <v>900</v>
+      </c>
+      <c r="D383" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4">
+      <c r="B384" t="s">
+        <v>916</v>
+      </c>
+      <c r="C384" t="s">
+        <v>917</v>
+      </c>
+      <c r="D384" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4">
+      <c r="B385" t="s">
+        <v>919</v>
+      </c>
+      <c r="C385" t="s">
+        <v>897</v>
+      </c>
+      <c r="D385" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="B386" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="C386" t="s">
+        <v>921</v>
+      </c>
+      <c r="D386" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4">
+      <c r="B387" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="C387" t="s">
+        <v>922</v>
+      </c>
+      <c r="D387" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4">
+      <c r="B388" t="s">
+        <v>923</v>
+      </c>
+      <c r="C388" t="s">
+        <v>924</v>
+      </c>
+      <c r="D388" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4">
+      <c r="B389" t="s">
+        <v>926</v>
+      </c>
+      <c r="C389" t="s">
+        <v>927</v>
+      </c>
+      <c r="D389" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4">
+      <c r="B390" t="s">
+        <v>929</v>
+      </c>
+      <c r="C390" t="s">
+        <v>930</v>
+      </c>
+      <c r="D390" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4">
+      <c r="B391" t="s">
+        <v>932</v>
+      </c>
+      <c r="C391" t="s">
+        <v>933</v>
+      </c>
+      <c r="D391" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4">
+      <c r="B392" t="s">
+        <v>935</v>
+      </c>
+      <c r="C392" t="s">
+        <v>936</v>
+      </c>
+      <c r="D392" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="393" s="1" customFormat="1" spans="1:2">
+      <c r="A393" s="6"/>
+      <c r="B393" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4">
+      <c r="B394" t="s">
+        <v>939</v>
+      </c>
+      <c r="C394" t="s">
+        <v>940</v>
+      </c>
+      <c r="D394" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4">
+      <c r="B395" t="s">
+        <v>942</v>
+      </c>
+      <c r="C395" t="s">
+        <v>943</v>
+      </c>
+      <c r="D395" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4">
+      <c r="B396" t="s">
+        <v>942</v>
+      </c>
+      <c r="C396" t="s">
+        <v>945</v>
+      </c>
+      <c r="D396" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4">
+      <c r="B397" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D397" s="7" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4">
+      <c r="B398" t="s">
+        <v>949</v>
+      </c>
+      <c r="C398" t="s">
+        <v>950</v>
+      </c>
+      <c r="D398" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4">
+      <c r="B399" t="s">
+        <v>952</v>
+      </c>
+      <c r="C399" t="s">
+        <v>953</v>
+      </c>
+      <c r="D399" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4">
+      <c r="B400" t="s">
+        <v>955</v>
+      </c>
+      <c r="C400" t="s">
+        <v>956</v>
+      </c>
+      <c r="D400" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="B401" t="s">
+        <v>958</v>
+      </c>
+      <c r="C401" t="s">
+        <v>959</v>
+      </c>
+      <c r="D401" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="B402" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C402" t="s">
+        <v>961</v>
+      </c>
+      <c r="D402" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4">
+      <c r="B403" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C403" t="s">
+        <v>963</v>
+      </c>
+      <c r="D403" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4">
+      <c r="B404" t="s">
+        <v>965</v>
+      </c>
+      <c r="C404" t="s">
+        <v>327</v>
+      </c>
+      <c r="D404" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4">
+      <c r="B405" t="s">
+        <v>967</v>
+      </c>
+      <c r="C405" t="s">
+        <v>968</v>
+      </c>
+      <c r="D405" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="406" s="1" customFormat="1" spans="1:2">
+      <c r="A406" s="6"/>
+      <c r="B406" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4">
+      <c r="B407" t="s">
+        <v>971</v>
+      </c>
+      <c r="C407" t="s">
+        <v>972</v>
+      </c>
+      <c r="D407" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4">
+      <c r="B408" t="s">
+        <v>933</v>
+      </c>
+      <c r="C408" t="s">
+        <v>974</v>
+      </c>
+      <c r="D408" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4">
+      <c r="B409" t="s">
+        <v>933</v>
+      </c>
+      <c r="C409" t="s">
+        <v>976</v>
+      </c>
+      <c r="D409" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4">
+      <c r="B410" t="s">
+        <v>978</v>
+      </c>
+      <c r="C410" t="s">
+        <v>979</v>
+      </c>
+      <c r="D410" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4">
+      <c r="B411" t="s">
+        <v>981</v>
+      </c>
+      <c r="C411" t="s">
+        <v>955</v>
+      </c>
+      <c r="D411" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4">
+      <c r="B412" t="s">
+        <v>983</v>
+      </c>
+      <c r="C412" t="s">
+        <v>984</v>
+      </c>
+      <c r="D412" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4">
+      <c r="B413" t="s">
+        <v>986</v>
+      </c>
+      <c r="C413" t="s">
+        <v>987</v>
+      </c>
+      <c r="D413" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4">
+      <c r="B414" t="s">
+        <v>986</v>
+      </c>
+      <c r="C414" t="s">
+        <v>989</v>
+      </c>
+      <c r="D414" s="7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4">
+      <c r="B415" t="s">
+        <v>990</v>
+      </c>
+      <c r="C415" t="s">
+        <v>991</v>
+      </c>
+      <c r="D415" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4">
+      <c r="B416" t="s">
+        <v>993</v>
+      </c>
+      <c r="C416" t="s">
+        <v>994</v>
+      </c>
+      <c r="D416" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4">
+      <c r="B417" t="s">
+        <v>996</v>
+      </c>
+      <c r="C417" t="s">
+        <v>997</v>
+      </c>
+      <c r="D417" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4">
+      <c r="B418" t="s">
+        <v>999</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4">
+      <c r="B419" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047">
   <si>
     <t>标记</t>
   </si>
@@ -3032,6 +3032,132 @@
   </si>
   <si>
     <t>ad. 大大地 彻底地</t>
+  </si>
+  <si>
+    <t>39页</t>
+  </si>
+  <si>
+    <t>severely</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>a. 双的</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>v. 复制</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>lasting</t>
+  </si>
+  <si>
+    <t>a. 经久的 持久的</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>n. 为期</t>
+  </si>
+  <si>
+    <t>40页</t>
+  </si>
+  <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t>v. 赚得 赢得</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>v. 使减轻 使缓和</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>erratic</t>
+  </si>
+  <si>
+    <t>a. 古怪的 反常的</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>efface</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>v. 消去</t>
+  </si>
+  <si>
+    <t>detailed</t>
+  </si>
+  <si>
+    <t>a. 精巧的 详尽的</t>
+  </si>
+  <si>
+    <t>elapsed</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>a. 过去的 经过的</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>weather condition</t>
+  </si>
+  <si>
+    <t>n. 恶劣的天气</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>v. 排除 消除</t>
+  </si>
+  <si>
+    <t>elusive</t>
+  </si>
+  <si>
+    <t>difficult to catch</t>
+  </si>
+  <si>
+    <t>a. 难懂的 难捉摸的</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +3170,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3054,7 +3180,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3204,7 +3342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3214,6 +3352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3521,165 +3665,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3688,10 +3838,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4009,15 +4168,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E419"/>
+  <dimension ref="A1:E437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="E405" sqref="E405"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="2"/>
+    <col min="1" max="1" width="9.33333333333333" style="4"/>
     <col min="2" max="2" width="16.6592592592593" customWidth="1"/>
     <col min="3" max="3" width="21.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="24.0740740740741" customWidth="1"/>
@@ -4027,7 +4186,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4041,7 +4200,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4055,7 +4214,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -4069,7 +4228,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -4127,7 +4286,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -4141,21 +4300,21 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -4180,7 +4339,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -4205,7 +4364,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -4230,7 +4389,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -4266,7 +4425,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -4280,7 +4439,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -4305,7 +4464,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>1</v>
       </c>
       <c r="B23" t="s">
@@ -4319,7 +4478,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>1</v>
       </c>
       <c r="B24" t="s">
@@ -4333,7 +4492,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -4369,7 +4528,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -4471,7 +4630,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -4507,7 +4666,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -4532,7 +4691,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -4546,7 +4705,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -4560,7 +4719,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -4574,7 +4733,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -4610,7 +4769,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -4624,7 +4783,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -4638,7 +4797,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -4652,7 +4811,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -4666,16 +4825,16 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>9</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4746,21 +4905,21 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>9</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -4774,7 +4933,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -4788,7 +4947,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -4802,7 +4961,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -4816,7 +4975,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2">
+      <c r="A64" s="4">
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -4852,7 +5011,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -4866,21 +5025,21 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>9</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>1</v>
       </c>
       <c r="B69" t="s">
@@ -4905,7 +5064,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -4930,7 +5089,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -4944,21 +5103,21 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>9</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -4983,7 +5142,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -4997,7 +5156,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -5011,7 +5170,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -5047,7 +5206,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="4">
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -5072,7 +5231,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="4">
         <v>1</v>
       </c>
       <c r="B84" t="s">
@@ -5086,7 +5245,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="4">
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -5100,7 +5259,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="2">
+      <c r="A86" s="4">
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -5125,7 +5284,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>1</v>
       </c>
       <c r="B88" t="s">
@@ -5139,7 +5298,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -5153,7 +5312,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="2">
+      <c r="A90" s="4">
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -5167,7 +5326,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="2">
+      <c r="A91" s="4">
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -5181,7 +5340,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -5195,7 +5354,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="2">
+      <c r="A93" s="4">
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -5209,7 +5368,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2">
+      <c r="A94" s="4">
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -5223,7 +5382,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>1</v>
       </c>
       <c r="B95" t="s">
@@ -5237,7 +5396,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="2">
+      <c r="A96" s="4">
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -5251,21 +5410,21 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="3">
+      <c r="A97" s="5">
         <v>9</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="2">
+      <c r="A98" s="4">
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -5279,7 +5438,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="2">
+      <c r="A99" s="4">
         <v>1</v>
       </c>
       <c r="B99" t="s">
@@ -5315,21 +5474,21 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="3">
+      <c r="A102" s="5">
         <v>9</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2">
+      <c r="A103" s="4">
         <v>0</v>
       </c>
       <c r="B103" t="s">
@@ -5343,7 +5502,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2">
+      <c r="A104" s="4">
         <v>0</v>
       </c>
       <c r="B104" t="s">
@@ -5357,21 +5516,21 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="3">
+      <c r="A105" s="5">
         <v>9</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2">
+      <c r="A106" s="4">
         <v>0</v>
       </c>
       <c r="B106" t="s">
@@ -5385,7 +5544,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="2">
+      <c r="A107" s="4">
         <v>0</v>
       </c>
       <c r="B107" t="s">
@@ -5399,7 +5558,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="2">
+      <c r="A108" s="4">
         <v>0</v>
       </c>
       <c r="B108" t="s">
@@ -5424,7 +5583,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="2">
+      <c r="A110" s="4">
         <v>0</v>
       </c>
       <c r="B110" t="s">
@@ -5438,7 +5597,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="2">
+      <c r="A111" s="4">
         <v>0</v>
       </c>
       <c r="B111" t="s">
@@ -5452,7 +5611,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="2">
+      <c r="A112" s="4">
         <v>0</v>
       </c>
       <c r="B112" t="s">
@@ -5466,7 +5625,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="2">
+      <c r="A113" s="4">
         <v>0</v>
       </c>
       <c r="B113" t="s">
@@ -5480,7 +5639,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="2">
+      <c r="A114" s="4">
         <v>0</v>
       </c>
       <c r="B114" t="s">
@@ -5494,7 +5653,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="2">
+      <c r="A115" s="4">
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -5508,7 +5667,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="2">
+      <c r="A116" s="4">
         <v>1</v>
       </c>
       <c r="B116" t="s">
@@ -5555,7 +5714,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="2">
+      <c r="A120" s="4">
         <v>0</v>
       </c>
       <c r="B120" t="s">
@@ -5569,7 +5728,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="2">
+      <c r="A121" s="4">
         <v>0</v>
       </c>
       <c r="B121" t="s">
@@ -5583,21 +5742,21 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="3">
+      <c r="A122" s="5">
         <v>9</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="2">
+      <c r="A123" s="4">
         <v>0</v>
       </c>
       <c r="B123" t="s">
@@ -5622,7 +5781,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="2">
+      <c r="A125" s="4">
         <v>0</v>
       </c>
       <c r="B125" t="s">
@@ -5636,7 +5795,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="2">
+      <c r="A126" s="4">
         <v>0</v>
       </c>
       <c r="B126" t="s">
@@ -5650,7 +5809,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="2">
+      <c r="A127" s="4">
         <v>0</v>
       </c>
       <c r="B127" t="s">
@@ -5664,21 +5823,21 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="3">
+      <c r="A128" s="5">
         <v>9</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="6" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="2">
+      <c r="A129" s="4">
         <v>0</v>
       </c>
       <c r="B129" t="s">
@@ -5692,7 +5851,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="2">
+      <c r="A130" s="4">
         <v>0</v>
       </c>
       <c r="B130" t="s">
@@ -5706,7 +5865,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="2">
+      <c r="A131" s="4">
         <v>0</v>
       </c>
       <c r="B131" t="s">
@@ -5720,7 +5879,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="2">
+      <c r="A132" s="4">
         <v>0</v>
       </c>
       <c r="B132" t="s">
@@ -5734,7 +5893,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="2">
+      <c r="A133" s="4">
         <v>0</v>
       </c>
       <c r="B133" t="s">
@@ -5748,7 +5907,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="2">
+      <c r="A134" s="4">
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -5795,7 +5954,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="2">
+      <c r="A138" s="4">
         <v>1</v>
       </c>
       <c r="B138" t="s">
@@ -5809,7 +5968,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="2">
+      <c r="A139" s="4">
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -5834,7 +5993,7 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="2">
+      <c r="A141" s="4">
         <v>0</v>
       </c>
       <c r="B141" t="s">
@@ -5848,7 +6007,7 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="2">
+      <c r="A142" s="4">
         <v>0</v>
       </c>
       <c r="B142" t="s">
@@ -5862,7 +6021,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="2">
+      <c r="A143" s="4">
         <v>1</v>
       </c>
       <c r="B143" t="s">
@@ -5876,7 +6035,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="2">
+      <c r="A144" s="4">
         <v>1</v>
       </c>
       <c r="B144" t="s">
@@ -5890,7 +6049,7 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="2">
+      <c r="A145" s="4">
         <v>1</v>
       </c>
       <c r="B145" t="s">
@@ -5904,7 +6063,7 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="2">
+      <c r="A146" s="4">
         <v>0</v>
       </c>
       <c r="B146" t="s">
@@ -5918,7 +6077,7 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="2">
+      <c r="A147" s="4">
         <v>0</v>
       </c>
       <c r="B147" t="s">
@@ -5932,7 +6091,7 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="2">
+      <c r="A148" s="4">
         <v>0</v>
       </c>
       <c r="B148" t="s">
@@ -5946,7 +6105,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="2">
+      <c r="A149" s="4">
         <v>0</v>
       </c>
       <c r="B149" t="s">
@@ -5960,7 +6119,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="2">
+      <c r="A150" s="4">
         <v>1</v>
       </c>
       <c r="B150" t="s">
@@ -5985,35 +6144,35 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="3">
+      <c r="A152" s="5">
         <v>9</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="6" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="3">
+      <c r="A153" s="5">
         <v>9</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="6" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="2">
+      <c r="A154" s="4">
         <v>0</v>
       </c>
       <c r="B154" t="s">
@@ -6027,7 +6186,7 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="2">
+      <c r="A155" s="4">
         <v>0</v>
       </c>
       <c r="B155" t="s">
@@ -6041,7 +6200,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="2">
+      <c r="A156" s="4">
         <v>1</v>
       </c>
       <c r="B156" t="s">
@@ -6055,7 +6214,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="2">
+      <c r="A157" s="4">
         <v>0</v>
       </c>
       <c r="B157" t="s">
@@ -6069,7 +6228,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="2">
+      <c r="A158" s="4">
         <v>1</v>
       </c>
       <c r="B158" t="s">
@@ -6083,30 +6242,30 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="3">
+      <c r="A159" s="5">
         <v>9</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="6" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="3">
+      <c r="A160" s="5">
         <v>9</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="6" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6166,7 +6325,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="2">
+      <c r="A166" s="4">
         <v>1</v>
       </c>
       <c r="B166" t="s">
@@ -6180,21 +6339,21 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="3">
+      <c r="A167" s="5">
         <v>9</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="6" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="2">
+      <c r="A168" s="4">
         <v>1</v>
       </c>
       <c r="B168" t="s">
@@ -6208,7 +6367,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="2">
+      <c r="A169" s="4">
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -6222,7 +6381,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="2">
+      <c r="A170" s="4">
         <v>1</v>
       </c>
       <c r="B170" t="s">
@@ -6236,7 +6395,7 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="2">
+      <c r="A171" s="4">
         <v>0</v>
       </c>
       <c r="B171" t="s">
@@ -6250,7 +6409,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="2">
+      <c r="A172" s="4">
         <v>0</v>
       </c>
       <c r="B172" t="s">
@@ -6264,7 +6423,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="2">
+      <c r="A173" s="4">
         <v>1</v>
       </c>
       <c r="B173" t="s">
@@ -6278,7 +6437,7 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="2">
+      <c r="A174" s="4">
         <v>0</v>
       </c>
       <c r="B174" t="s">
@@ -6292,7 +6451,7 @@
       </c>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="7" t="s">
         <v>428</v>
       </c>
       <c r="C175" t="s">
@@ -6303,7 +6462,7 @@
       </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="7" t="s">
         <v>428</v>
       </c>
       <c r="C176" t="s">
@@ -6314,7 +6473,7 @@
       </c>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="7" t="s">
         <v>428</v>
       </c>
       <c r="C177" t="s">
@@ -6325,7 +6484,7 @@
       </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="7" t="s">
         <v>428</v>
       </c>
       <c r="C178" t="s">
@@ -6485,7 +6644,7 @@
       <c r="C192" t="s">
         <v>469</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="7" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6496,7 +6655,7 @@
       <c r="C193" t="s">
         <v>471</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="7" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6507,7 +6666,7 @@
       <c r="C194" t="s">
         <v>472</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="7" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6518,7 +6677,7 @@
       <c r="C195" t="s">
         <v>473</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="7" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7434,7 +7593,7 @@
       <c r="C278" t="s">
         <v>673</v>
       </c>
-      <c r="D278" s="5" t="s">
+      <c r="D278" s="7" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7445,7 +7604,7 @@
       <c r="C279" t="s">
         <v>675</v>
       </c>
-      <c r="D279" s="5" t="s">
+      <c r="D279" s="7" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7687,7 +7846,7 @@
       <c r="C301" t="s">
         <v>527</v>
       </c>
-      <c r="D301" s="5" t="s">
+      <c r="D301" s="7" t="s">
         <v>727</v>
       </c>
     </row>
@@ -7698,7 +7857,7 @@
       <c r="C302" t="s">
         <v>728</v>
       </c>
-      <c r="D302" s="5" t="s">
+      <c r="D302" s="7" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7709,7 +7868,7 @@
       <c r="C303" t="s">
         <v>730</v>
       </c>
-      <c r="D303" s="5" t="s">
+      <c r="D303" s="7" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8208,98 +8367,109 @@
         <v>839</v>
       </c>
     </row>
-    <row r="350" s="1" customFormat="1" spans="1:2">
-      <c r="A350" s="6"/>
-      <c r="B350" s="1" t="s">
+    <row r="349" s="1" customFormat="1" spans="1:2">
+      <c r="A349" s="8"/>
+      <c r="B349" s="1" t="s">
         <v>840</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="B350" t="s">
+        <v>841</v>
+      </c>
+      <c r="C350" t="s">
+        <v>261</v>
+      </c>
+      <c r="D350" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="351" spans="2:4">
       <c r="B351" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C351" t="s">
-        <v>261</v>
+        <v>677</v>
       </c>
       <c r="D351" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="352" spans="2:4">
       <c r="B352" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C352" t="s">
-        <v>677</v>
+        <v>846</v>
       </c>
       <c r="D352" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="353" spans="2:4">
       <c r="B353" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C353" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D353" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="354" spans="2:4">
       <c r="B354" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C354" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D354" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="355" spans="2:4">
       <c r="B355" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C355" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D355" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="356" spans="2:4">
       <c r="B356" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="C356" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D356" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="357" spans="2:4">
       <c r="B357" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C357" t="s">
-        <v>858</v>
+        <v>677</v>
       </c>
       <c r="D357" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="358" spans="2:4">
       <c r="B358" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C358" t="s">
-        <v>677</v>
+        <v>863</v>
       </c>
       <c r="D358" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="359" spans="2:4">
@@ -8307,9 +8477,9 @@
         <v>862</v>
       </c>
       <c r="C359" t="s">
-        <v>863</v>
-      </c>
-      <c r="D359" t="s">
+        <v>865</v>
+      </c>
+      <c r="D359" s="9" t="s">
         <v>864</v>
       </c>
     </row>
@@ -8318,83 +8488,83 @@
         <v>862</v>
       </c>
       <c r="C360" t="s">
-        <v>865</v>
-      </c>
-      <c r="D360" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D360" s="9" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="361" spans="2:4">
       <c r="B361" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C361" t="s">
-        <v>866</v>
-      </c>
-      <c r="D361" s="7" t="s">
-        <v>864</v>
+        <v>868</v>
+      </c>
+      <c r="D361" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="362" spans="2:4">
       <c r="B362" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C362" t="s">
-        <v>868</v>
-      </c>
-      <c r="D362" t="s">
+        <v>871</v>
+      </c>
+      <c r="D362" s="9" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="363" spans="2:4">
-      <c r="B363" t="s">
-        <v>870</v>
-      </c>
-      <c r="C363" t="s">
-        <v>871</v>
-      </c>
-      <c r="D363" s="7" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="364" s="1" customFormat="1" spans="1:4">
-      <c r="A364" s="6"/>
-      <c r="B364" s="1" t="s">
+    <row r="363" s="1" customFormat="1" spans="1:4">
+      <c r="A363" s="8"/>
+      <c r="B363" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D364" s="8"/>
+      <c r="D363" s="10"/>
+    </row>
+    <row r="364" spans="2:4">
+      <c r="B364" t="s">
+        <v>873</v>
+      </c>
+      <c r="C364" t="s">
+        <v>874</v>
+      </c>
+      <c r="D364" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="365" spans="2:4">
       <c r="B365" t="s">
         <v>873</v>
       </c>
       <c r="C365" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D365" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="366" spans="2:4">
       <c r="B366" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C366" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D366" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="367" spans="2:4">
       <c r="B367" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C367" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D367" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="368" spans="2:4">
@@ -8402,7 +8572,7 @@
         <v>881</v>
       </c>
       <c r="C368" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D368" t="s">
         <v>883</v>
@@ -8410,57 +8580,57 @@
     </row>
     <row r="369" spans="2:4">
       <c r="B369" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C369" t="s">
-        <v>884</v>
+        <v>496</v>
       </c>
       <c r="D369" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="370" spans="2:4">
       <c r="B370" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C370" t="s">
-        <v>496</v>
+        <v>888</v>
       </c>
       <c r="D370" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="371" spans="2:4">
       <c r="B371" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C371" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D371" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="372" spans="2:4">
       <c r="B372" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C372" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D372" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="373" spans="2:4">
       <c r="B373" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C373" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D373" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="374" spans="2:4">
@@ -8468,7 +8638,7 @@
         <v>896</v>
       </c>
       <c r="C374" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D374" t="s">
         <v>898</v>
@@ -8476,24 +8646,24 @@
     </row>
     <row r="375" spans="2:4">
       <c r="B375" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C375" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D375" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="376" spans="2:4">
       <c r="B376" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C376" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D376" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="377" spans="2:4">
@@ -8501,27 +8671,27 @@
         <v>903</v>
       </c>
       <c r="C377" t="s">
-        <v>904</v>
-      </c>
-      <c r="D377" t="s">
+        <v>906</v>
+      </c>
+      <c r="D377" s="9" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="378" spans="2:4">
-      <c r="B378" t="s">
-        <v>903</v>
-      </c>
-      <c r="C378" t="s">
-        <v>906</v>
-      </c>
-      <c r="D378" s="7" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="379" s="1" customFormat="1" spans="1:2">
-      <c r="A379" s="6"/>
-      <c r="B379" s="1" t="s">
+    <row r="378" s="1" customFormat="1" spans="1:2">
+      <c r="A378" s="8"/>
+      <c r="B378" s="1" t="s">
         <v>907</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="B379" t="s">
+        <v>908</v>
+      </c>
+      <c r="C379" t="s">
+        <v>238</v>
+      </c>
+      <c r="D379" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="380" spans="2:4">
@@ -8529,159 +8699,159 @@
         <v>908</v>
       </c>
       <c r="C380" t="s">
-        <v>238</v>
-      </c>
-      <c r="D380" t="s">
+        <v>910</v>
+      </c>
+      <c r="D380" s="9" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="381" spans="2:4">
       <c r="B381" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C381" t="s">
-        <v>910</v>
-      </c>
-      <c r="D381" s="7" t="s">
-        <v>909</v>
+        <v>912</v>
+      </c>
+      <c r="D381" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="382" spans="2:4">
       <c r="B382" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C382" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="D382" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="383" spans="2:4">
       <c r="B383" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C383" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="D383" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="384" spans="2:4">
       <c r="B384" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C384" t="s">
-        <v>917</v>
-      </c>
-      <c r="D384" t="s">
-        <v>918</v>
+        <v>897</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="385" spans="2:4">
-      <c r="B385" t="s">
+      <c r="B385" s="9" t="s">
         <v>919</v>
       </c>
       <c r="C385" t="s">
-        <v>897</v>
-      </c>
-      <c r="D385" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D385" s="9" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="386" spans="2:4">
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="9" t="s">
         <v>919</v>
       </c>
       <c r="C386" t="s">
-        <v>921</v>
-      </c>
-      <c r="D386" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D386" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="387" spans="2:4">
-      <c r="B387" s="7" t="s">
-        <v>919</v>
+      <c r="B387" t="s">
+        <v>923</v>
       </c>
       <c r="C387" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D387" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="388" spans="2:4">
       <c r="B388" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="C388" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D388" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="389" spans="2:4">
       <c r="B389" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C389" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="D389" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="390" spans="2:4">
       <c r="B390" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C390" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D390" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="391" spans="2:4">
       <c r="B391" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C391" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D391" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="392" spans="2:4">
-      <c r="B392" t="s">
-        <v>935</v>
-      </c>
-      <c r="C392" t="s">
-        <v>936</v>
-      </c>
-      <c r="D392" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="393" s="1" customFormat="1" spans="1:2">
-      <c r="A393" s="6"/>
-      <c r="B393" s="1" t="s">
+    <row r="392" s="1" customFormat="1" spans="1:2">
+      <c r="A392" s="8"/>
+      <c r="B392" s="1" t="s">
         <v>938</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4">
+      <c r="B393" t="s">
+        <v>939</v>
+      </c>
+      <c r="C393" t="s">
+        <v>940</v>
+      </c>
+      <c r="D393" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="394" spans="2:4">
       <c r="B394" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C394" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D394" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="395" spans="2:4">
@@ -8689,137 +8859,137 @@
         <v>942</v>
       </c>
       <c r="C395" t="s">
-        <v>943</v>
-      </c>
-      <c r="D395" t="s">
+        <v>945</v>
+      </c>
+      <c r="D395" s="9" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="396" spans="2:4">
-      <c r="B396" t="s">
-        <v>942</v>
-      </c>
-      <c r="C396" t="s">
-        <v>945</v>
-      </c>
-      <c r="D396" s="7" t="s">
-        <v>944</v>
+      <c r="B396" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="397" spans="2:4">
-      <c r="B397" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="C397" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="D397" s="7" t="s">
-        <v>948</v>
+      <c r="B397" t="s">
+        <v>949</v>
+      </c>
+      <c r="C397" t="s">
+        <v>950</v>
+      </c>
+      <c r="D397" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="398" spans="2:4">
       <c r="B398" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C398" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D398" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="399" spans="2:4">
       <c r="B399" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C399" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D399" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="400" spans="2:4">
       <c r="B400" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C400" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D400" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="401" spans="2:4">
-      <c r="B401" t="s">
+      <c r="B401" s="9" t="s">
         <v>958</v>
       </c>
       <c r="C401" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D401" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="402" spans="2:4">
-      <c r="B402" s="7" t="s">
+      <c r="B402" s="9" t="s">
         <v>958</v>
       </c>
       <c r="C402" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D402" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="403" spans="2:4">
-      <c r="B403" s="7" t="s">
-        <v>958</v>
+      <c r="B403" t="s">
+        <v>965</v>
       </c>
       <c r="C403" t="s">
-        <v>963</v>
+        <v>327</v>
       </c>
       <c r="D403" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="404" spans="2:4">
       <c r="B404" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C404" t="s">
-        <v>327</v>
+        <v>968</v>
       </c>
       <c r="D404" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4">
-      <c r="B405" t="s">
-        <v>967</v>
-      </c>
-      <c r="C405" t="s">
-        <v>968</v>
-      </c>
-      <c r="D405" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="406" s="1" customFormat="1" spans="1:2">
-      <c r="A406" s="6"/>
-      <c r="B406" s="1" t="s">
+    <row r="405" s="1" customFormat="1" spans="1:2">
+      <c r="A405" s="8"/>
+      <c r="B405" s="1" t="s">
         <v>970</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4">
+      <c r="B406" t="s">
+        <v>971</v>
+      </c>
+      <c r="C406" t="s">
+        <v>972</v>
+      </c>
+      <c r="D406" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="407" spans="2:4">
       <c r="B407" t="s">
-        <v>971</v>
+        <v>933</v>
       </c>
       <c r="C407" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D407" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="408" spans="2:4">
@@ -8827,54 +8997,54 @@
         <v>933</v>
       </c>
       <c r="C408" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D408" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="409" spans="2:4">
       <c r="B409" t="s">
-        <v>933</v>
+        <v>978</v>
       </c>
       <c r="C409" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D409" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="410" spans="2:4">
       <c r="B410" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C410" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="D410" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="411" spans="2:4">
       <c r="B411" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C411" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="D411" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="412" spans="2:4">
       <c r="B412" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C412" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D412" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="413" spans="2:4">
@@ -8882,76 +9052,264 @@
         <v>986</v>
       </c>
       <c r="C413" t="s">
-        <v>987</v>
-      </c>
-      <c r="D413" t="s">
+        <v>989</v>
+      </c>
+      <c r="D413" s="9" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="414" spans="2:4">
       <c r="B414" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C414" t="s">
-        <v>989</v>
-      </c>
-      <c r="D414" s="7" t="s">
-        <v>988</v>
+        <v>991</v>
+      </c>
+      <c r="D414" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="415" spans="2:4">
       <c r="B415" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C415" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D415" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="416" spans="2:4">
       <c r="B416" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="C416" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D416" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="417" spans="2:4">
       <c r="B417" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C417" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D417" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="418" spans="2:4">
       <c r="B418" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C418" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D418" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="419" spans="2:4">
-      <c r="B419" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="419" s="2" customFormat="1" spans="1:2">
+      <c r="A419" s="11"/>
+      <c r="B419" s="12" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4">
+      <c r="B420" t="s">
         <v>1002</v>
       </c>
-      <c r="C419" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D419" t="s">
+      <c r="C420" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D420" s="9" t="s">
         <v>1004</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4">
+      <c r="B421" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4">
+      <c r="B422" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4">
+      <c r="B423" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D423" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4">
+      <c r="B424" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4">
+      <c r="B425" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="426" s="3" customFormat="1" spans="1:2">
+      <c r="A426" s="13"/>
+      <c r="B426" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4">
+      <c r="B427" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4">
+      <c r="B428" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4">
+      <c r="B429" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4">
+      <c r="B430" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4">
+      <c r="B431" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4">
+      <c r="B432" t="s">
+        <v>553</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4">
+      <c r="B433" t="s">
+        <v>553</v>
+      </c>
+      <c r="C433" t="s">
+        <v>796</v>
+      </c>
+      <c r="D433" s="9" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4">
+      <c r="B434" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4">
+      <c r="B435" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4">
+      <c r="B436" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4">
+      <c r="B437" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148">
   <si>
     <t>标记</t>
   </si>
@@ -3158,6 +3158,309 @@
   </si>
   <si>
     <t>a. 难懂的 难捉摸的</t>
+  </si>
+  <si>
+    <t>41页</t>
+  </si>
+  <si>
+    <t>emanate</t>
+  </si>
+  <si>
+    <t>v. 散发 产生</t>
+  </si>
+  <si>
+    <t>embark on</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>v. 从事 着手</t>
+  </si>
+  <si>
+    <t>embed</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>v. 插入 植入</t>
+  </si>
+  <si>
+    <t>implant</t>
+  </si>
+  <si>
+    <t>enclose</t>
+  </si>
+  <si>
+    <t>emergence</t>
+  </si>
+  <si>
+    <t>n. 出现</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>n. 紧急情况</t>
+  </si>
+  <si>
+    <t>emergent</t>
+  </si>
+  <si>
+    <t>developing</t>
+  </si>
+  <si>
+    <t>a. 新兴的</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>v. 利用</t>
+  </si>
+  <si>
+    <t>v. 使能够</t>
+  </si>
+  <si>
+    <t>enactment</t>
+  </si>
+  <si>
+    <t>establishment</t>
+  </si>
+  <si>
+    <t>n. 制定</t>
+  </si>
+  <si>
+    <t>encapsulate</t>
+  </si>
+  <si>
+    <t>state briefly</t>
+  </si>
+  <si>
+    <t>v. 概述</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>stimulate</t>
+  </si>
+  <si>
+    <t>v. 激励 刺激</t>
+  </si>
+  <si>
+    <t>42页</t>
+  </si>
+  <si>
+    <t>endangered</t>
+  </si>
+  <si>
+    <t>not abundant</t>
+  </si>
+  <si>
+    <t>a. 濒临灭绝的</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t>n. 努力</t>
+  </si>
+  <si>
+    <t>endow</t>
+  </si>
+  <si>
+    <t>bestow</t>
+  </si>
+  <si>
+    <t>v. 捐赠</t>
+  </si>
+  <si>
+    <t>engulf</t>
+  </si>
+  <si>
+    <t>swallow</t>
+  </si>
+  <si>
+    <t>v. 吞没</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>v. 提高 增强</t>
+  </si>
+  <si>
+    <t>intensify</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>v. 经历</t>
+  </si>
+  <si>
+    <t>enlist</t>
+  </si>
+  <si>
+    <t>obtain</t>
+  </si>
+  <si>
+    <t>v. 谋取 支持 赞助</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>a. 巨大的</t>
+  </si>
+  <si>
+    <t>enrich</t>
+  </si>
+  <si>
+    <t>v. 使富足</t>
+  </si>
+  <si>
+    <t>ensue</t>
+  </si>
+  <si>
+    <t>v. 因...产生</t>
+  </si>
+  <si>
+    <t>ensuing</t>
+  </si>
+  <si>
+    <t>subsequent</t>
+  </si>
+  <si>
+    <t>a. 接着发生的</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>v. 保证 担保</t>
+  </si>
+  <si>
+    <t>43页</t>
+  </si>
+  <si>
+    <t>entail</t>
+  </si>
+  <si>
+    <t>involve</t>
+  </si>
+  <si>
+    <t>v. 牵涉</t>
+  </si>
+  <si>
+    <t>eager</t>
+  </si>
+  <si>
+    <t>a. 热情的</t>
+  </si>
+  <si>
+    <t>be entitled to</t>
+  </si>
+  <si>
+    <t>have the right</t>
+  </si>
+  <si>
+    <t>phrv. 有...权利</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>n. 环境</t>
+  </si>
+  <si>
+    <t>ephemeral</t>
+  </si>
+  <si>
+    <t>short-lived</t>
+  </si>
+  <si>
+    <t>a. 短暂的</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>n. 事件</t>
+  </si>
+  <si>
+    <t>equilibrium</t>
+  </si>
+  <si>
+    <t>n. 平衡</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>n. 时代 年代</t>
+  </si>
+  <si>
+    <t>eradicate</t>
+  </si>
+  <si>
+    <t>remove completely</t>
+  </si>
+  <si>
+    <t>v. 根除 消减</t>
+  </si>
+  <si>
+    <t>erect</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>v. 建立</t>
+  </si>
+  <si>
+    <t>unpredictable</t>
+  </si>
+  <si>
+    <t>a. 不稳定的 古怪的</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>44页</t>
   </si>
 </sst>
 </file>
@@ -3165,12 +3468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3192,12 +3495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3212,8 +3509,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3235,49 +3603,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3292,57 +3633,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3363,6 +3660,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3375,37 +3678,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,36 +3726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3471,13 +3738,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3489,7 +3780,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3507,13 +3822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3525,31 +3840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3572,6 +3875,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3587,11 +3908,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3613,30 +3955,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3645,168 +3963,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3823,13 +4126,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3838,19 +4144,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4168,15 +4471,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E437"/>
+  <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="E419" sqref="E419"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="D477" sqref="D477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="4"/>
+    <col min="1" max="1" width="9.33333333333333" style="5"/>
     <col min="2" max="2" width="16.6592592592593" customWidth="1"/>
     <col min="3" max="3" width="21.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="24.0740740740741" customWidth="1"/>
@@ -4186,7 +4489,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4200,7 +4503,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4214,7 +4517,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -4228,7 +4531,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -4286,7 +4589,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -4300,21 +4603,21 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -4339,7 +4642,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -4364,7 +4667,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -4389,7 +4692,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -4425,7 +4728,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -4439,7 +4742,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -4464,7 +4767,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>1</v>
       </c>
       <c r="B23" t="s">
@@ -4478,7 +4781,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>1</v>
       </c>
       <c r="B24" t="s">
@@ -4492,7 +4795,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -4528,7 +4831,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -4630,7 +4933,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -4666,7 +4969,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -4691,7 +4994,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -4705,7 +5008,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -4719,7 +5022,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -4733,7 +5036,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -4769,7 +5072,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -4783,7 +5086,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -4797,7 +5100,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -4811,7 +5114,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -4825,16 +5128,16 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>9</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4905,21 +5208,21 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>9</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -4933,7 +5236,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -4947,7 +5250,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -4961,7 +5264,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -4975,7 +5278,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -5011,7 +5314,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -5025,21 +5328,21 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>9</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>1</v>
       </c>
       <c r="B69" t="s">
@@ -5064,7 +5367,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -5089,7 +5392,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -5103,21 +5406,21 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="5">
+      <c r="A74" s="6">
         <v>9</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -5142,7 +5445,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -5156,7 +5459,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -5170,7 +5473,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -5206,7 +5509,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -5231,7 +5534,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>1</v>
       </c>
       <c r="B84" t="s">
@@ -5245,7 +5548,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -5259,7 +5562,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -5284,7 +5587,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>1</v>
       </c>
       <c r="B88" t="s">
@@ -5298,7 +5601,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -5312,7 +5615,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -5326,7 +5629,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -5340,7 +5643,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -5354,7 +5657,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -5368,7 +5671,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -5382,7 +5685,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>1</v>
       </c>
       <c r="B95" t="s">
@@ -5396,7 +5699,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -5410,21 +5713,21 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="5">
+      <c r="A97" s="6">
         <v>9</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -5438,7 +5741,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>1</v>
       </c>
       <c r="B99" t="s">
@@ -5474,21 +5777,21 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="5">
+      <c r="A102" s="6">
         <v>9</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>0</v>
       </c>
       <c r="B103" t="s">
@@ -5502,7 +5805,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>0</v>
       </c>
       <c r="B104" t="s">
@@ -5516,21 +5819,21 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="5">
+      <c r="A105" s="6">
         <v>9</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4">
+      <c r="A106" s="5">
         <v>0</v>
       </c>
       <c r="B106" t="s">
@@ -5544,7 +5847,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>0</v>
       </c>
       <c r="B107" t="s">
@@ -5558,7 +5861,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4">
+      <c r="A108" s="5">
         <v>0</v>
       </c>
       <c r="B108" t="s">
@@ -5583,7 +5886,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4">
+      <c r="A110" s="5">
         <v>0</v>
       </c>
       <c r="B110" t="s">
@@ -5597,7 +5900,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>0</v>
       </c>
       <c r="B111" t="s">
@@ -5611,7 +5914,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4">
+      <c r="A112" s="5">
         <v>0</v>
       </c>
       <c r="B112" t="s">
@@ -5625,7 +5928,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>0</v>
       </c>
       <c r="B113" t="s">
@@ -5639,7 +5942,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4">
+      <c r="A114" s="5">
         <v>0</v>
       </c>
       <c r="B114" t="s">
@@ -5653,7 +5956,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4">
+      <c r="A115" s="5">
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -5667,7 +5970,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="4">
+      <c r="A116" s="5">
         <v>1</v>
       </c>
       <c r="B116" t="s">
@@ -5714,7 +6017,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="4">
+      <c r="A120" s="5">
         <v>0</v>
       </c>
       <c r="B120" t="s">
@@ -5728,7 +6031,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="4">
+      <c r="A121" s="5">
         <v>0</v>
       </c>
       <c r="B121" t="s">
@@ -5742,21 +6045,21 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="5">
+      <c r="A122" s="6">
         <v>9</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="4">
+      <c r="A123" s="5">
         <v>0</v>
       </c>
       <c r="B123" t="s">
@@ -5781,7 +6084,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="4">
+      <c r="A125" s="5">
         <v>0</v>
       </c>
       <c r="B125" t="s">
@@ -5795,7 +6098,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="4">
+      <c r="A126" s="5">
         <v>0</v>
       </c>
       <c r="B126" t="s">
@@ -5809,7 +6112,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>0</v>
       </c>
       <c r="B127" t="s">
@@ -5823,21 +6126,21 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="5">
+      <c r="A128" s="6">
         <v>9</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="7" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>0</v>
       </c>
       <c r="B129" t="s">
@@ -5851,7 +6154,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="4">
+      <c r="A130" s="5">
         <v>0</v>
       </c>
       <c r="B130" t="s">
@@ -5865,7 +6168,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="4">
+      <c r="A131" s="5">
         <v>0</v>
       </c>
       <c r="B131" t="s">
@@ -5879,7 +6182,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="4">
+      <c r="A132" s="5">
         <v>0</v>
       </c>
       <c r="B132" t="s">
@@ -5893,7 +6196,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="4">
+      <c r="A133" s="5">
         <v>0</v>
       </c>
       <c r="B133" t="s">
@@ -5907,7 +6210,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="4">
+      <c r="A134" s="5">
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -5954,7 +6257,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="4">
+      <c r="A138" s="5">
         <v>1</v>
       </c>
       <c r="B138" t="s">
@@ -5968,7 +6271,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="4">
+      <c r="A139" s="5">
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -5993,7 +6296,7 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="4">
+      <c r="A141" s="5">
         <v>0</v>
       </c>
       <c r="B141" t="s">
@@ -6007,7 +6310,7 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="4">
+      <c r="A142" s="5">
         <v>0</v>
       </c>
       <c r="B142" t="s">
@@ -6021,7 +6324,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="4">
+      <c r="A143" s="5">
         <v>1</v>
       </c>
       <c r="B143" t="s">
@@ -6035,7 +6338,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="4">
+      <c r="A144" s="5">
         <v>1</v>
       </c>
       <c r="B144" t="s">
@@ -6049,7 +6352,7 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="4">
+      <c r="A145" s="5">
         <v>1</v>
       </c>
       <c r="B145" t="s">
@@ -6063,7 +6366,7 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="4">
+      <c r="A146" s="5">
         <v>0</v>
       </c>
       <c r="B146" t="s">
@@ -6077,7 +6380,7 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="4">
+      <c r="A147" s="5">
         <v>0</v>
       </c>
       <c r="B147" t="s">
@@ -6091,7 +6394,7 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="4">
+      <c r="A148" s="5">
         <v>0</v>
       </c>
       <c r="B148" t="s">
@@ -6105,7 +6408,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="4">
+      <c r="A149" s="5">
         <v>0</v>
       </c>
       <c r="B149" t="s">
@@ -6119,7 +6422,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="4">
+      <c r="A150" s="5">
         <v>1</v>
       </c>
       <c r="B150" t="s">
@@ -6144,35 +6447,35 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="5">
+      <c r="A152" s="6">
         <v>9</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="5">
+      <c r="A153" s="6">
         <v>9</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="4">
+      <c r="A154" s="5">
         <v>0</v>
       </c>
       <c r="B154" t="s">
@@ -6186,7 +6489,7 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4">
+      <c r="A155" s="5">
         <v>0</v>
       </c>
       <c r="B155" t="s">
@@ -6200,7 +6503,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="4">
+      <c r="A156" s="5">
         <v>1</v>
       </c>
       <c r="B156" t="s">
@@ -6214,7 +6517,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="4">
+      <c r="A157" s="5">
         <v>0</v>
       </c>
       <c r="B157" t="s">
@@ -6228,7 +6531,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="4">
+      <c r="A158" s="5">
         <v>1</v>
       </c>
       <c r="B158" t="s">
@@ -6242,30 +6545,30 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="5">
+      <c r="A159" s="6">
         <v>9</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="5">
+      <c r="A160" s="6">
         <v>9</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="7" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6325,7 +6628,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4">
+      <c r="A166" s="5">
         <v>1</v>
       </c>
       <c r="B166" t="s">
@@ -6339,21 +6642,21 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="5">
+      <c r="A167" s="6">
         <v>9</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="4">
+      <c r="A168" s="5">
         <v>1</v>
       </c>
       <c r="B168" t="s">
@@ -6367,7 +6670,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="4">
+      <c r="A169" s="5">
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -6381,7 +6684,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="4">
+      <c r="A170" s="5">
         <v>1</v>
       </c>
       <c r="B170" t="s">
@@ -6395,7 +6698,7 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="4">
+      <c r="A171" s="5">
         <v>0</v>
       </c>
       <c r="B171" t="s">
@@ -6409,7 +6712,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="4">
+      <c r="A172" s="5">
         <v>0</v>
       </c>
       <c r="B172" t="s">
@@ -6423,7 +6726,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="4">
+      <c r="A173" s="5">
         <v>1</v>
       </c>
       <c r="B173" t="s">
@@ -6437,7 +6740,7 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="4">
+      <c r="A174" s="5">
         <v>0</v>
       </c>
       <c r="B174" t="s">
@@ -6451,7 +6754,7 @@
       </c>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="8" t="s">
         <v>428</v>
       </c>
       <c r="C175" t="s">
@@ -6462,7 +6765,7 @@
       </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="8" t="s">
         <v>428</v>
       </c>
       <c r="C176" t="s">
@@ -6473,7 +6776,7 @@
       </c>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="8" t="s">
         <v>428</v>
       </c>
       <c r="C177" t="s">
@@ -6484,7 +6787,7 @@
       </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="8" t="s">
         <v>428</v>
       </c>
       <c r="C178" t="s">
@@ -6644,7 +6947,7 @@
       <c r="C192" t="s">
         <v>469</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="8" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6655,7 +6958,7 @@
       <c r="C193" t="s">
         <v>471</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D193" s="8" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6666,7 +6969,7 @@
       <c r="C194" t="s">
         <v>472</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="8" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6677,7 +6980,7 @@
       <c r="C195" t="s">
         <v>473</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D195" s="8" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7593,7 +7896,7 @@
       <c r="C278" t="s">
         <v>673</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D278" s="8" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7604,7 +7907,7 @@
       <c r="C279" t="s">
         <v>675</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="D279" s="8" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7846,7 +8149,7 @@
       <c r="C301" t="s">
         <v>527</v>
       </c>
-      <c r="D301" s="7" t="s">
+      <c r="D301" s="8" t="s">
         <v>727</v>
       </c>
     </row>
@@ -7857,7 +8160,7 @@
       <c r="C302" t="s">
         <v>728</v>
       </c>
-      <c r="D302" s="7" t="s">
+      <c r="D302" s="8" t="s">
         <v>729</v>
       </c>
     </row>
@@ -7868,7 +8171,7 @@
       <c r="C303" t="s">
         <v>730</v>
       </c>
-      <c r="D303" s="7" t="s">
+      <c r="D303" s="8" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8368,7 +8671,7 @@
       </c>
     </row>
     <row r="349" s="1" customFormat="1" spans="1:2">
-      <c r="A349" s="8"/>
+      <c r="A349" s="9"/>
       <c r="B349" s="1" t="s">
         <v>840</v>
       </c>
@@ -8479,7 +8782,7 @@
       <c r="C359" t="s">
         <v>865</v>
       </c>
-      <c r="D359" s="9" t="s">
+      <c r="D359" t="s">
         <v>864</v>
       </c>
     </row>
@@ -8490,7 +8793,7 @@
       <c r="C360" t="s">
         <v>866</v>
       </c>
-      <c r="D360" s="9" t="s">
+      <c r="D360" t="s">
         <v>864</v>
       </c>
     </row>
@@ -8512,16 +8815,15 @@
       <c r="C362" t="s">
         <v>871</v>
       </c>
-      <c r="D362" s="9" t="s">
+      <c r="D362" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="363" s="1" customFormat="1" spans="1:4">
-      <c r="A363" s="8"/>
+    <row r="363" s="1" customFormat="1" spans="1:2">
+      <c r="A363" s="9"/>
       <c r="B363" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D363" s="10"/>
     </row>
     <row r="364" spans="2:4">
       <c r="B364" t="s">
@@ -8673,12 +8975,12 @@
       <c r="C377" t="s">
         <v>906</v>
       </c>
-      <c r="D377" s="9" t="s">
+      <c r="D377" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="378" s="1" customFormat="1" spans="1:2">
-      <c r="A378" s="8"/>
+      <c r="A378" s="9"/>
       <c r="B378" s="1" t="s">
         <v>907</v>
       </c>
@@ -8701,7 +9003,7 @@
       <c r="C380" t="s">
         <v>910</v>
       </c>
-      <c r="D380" s="9" t="s">
+      <c r="D380" t="s">
         <v>909</v>
       </c>
     </row>
@@ -8745,23 +9047,23 @@
       <c r="C384" t="s">
         <v>897</v>
       </c>
-      <c r="D384" s="9" t="s">
+      <c r="D384" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="385" spans="2:4">
-      <c r="B385" s="9" t="s">
+      <c r="B385" t="s">
         <v>919</v>
       </c>
       <c r="C385" t="s">
         <v>921</v>
       </c>
-      <c r="D385" s="9" t="s">
+      <c r="D385" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="386" spans="2:4">
-      <c r="B386" s="9" t="s">
+      <c r="B386" t="s">
         <v>919</v>
       </c>
       <c r="C386" t="s">
@@ -8827,7 +9129,7 @@
       </c>
     </row>
     <row r="392" s="1" customFormat="1" spans="1:2">
-      <c r="A392" s="8"/>
+      <c r="A392" s="9"/>
       <c r="B392" s="1" t="s">
         <v>938</v>
       </c>
@@ -8861,18 +9163,18 @@
       <c r="C395" t="s">
         <v>945</v>
       </c>
-      <c r="D395" s="9" t="s">
+      <c r="D395" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="396" spans="2:4">
-      <c r="B396" s="9" t="s">
+      <c r="B396" t="s">
         <v>946</v>
       </c>
-      <c r="C396" s="9" t="s">
+      <c r="C396" t="s">
         <v>947</v>
       </c>
-      <c r="D396" s="9" t="s">
+      <c r="D396" t="s">
         <v>948</v>
       </c>
     </row>
@@ -8921,7 +9223,7 @@
       </c>
     </row>
     <row r="401" spans="2:4">
-      <c r="B401" s="9" t="s">
+      <c r="B401" t="s">
         <v>958</v>
       </c>
       <c r="C401" t="s">
@@ -8932,7 +9234,7 @@
       </c>
     </row>
     <row r="402" spans="2:4">
-      <c r="B402" s="9" t="s">
+      <c r="B402" t="s">
         <v>958</v>
       </c>
       <c r="C402" t="s">
@@ -8965,7 +9267,7 @@
       </c>
     </row>
     <row r="405" s="1" customFormat="1" spans="1:2">
-      <c r="A405" s="8"/>
+      <c r="A405" s="9"/>
       <c r="B405" s="1" t="s">
         <v>970</v>
       </c>
@@ -9054,7 +9356,7 @@
       <c r="C413" t="s">
         <v>989</v>
       </c>
-      <c r="D413" s="9" t="s">
+      <c r="D413" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9114,8 +9416,8 @@
       </c>
     </row>
     <row r="419" s="2" customFormat="1" spans="1:2">
-      <c r="A419" s="11"/>
-      <c r="B419" s="12" t="s">
+      <c r="A419" s="10"/>
+      <c r="B419" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -9126,7 +9428,7 @@
       <c r="C420" t="s">
         <v>1006</v>
       </c>
-      <c r="D420" s="9" t="s">
+      <c r="D420" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -9186,7 +9488,7 @@
       </c>
     </row>
     <row r="426" s="3" customFormat="1" spans="1:2">
-      <c r="A426" s="13"/>
+      <c r="A426" s="11"/>
       <c r="B426" s="3" t="s">
         <v>1020</v>
       </c>
@@ -9231,7 +9533,7 @@
       <c r="C430" t="s">
         <v>1030</v>
       </c>
-      <c r="D430" s="9" t="s">
+      <c r="D430" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -9264,7 +9566,7 @@
       <c r="C433" t="s">
         <v>796</v>
       </c>
-      <c r="D433" s="9" t="s">
+      <c r="D433" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -9310,6 +9612,459 @@
       </c>
       <c r="D437" t="s">
         <v>1046</v>
+      </c>
+    </row>
+    <row r="438" s="3" customFormat="1" spans="1:2">
+      <c r="A438" s="11"/>
+      <c r="B438" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4">
+      <c r="B439" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C439" t="s">
+        <v>262</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4">
+      <c r="B440" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4">
+      <c r="B441" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4">
+      <c r="B442" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D442" s="12" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4">
+      <c r="B443" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D443" s="12" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4">
+      <c r="B444" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C444" t="s">
+        <v>231</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4">
+      <c r="B445" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4">
+      <c r="B446" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4">
+      <c r="B447" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C447" t="s">
+        <v>235</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4">
+      <c r="B448" t="s">
+        <v>146</v>
+      </c>
+      <c r="C448" t="s">
+        <v>145</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4">
+      <c r="B449" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4">
+      <c r="B450" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4">
+      <c r="B451" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="452" s="3" customFormat="1" spans="1:2">
+      <c r="A452" s="11"/>
+      <c r="B452" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4">
+      <c r="B453" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4">
+      <c r="B454" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4">
+      <c r="B455" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4">
+      <c r="B456" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4">
+      <c r="B457" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D457" s="12" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4">
+      <c r="B458" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4">
+      <c r="B459" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4">
+      <c r="B460" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4">
+      <c r="B461" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4">
+      <c r="B462" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4">
+      <c r="B463" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C463" t="s">
+        <v>598</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4">
+      <c r="B464" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4">
+      <c r="B465" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="466" s="3" customFormat="1" spans="1:2">
+      <c r="A466" s="11"/>
+      <c r="B466" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4">
+      <c r="B467" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4">
+      <c r="B468" t="s">
+        <v>341</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4">
+      <c r="B469" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4">
+      <c r="B470" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4">
+      <c r="B471" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D471" s="12" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4">
+      <c r="B472" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4">
+      <c r="B473" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4">
+      <c r="B474" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C474" t="s">
+        <v>539</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4">
+      <c r="B475" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4">
+      <c r="B476" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4">
+      <c r="B477" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4">
+      <c r="B478" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D478" s="12" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4">
+      <c r="B479" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="480" s="4" customFormat="1" spans="1:2">
+      <c r="A480" s="13"/>
+      <c r="B480" s="4" t="s">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>

--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522">
   <si>
     <t>标记</t>
   </si>
@@ -3461,6 +3461,1128 @@
   </si>
   <si>
     <t>44页</t>
+  </si>
+  <si>
+    <t>escalate</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>v. 逐步扩大</t>
+  </si>
+  <si>
+    <t>a. 极重要的</t>
+  </si>
+  <si>
+    <t>established</t>
+  </si>
+  <si>
+    <t>qualified</t>
+  </si>
+  <si>
+    <t>a. 已制定的</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>n. 建立 创立</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>projection</t>
+  </si>
+  <si>
+    <t>n. 估计</t>
+  </si>
+  <si>
+    <t>estimation</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>euphoric</t>
+  </si>
+  <si>
+    <t>extremely happy</t>
+  </si>
+  <si>
+    <t>a. 心情愉快的</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>judge</t>
+  </si>
+  <si>
+    <t>v. 评价</t>
+  </si>
+  <si>
+    <t>eventual</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>ad. 最后</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>proof</t>
+  </si>
+  <si>
+    <t>n. 证据</t>
+  </si>
+  <si>
+    <t>evident</t>
+  </si>
+  <si>
+    <t>45页</t>
+  </si>
+  <si>
+    <t>evoke</t>
+  </si>
+  <si>
+    <t>arouse</t>
+  </si>
+  <si>
+    <t>v. 唤起 引起</t>
+  </si>
+  <si>
+    <t>create in the mind</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>overstate</t>
+  </si>
+  <si>
+    <t>v. 夸张 夸大</t>
+  </si>
+  <si>
+    <t>excavate</t>
+  </si>
+  <si>
+    <t>dig out</t>
+  </si>
+  <si>
+    <t>v. 挖掘</t>
+  </si>
+  <si>
+    <t>excavation</t>
+  </si>
+  <si>
+    <t>dug-out</t>
+  </si>
+  <si>
+    <t>n. 挖掘</t>
+  </si>
+  <si>
+    <t>exceed</t>
+  </si>
+  <si>
+    <t>beyond above</t>
+  </si>
+  <si>
+    <t>v. 超越 胜过</t>
+  </si>
+  <si>
+    <t>exceeded</t>
+  </si>
+  <si>
+    <t>surpass</t>
+  </si>
+  <si>
+    <t>v. 跨越 胜过</t>
+  </si>
+  <si>
+    <t>exceedingly</t>
+  </si>
+  <si>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>ad. 极其 非常</t>
+  </si>
+  <si>
+    <t>46页</t>
+  </si>
+  <si>
+    <t>excess</t>
+  </si>
+  <si>
+    <t>go beyond</t>
+  </si>
+  <si>
+    <t>n. 超越 胜过</t>
+  </si>
+  <si>
+    <t>exclusively</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>ad. 专门地 独占地</t>
+  </si>
+  <si>
+    <t>excrete</t>
+  </si>
+  <si>
+    <t>expel</t>
+  </si>
+  <si>
+    <t>v. 排泄 分泌</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>v. 运用</t>
+  </si>
+  <si>
+    <t>exhausted</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>a. 精疲力竭的</t>
+  </si>
+  <si>
+    <t>a. 耗尽的 用完的</t>
+  </si>
+  <si>
+    <t>exhibit</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>v. 展示 陈列</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>v. 展开 增长</t>
+  </si>
+  <si>
+    <t>expanse</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>n. 一大片区域</t>
+  </si>
+  <si>
+    <t>expansive</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>a. 广阔的</t>
+  </si>
+  <si>
+    <t>expediency</t>
+  </si>
+  <si>
+    <t>n. 方便 利己</t>
+  </si>
+  <si>
+    <t>47页</t>
+  </si>
+  <si>
+    <t>convenience</t>
+  </si>
+  <si>
+    <t>expedient</t>
+  </si>
+  <si>
+    <t>fitting</t>
+  </si>
+  <si>
+    <t>a. 适宜的 方便的</t>
+  </si>
+  <si>
+    <t>expend</t>
+  </si>
+  <si>
+    <t>v. 耗尽</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>a. 明确的 清楚地</t>
+  </si>
+  <si>
+    <t>explicitly</t>
+  </si>
+  <si>
+    <t>ad. 明确地</t>
+  </si>
+  <si>
+    <t>exploit</t>
+  </si>
+  <si>
+    <t>take advantage of</t>
+  </si>
+  <si>
+    <t>make use of</t>
+  </si>
+  <si>
+    <t>utilize</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>v. 探测 探索</t>
+  </si>
+  <si>
+    <t>expose to</t>
+  </si>
+  <si>
+    <t>subject to</t>
+  </si>
+  <si>
+    <t>v. 使经历</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>communicate</t>
+  </si>
+  <si>
+    <t>v. 表达</t>
+  </si>
+  <si>
+    <t>extant</t>
+  </si>
+  <si>
+    <t>existing</t>
+  </si>
+  <si>
+    <t>a. 现存的 尚存的</t>
+  </si>
+  <si>
+    <t>not extinct</t>
+  </si>
+  <si>
+    <t>48页</t>
+  </si>
+  <si>
+    <t>remaining</t>
+  </si>
+  <si>
+    <t>v. 延伸</t>
+  </si>
+  <si>
+    <t>become extinct</t>
+  </si>
+  <si>
+    <t>die out</t>
+  </si>
+  <si>
+    <t>phrv. 灭绝</t>
+  </si>
+  <si>
+    <t>extol</t>
+  </si>
+  <si>
+    <t>praise</t>
+  </si>
+  <si>
+    <t>v. 赞美</t>
+  </si>
+  <si>
+    <t>extraneous</t>
+  </si>
+  <si>
+    <t>inessential</t>
+  </si>
+  <si>
+    <t>a. 无关的 外来的</t>
+  </si>
+  <si>
+    <t>from outside</t>
+  </si>
+  <si>
+    <t>extraordinary</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>a. 异常的</t>
+  </si>
+  <si>
+    <t>exude</t>
+  </si>
+  <si>
+    <t>give off</t>
+  </si>
+  <si>
+    <t>v. 渗出 散发</t>
+  </si>
+  <si>
+    <t>49页</t>
+  </si>
+  <si>
+    <t>fabricate</t>
+  </si>
+  <si>
+    <t>v. 制造</t>
+  </si>
+  <si>
+    <t>phr. 事实上</t>
+  </si>
+  <si>
+    <t>far-reaching</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>a. 深远的 广泛的</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>extremely attractive</t>
+  </si>
+  <si>
+    <t>a. 迷人的</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>n. 样子 方式</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>v. 形成 造</t>
+  </si>
+  <si>
+    <t>fashionable</t>
+  </si>
+  <si>
+    <t>popluar</t>
+  </si>
+  <si>
+    <t>a. 流行的 时尚的</t>
+  </si>
+  <si>
+    <t>feasible</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>a. 可实行的</t>
+  </si>
+  <si>
+    <t>feast</t>
+  </si>
+  <si>
+    <t>eating</t>
+  </si>
+  <si>
+    <t>n. 盛宴</t>
+  </si>
+  <si>
+    <t>ferry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>n. 渡轮</t>
+  </si>
+  <si>
+    <t>50页</t>
+  </si>
+  <si>
+    <t>fertile</t>
+  </si>
+  <si>
+    <t>reproductive</t>
+  </si>
+  <si>
+    <t>a. 肥沃的 多产的</t>
+  </si>
+  <si>
+    <t>productive</t>
+  </si>
+  <si>
+    <t>figure out</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>phr. 计算出 解决</t>
+  </si>
+  <si>
+    <t>finding</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>n. 发现</t>
+  </si>
+  <si>
+    <t>first and foremost</t>
+  </si>
+  <si>
+    <t>above all</t>
+  </si>
+  <si>
+    <t>phr. 首先 首要地</t>
+  </si>
+  <si>
+    <t>flake</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>n. 小薄片</t>
+  </si>
+  <si>
+    <t>flattery</t>
+  </si>
+  <si>
+    <t>n. 恭维</t>
+  </si>
+  <si>
+    <t>flee</t>
+  </si>
+  <si>
+    <t>run away from</t>
+  </si>
+  <si>
+    <t>v. 逃走</t>
+  </si>
+  <si>
+    <t>flexible</t>
+  </si>
+  <si>
+    <t>adaptable</t>
+  </si>
+  <si>
+    <t>a. 易适应的</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>stay on the top</t>
+  </si>
+  <si>
+    <t>v. 漂浮</t>
+  </si>
+  <si>
+    <t>float upward</t>
+  </si>
+  <si>
+    <t>phrv. 浮起</t>
+  </si>
+  <si>
+    <t>prosper</t>
+  </si>
+  <si>
+    <t>v. 繁荣 兴盛</t>
+  </si>
+  <si>
+    <t>51页</t>
+  </si>
+  <si>
+    <t>v. 繁荣 兴旺</t>
+  </si>
+  <si>
+    <t>flourishing</t>
+  </si>
+  <si>
+    <t>prosperous</t>
+  </si>
+  <si>
+    <t>a. 繁荣的</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>n. 流动</t>
+  </si>
+  <si>
+    <t>fluctuate</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>v. 变动</t>
+  </si>
+  <si>
+    <t>fluctuation</t>
+  </si>
+  <si>
+    <t>variation</t>
+  </si>
+  <si>
+    <t>n. 变动 起伏</t>
+  </si>
+  <si>
+    <t>focal point</t>
+  </si>
+  <si>
+    <t>centre area</t>
+  </si>
+  <si>
+    <t>n. 焦点</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>v. 跟随</t>
+  </si>
+  <si>
+    <t>for instance</t>
+  </si>
+  <si>
+    <t>for example</t>
+  </si>
+  <si>
+    <t>phr. 例如</t>
+  </si>
+  <si>
+    <t>forage</t>
+  </si>
+  <si>
+    <t>search for food</t>
+  </si>
+  <si>
+    <t>v. 觅食</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>n. 饲料</t>
+  </si>
+  <si>
+    <t>formidable</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>urge</t>
+  </si>
+  <si>
+    <t>v. 培养 促进</t>
+  </si>
+  <si>
+    <t>encourage to</t>
+  </si>
+  <si>
+    <t>52页</t>
+  </si>
+  <si>
+    <t>promote the development of</t>
+  </si>
+  <si>
+    <t>foul</t>
+  </si>
+  <si>
+    <t>pollute</t>
+  </si>
+  <si>
+    <t>v. 污染</t>
+  </si>
+  <si>
+    <t>v. 使成碎片</t>
+  </si>
+  <si>
+    <t>fragmentation</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>n. 破裂</t>
+  </si>
+  <si>
+    <t>fragmentize</t>
+  </si>
+  <si>
+    <t>frankly</t>
+  </si>
+  <si>
+    <t>sincerely</t>
+  </si>
+  <si>
+    <t>ad. 真诚地</t>
+  </si>
+  <si>
+    <t>openly</t>
+  </si>
+  <si>
+    <t>ad. 坦白地</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>n. 争执 不合</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>n. 效用 作用</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>a. 基础的</t>
+  </si>
+  <si>
+    <t>funds</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>n. 资金</t>
+  </si>
+  <si>
+    <t>furthermore</t>
+  </si>
+  <si>
+    <t>in addition</t>
+  </si>
+  <si>
+    <t>ad. 此外</t>
+  </si>
+  <si>
+    <t>53页</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>n. 缺口 裂口</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>v. 使适合</t>
+  </si>
+  <si>
+    <t>generate</t>
+  </si>
+  <si>
+    <t>v. 产生</t>
+  </si>
+  <si>
+    <t>genuinely</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>particular</t>
+  </si>
+  <si>
+    <t>a. 规定的 特定的</t>
+  </si>
+  <si>
+    <t>govem</t>
+  </si>
+  <si>
+    <t>regulate</t>
+  </si>
+  <si>
+    <t>v. 统治 管理</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>v. 领会 理解</t>
+  </si>
+  <si>
+    <t>groom</t>
+  </si>
+  <si>
+    <t>v. 装扮 使整齐</t>
+  </si>
+  <si>
+    <t>dean</t>
+  </si>
+  <si>
+    <t>groundless</t>
+  </si>
+  <si>
+    <t>unfounded</t>
+  </si>
+  <si>
+    <t>a. 无根据的</t>
+  </si>
+  <si>
+    <t>grounds</t>
+  </si>
+  <si>
+    <t>reasons</t>
+  </si>
+  <si>
+    <t>n. 根据 理由</t>
+  </si>
+  <si>
+    <t>54页</t>
+  </si>
+  <si>
+    <t>groundwork</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>n. 基础</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>grudging</t>
+  </si>
+  <si>
+    <t>unenthusiastic</t>
+  </si>
+  <si>
+    <t>a. 勉强的</t>
+  </si>
+  <si>
+    <t>55页</t>
+  </si>
+  <si>
+    <t>hallmark</t>
+  </si>
+  <si>
+    <t>n. 标志</t>
+  </si>
+  <si>
+    <t>hamper</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>v. 妨碍 束缚</t>
+  </si>
+  <si>
+    <t>make difficulty</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>convenient</t>
+  </si>
+  <si>
+    <t>a. 便利的 灵活的</t>
+  </si>
+  <si>
+    <t>haphazard</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>a. 随意的</t>
+  </si>
+  <si>
+    <t>harness</t>
+  </si>
+  <si>
+    <t>to use</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>a. 严厉的</t>
+  </si>
+  <si>
+    <t>hasty</t>
+  </si>
+  <si>
+    <t>hurried</t>
+  </si>
+  <si>
+    <t>a. 匆匆的 急忙的</t>
+  </si>
+  <si>
+    <t>haul</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>v. 拖 拉</t>
+  </si>
+  <si>
+    <t>havoc</t>
+  </si>
+  <si>
+    <t>n. 浩劫</t>
+  </si>
+  <si>
+    <t>56页</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>n. 危险</t>
+  </si>
+  <si>
+    <t>heed</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>v. 留心 注意</t>
+  </si>
+  <si>
+    <t>heighten</t>
+  </si>
+  <si>
+    <t>heir</t>
+  </si>
+  <si>
+    <t>inheritor</t>
+  </si>
+  <si>
+    <t>n. 继承人</t>
+  </si>
+  <si>
+    <t>hence</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>legacy</t>
+  </si>
+  <si>
+    <t>n. 遗产 传统</t>
+  </si>
+  <si>
+    <t>tradition</t>
+  </si>
+  <si>
+    <t>heterogeneous</t>
+  </si>
+  <si>
+    <t>varied</t>
+  </si>
+  <si>
+    <t>a. 有不同种类组成的</t>
+  </si>
+  <si>
+    <t>conceal</t>
+  </si>
+  <si>
+    <t>v. 隐藏</t>
+  </si>
+  <si>
+    <t>hinder</t>
+  </si>
+  <si>
+    <t>interfere with</t>
+  </si>
+  <si>
+    <t>v. 妨碍</t>
+  </si>
+  <si>
+    <t>n. 暗示 迹象</t>
+  </si>
+  <si>
+    <t>implication</t>
+  </si>
+  <si>
+    <t>indication</t>
+  </si>
+  <si>
+    <t>57页</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>hire</t>
+  </si>
+  <si>
+    <t>v. 雇佣</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>pastime</t>
+  </si>
+  <si>
+    <t>n. 嗜好</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>v. 支撑 保持</t>
+  </si>
+  <si>
+    <t>keep up</t>
+  </si>
+  <si>
+    <t>hollow</t>
+  </si>
+  <si>
+    <t>an empty space</t>
+  </si>
+  <si>
+    <t>n. 中空</t>
+  </si>
+  <si>
+    <t>homogeneous</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>a. 同种的</t>
+  </si>
+  <si>
+    <t>host of</t>
+  </si>
+  <si>
+    <t>great number</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>conj. 然而</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>n. 中心</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>hurdle</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>v. 用篱笆围</t>
+  </si>
+  <si>
+    <t>hypothetical</t>
+  </si>
+  <si>
+    <t>supposed</t>
+  </si>
+  <si>
+    <t>a. 假设的 嘉定的</t>
   </si>
 </sst>
 </file>
@@ -3468,10 +4590,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -3496,14 +4618,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3518,48 +4647,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3573,15 +4664,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3597,6 +4688,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3604,21 +4703,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3633,13 +4726,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3666,6 +4788,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3678,7 +4806,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3690,7 +4908,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3702,109 +4938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3822,7 +4956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3834,25 +4980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3869,26 +4997,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3923,21 +5033,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3963,157 +5058,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4129,13 +5257,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4150,10 +5281,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4471,17 +5605,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="D477" sqref="D477"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="D649" sqref="D649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="5"/>
+    <col min="1" max="1" width="9.33333333333333" style="6"/>
     <col min="2" max="2" width="16.6592592592593" customWidth="1"/>
-    <col min="3" max="3" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="24.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="24.0740740740741" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="24.8074074074074" customWidth="1"/>
@@ -4489,7 +5623,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4503,7 +5637,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4517,7 +5651,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -4531,7 +5665,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -4589,7 +5723,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -4603,21 +5737,21 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -4642,7 +5776,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -4667,7 +5801,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -4692,7 +5826,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -4728,7 +5862,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -4742,7 +5876,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -4767,7 +5901,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>1</v>
       </c>
       <c r="B23" t="s">
@@ -4781,7 +5915,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>1</v>
       </c>
       <c r="B24" t="s">
@@ -4795,7 +5929,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -4831,7 +5965,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -4933,7 +6067,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -4969,7 +6103,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -4994,7 +6128,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5008,7 +6142,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -5022,7 +6156,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -5036,7 +6170,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -5072,7 +6206,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -5086,7 +6220,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -5100,7 +6234,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -5114,7 +6248,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -5128,16 +6262,16 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>9</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="8" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5208,21 +6342,21 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="6">
+      <c r="A59" s="7">
         <v>9</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -5236,7 +6370,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -5250,7 +6384,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -5264,7 +6398,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -5278,7 +6412,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -5314,7 +6448,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -5328,21 +6462,21 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="6">
+      <c r="A68" s="7">
         <v>9</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="5">
+      <c r="A69" s="6">
         <v>1</v>
       </c>
       <c r="B69" t="s">
@@ -5367,7 +6501,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5">
+      <c r="A71" s="6">
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -5392,7 +6526,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5">
+      <c r="A73" s="6">
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -5406,21 +6540,21 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="6">
+      <c r="A74" s="7">
         <v>9</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="5">
+      <c r="A75" s="6">
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -5445,7 +6579,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="5">
+      <c r="A77" s="6">
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -5459,7 +6593,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5">
+      <c r="A78" s="6">
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -5473,7 +6607,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5">
+      <c r="A79" s="6">
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -5509,7 +6643,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="5">
+      <c r="A82" s="6">
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -5534,7 +6668,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="5">
+      <c r="A84" s="6">
         <v>1</v>
       </c>
       <c r="B84" t="s">
@@ -5548,7 +6682,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="5">
+      <c r="A85" s="6">
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -5562,7 +6696,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="5">
+      <c r="A86" s="6">
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -5587,7 +6721,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="5">
+      <c r="A88" s="6">
         <v>1</v>
       </c>
       <c r="B88" t="s">
@@ -5601,7 +6735,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="5">
+      <c r="A89" s="6">
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -5615,7 +6749,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="5">
+      <c r="A90" s="6">
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -5629,7 +6763,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="5">
+      <c r="A91" s="6">
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -5643,7 +6777,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="5">
+      <c r="A92" s="6">
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -5657,7 +6791,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="5">
+      <c r="A93" s="6">
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -5671,7 +6805,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="5">
+      <c r="A94" s="6">
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -5685,7 +6819,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="5">
+      <c r="A95" s="6">
         <v>1</v>
       </c>
       <c r="B95" t="s">
@@ -5699,7 +6833,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="5">
+      <c r="A96" s="6">
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -5713,21 +6847,21 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="6">
+      <c r="A97" s="7">
         <v>9</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="5">
+      <c r="A98" s="6">
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -5741,7 +6875,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="5">
+      <c r="A99" s="6">
         <v>1</v>
       </c>
       <c r="B99" t="s">
@@ -5777,21 +6911,21 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="6">
+      <c r="A102" s="7">
         <v>9</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="5">
+      <c r="A103" s="6">
         <v>0</v>
       </c>
       <c r="B103" t="s">
@@ -5805,7 +6939,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="5">
+      <c r="A104" s="6">
         <v>0</v>
       </c>
       <c r="B104" t="s">
@@ -5819,21 +6953,21 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="6">
+      <c r="A105" s="7">
         <v>9</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="5">
+      <c r="A106" s="6">
         <v>0</v>
       </c>
       <c r="B106" t="s">
@@ -5847,7 +6981,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="5">
+      <c r="A107" s="6">
         <v>0</v>
       </c>
       <c r="B107" t="s">
@@ -5861,7 +6995,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="5">
+      <c r="A108" s="6">
         <v>0</v>
       </c>
       <c r="B108" t="s">
@@ -5886,7 +7020,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="5">
+      <c r="A110" s="6">
         <v>0</v>
       </c>
       <c r="B110" t="s">
@@ -5900,7 +7034,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="5">
+      <c r="A111" s="6">
         <v>0</v>
       </c>
       <c r="B111" t="s">
@@ -5914,7 +7048,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="5">
+      <c r="A112" s="6">
         <v>0</v>
       </c>
       <c r="B112" t="s">
@@ -5928,7 +7062,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="5">
+      <c r="A113" s="6">
         <v>0</v>
       </c>
       <c r="B113" t="s">
@@ -5942,7 +7076,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="5">
+      <c r="A114" s="6">
         <v>0</v>
       </c>
       <c r="B114" t="s">
@@ -5956,7 +7090,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="5">
+      <c r="A115" s="6">
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -5970,7 +7104,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="5">
+      <c r="A116" s="6">
         <v>1</v>
       </c>
       <c r="B116" t="s">
@@ -6017,7 +7151,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="5">
+      <c r="A120" s="6">
         <v>0</v>
       </c>
       <c r="B120" t="s">
@@ -6031,7 +7165,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="5">
+      <c r="A121" s="6">
         <v>0</v>
       </c>
       <c r="B121" t="s">
@@ -6045,21 +7179,21 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="6">
+      <c r="A122" s="7">
         <v>9</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="5">
+      <c r="A123" s="6">
         <v>0</v>
       </c>
       <c r="B123" t="s">
@@ -6084,7 +7218,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="5">
+      <c r="A125" s="6">
         <v>0</v>
       </c>
       <c r="B125" t="s">
@@ -6098,7 +7232,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="5">
+      <c r="A126" s="6">
         <v>0</v>
       </c>
       <c r="B126" t="s">
@@ -6112,7 +7246,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="5">
+      <c r="A127" s="6">
         <v>0</v>
       </c>
       <c r="B127" t="s">
@@ -6126,21 +7260,21 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="6">
+      <c r="A128" s="7">
         <v>9</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="5">
+      <c r="A129" s="6">
         <v>0</v>
       </c>
       <c r="B129" t="s">
@@ -6154,7 +7288,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="5">
+      <c r="A130" s="6">
         <v>0</v>
       </c>
       <c r="B130" t="s">
@@ -6168,7 +7302,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="5">
+      <c r="A131" s="6">
         <v>0</v>
       </c>
       <c r="B131" t="s">
@@ -6182,7 +7316,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="5">
+      <c r="A132" s="6">
         <v>0</v>
       </c>
       <c r="B132" t="s">
@@ -6196,7 +7330,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="5">
+      <c r="A133" s="6">
         <v>0</v>
       </c>
       <c r="B133" t="s">
@@ -6210,7 +7344,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="5">
+      <c r="A134" s="6">
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -6257,7 +7391,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="5">
+      <c r="A138" s="6">
         <v>1</v>
       </c>
       <c r="B138" t="s">
@@ -6271,7 +7405,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="5">
+      <c r="A139" s="6">
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -6296,7 +7430,7 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="5">
+      <c r="A141" s="6">
         <v>0</v>
       </c>
       <c r="B141" t="s">
@@ -6310,7 +7444,7 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="5">
+      <c r="A142" s="6">
         <v>0</v>
       </c>
       <c r="B142" t="s">
@@ -6324,7 +7458,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="5">
+      <c r="A143" s="6">
         <v>1</v>
       </c>
       <c r="B143" t="s">
@@ -6338,7 +7472,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="5">
+      <c r="A144" s="6">
         <v>1</v>
       </c>
       <c r="B144" t="s">
@@ -6352,7 +7486,7 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="5">
+      <c r="A145" s="6">
         <v>1</v>
       </c>
       <c r="B145" t="s">
@@ -6366,7 +7500,7 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="5">
+      <c r="A146" s="6">
         <v>0</v>
       </c>
       <c r="B146" t="s">
@@ -6380,7 +7514,7 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="5">
+      <c r="A147" s="6">
         <v>0</v>
       </c>
       <c r="B147" t="s">
@@ -6394,7 +7528,7 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="5">
+      <c r="A148" s="6">
         <v>0</v>
       </c>
       <c r="B148" t="s">
@@ -6408,7 +7542,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="5">
+      <c r="A149" s="6">
         <v>0</v>
       </c>
       <c r="B149" t="s">
@@ -6422,7 +7556,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="5">
+      <c r="A150" s="6">
         <v>1</v>
       </c>
       <c r="B150" t="s">
@@ -6447,35 +7581,35 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="6">
+      <c r="A152" s="7">
         <v>9</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="6">
+      <c r="A153" s="7">
         <v>9</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="5">
+      <c r="A154" s="6">
         <v>0</v>
       </c>
       <c r="B154" t="s">
@@ -6489,7 +7623,7 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="5">
+      <c r="A155" s="6">
         <v>0</v>
       </c>
       <c r="B155" t="s">
@@ -6503,7 +7637,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="5">
+      <c r="A156" s="6">
         <v>1</v>
       </c>
       <c r="B156" t="s">
@@ -6517,7 +7651,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="5">
+      <c r="A157" s="6">
         <v>0</v>
       </c>
       <c r="B157" t="s">
@@ -6531,7 +7665,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="5">
+      <c r="A158" s="6">
         <v>1</v>
       </c>
       <c r="B158" t="s">
@@ -6545,30 +7679,30 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="6">
+      <c r="A159" s="7">
         <v>9</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="6">
+      <c r="A160" s="7">
         <v>9</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="8" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6628,7 +7762,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="5">
+      <c r="A166" s="6">
         <v>1</v>
       </c>
       <c r="B166" t="s">
@@ -6642,21 +7776,21 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="6">
+      <c r="A167" s="7">
         <v>9</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="8" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="5">
+      <c r="A168" s="6">
         <v>1</v>
       </c>
       <c r="B168" t="s">
@@ -6670,7 +7804,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="5">
+      <c r="A169" s="6">
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -6684,7 +7818,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="5">
+      <c r="A170" s="6">
         <v>1</v>
       </c>
       <c r="B170" t="s">
@@ -6698,7 +7832,7 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="5">
+      <c r="A171" s="6">
         <v>0</v>
       </c>
       <c r="B171" t="s">
@@ -6712,7 +7846,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="5">
+      <c r="A172" s="6">
         <v>0</v>
       </c>
       <c r="B172" t="s">
@@ -6726,7 +7860,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="5">
+      <c r="A173" s="6">
         <v>1</v>
       </c>
       <c r="B173" t="s">
@@ -6740,7 +7874,7 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="5">
+      <c r="A174" s="6">
         <v>0</v>
       </c>
       <c r="B174" t="s">
@@ -6754,7 +7888,7 @@
       </c>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C175" t="s">
@@ -6765,7 +7899,7 @@
       </c>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C176" t="s">
@@ -6776,7 +7910,7 @@
       </c>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C177" t="s">
@@ -6787,7 +7921,7 @@
       </c>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C178" t="s">
@@ -6947,7 +8081,7 @@
       <c r="C192" t="s">
         <v>469</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="9" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6958,7 +8092,7 @@
       <c r="C193" t="s">
         <v>471</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="9" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6969,7 +8103,7 @@
       <c r="C194" t="s">
         <v>472</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="9" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6980,7 +8114,7 @@
       <c r="C195" t="s">
         <v>473</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="9" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7896,7 +9030,7 @@
       <c r="C278" t="s">
         <v>673</v>
       </c>
-      <c r="D278" s="8" t="s">
+      <c r="D278" s="9" t="s">
         <v>674</v>
       </c>
     </row>
@@ -7907,7 +9041,7 @@
       <c r="C279" t="s">
         <v>675</v>
       </c>
-      <c r="D279" s="8" t="s">
+      <c r="D279" s="9" t="s">
         <v>674</v>
       </c>
     </row>
@@ -8149,7 +9283,7 @@
       <c r="C301" t="s">
         <v>527</v>
       </c>
-      <c r="D301" s="8" t="s">
+      <c r="D301" s="9" t="s">
         <v>727</v>
       </c>
     </row>
@@ -8160,7 +9294,7 @@
       <c r="C302" t="s">
         <v>728</v>
       </c>
-      <c r="D302" s="8" t="s">
+      <c r="D302" s="9" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8171,7 +9305,7 @@
       <c r="C303" t="s">
         <v>730</v>
       </c>
-      <c r="D303" s="8" t="s">
+      <c r="D303" s="9" t="s">
         <v>729</v>
       </c>
     </row>
@@ -8671,7 +9805,7 @@
       </c>
     </row>
     <row r="349" s="1" customFormat="1" spans="1:2">
-      <c r="A349" s="9"/>
+      <c r="A349" s="10"/>
       <c r="B349" s="1" t="s">
         <v>840</v>
       </c>
@@ -8820,7 +9954,7 @@
       </c>
     </row>
     <row r="363" s="1" customFormat="1" spans="1:2">
-      <c r="A363" s="9"/>
+      <c r="A363" s="10"/>
       <c r="B363" s="1" t="s">
         <v>872</v>
       </c>
@@ -8980,7 +10114,7 @@
       </c>
     </row>
     <row r="378" s="1" customFormat="1" spans="1:2">
-      <c r="A378" s="9"/>
+      <c r="A378" s="10"/>
       <c r="B378" s="1" t="s">
         <v>907</v>
       </c>
@@ -9129,7 +10263,7 @@
       </c>
     </row>
     <row r="392" s="1" customFormat="1" spans="1:2">
-      <c r="A392" s="9"/>
+      <c r="A392" s="10"/>
       <c r="B392" s="1" t="s">
         <v>938</v>
       </c>
@@ -9267,7 +10401,7 @@
       </c>
     </row>
     <row r="405" s="1" customFormat="1" spans="1:2">
-      <c r="A405" s="9"/>
+      <c r="A405" s="10"/>
       <c r="B405" s="1" t="s">
         <v>970</v>
       </c>
@@ -9416,7 +10550,7 @@
       </c>
     </row>
     <row r="419" s="2" customFormat="1" spans="1:2">
-      <c r="A419" s="10"/>
+      <c r="A419" s="11"/>
       <c r="B419" s="2" t="s">
         <v>1005</v>
       </c>
@@ -9488,7 +10622,7 @@
       </c>
     </row>
     <row r="426" s="3" customFormat="1" spans="1:2">
-      <c r="A426" s="11"/>
+      <c r="A426" s="12"/>
       <c r="B426" s="3" t="s">
         <v>1020</v>
       </c>
@@ -9615,7 +10749,7 @@
       </c>
     </row>
     <row r="438" s="3" customFormat="1" spans="1:2">
-      <c r="A438" s="11"/>
+      <c r="A438" s="12"/>
       <c r="B438" s="3" t="s">
         <v>1047</v>
       </c>
@@ -9660,7 +10794,7 @@
       <c r="C442" t="s">
         <v>1056</v>
       </c>
-      <c r="D442" s="12" t="s">
+      <c r="D442" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -9671,7 +10805,7 @@
       <c r="C443" t="s">
         <v>1057</v>
       </c>
-      <c r="D443" s="12" t="s">
+      <c r="D443" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -9764,7 +10898,7 @@
       </c>
     </row>
     <row r="452" s="3" customFormat="1" spans="1:2">
-      <c r="A452" s="11"/>
+      <c r="A452" s="12"/>
       <c r="B452" s="3" t="s">
         <v>1078</v>
       </c>
@@ -9820,7 +10954,7 @@
       <c r="C457" t="s">
         <v>1092</v>
       </c>
-      <c r="D457" s="12" t="s">
+      <c r="D457" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -9913,7 +11047,7 @@
       </c>
     </row>
     <row r="466" s="3" customFormat="1" spans="1:2">
-      <c r="A466" s="11"/>
+      <c r="A466" s="12"/>
       <c r="B466" s="3" t="s">
         <v>1114</v>
       </c>
@@ -9969,12 +11103,12 @@
       <c r="C471" t="s">
         <v>1127</v>
       </c>
-      <c r="D471" s="12" t="s">
+      <c r="D471" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="472" spans="2:4">
-      <c r="B472" s="12" t="s">
+      <c r="B472" t="s">
         <v>1126</v>
       </c>
       <c r="C472" t="s">
@@ -10046,12 +11180,12 @@
       <c r="C478" t="s">
         <v>1144</v>
       </c>
-      <c r="D478" s="12" t="s">
+      <c r="D478" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="479" spans="2:4">
-      <c r="B479" s="12" t="s">
+      <c r="B479" t="s">
         <v>1028</v>
       </c>
       <c r="C479" t="s">
@@ -10065,6 +11199,1910 @@
       <c r="A480" s="13"/>
       <c r="B480" s="4" t="s">
         <v>1147</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4">
+      <c r="B481" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4">
+      <c r="B482" t="s">
+        <v>441</v>
+      </c>
+      <c r="C482" t="s">
+        <v>751</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4">
+      <c r="B483" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4">
+      <c r="B484" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4">
+      <c r="B485" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4">
+      <c r="B486" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4">
+      <c r="B487" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4">
+      <c r="B488" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4">
+      <c r="B489" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C489" t="s">
+        <v>602</v>
+      </c>
+      <c r="D489" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4">
+      <c r="B490" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C490" t="s">
+        <v>602</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4">
+      <c r="B491" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4">
+      <c r="B492" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4">
+      <c r="B493" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C493" t="s">
+        <v>214</v>
+      </c>
+      <c r="D493" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="494" s="4" customFormat="1" spans="1:2">
+      <c r="A494" s="13"/>
+      <c r="B494" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4">
+      <c r="B495" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C495" t="s">
+        <v>215</v>
+      </c>
+      <c r="D495" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4">
+      <c r="B496" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4">
+      <c r="B497" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4">
+      <c r="B498" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4">
+      <c r="B499" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4">
+      <c r="B500" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4">
+      <c r="B501" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4">
+      <c r="B502" t="s">
+        <v>381</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4">
+      <c r="B503" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4">
+      <c r="B504" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4">
+      <c r="B505" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4">
+      <c r="B506" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4">
+      <c r="B507" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="508" s="4" customFormat="1" spans="1:2">
+      <c r="A508" s="13"/>
+      <c r="B508" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4">
+      <c r="B509" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4">
+      <c r="B510" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4">
+      <c r="B511" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4">
+      <c r="B512" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C512" t="s">
+        <v>235</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4">
+      <c r="B513" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4">
+      <c r="B514" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C514" t="s">
+        <v>660</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4">
+      <c r="B515" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4">
+      <c r="B516" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="517" spans="2:4">
+      <c r="B517" t="s">
+        <v>423</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4">
+      <c r="B518" t="s">
+        <v>423</v>
+      </c>
+      <c r="C518" t="s">
+        <v>119</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4">
+      <c r="B519" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="520" spans="2:4">
+      <c r="B520" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4">
+      <c r="B521" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C521" t="s">
+        <v>284</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="522" s="4" customFormat="1" spans="1:2">
+      <c r="A522" s="13"/>
+      <c r="B522" s="4" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4">
+      <c r="B523" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4">
+      <c r="B524" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="525" spans="2:4">
+      <c r="B525" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C525" t="s">
+        <v>235</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="526" spans="2:4">
+      <c r="B526" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C526" t="s">
+        <v>215</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="527" spans="2:4">
+      <c r="B527" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C527" t="s">
+        <v>489</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4">
+      <c r="B528" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4">
+      <c r="B529" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4">
+      <c r="B530" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4">
+      <c r="B531" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4">
+      <c r="B532" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4">
+      <c r="B533" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4">
+      <c r="B534" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4">
+      <c r="B535" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="536" s="4" customFormat="1" spans="1:2">
+      <c r="A536" s="13"/>
+      <c r="B536" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4">
+      <c r="B537" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4">
+      <c r="B538" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="539" spans="2:4">
+      <c r="B539" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C539" t="s">
+        <v>40</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4">
+      <c r="B540" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4">
+      <c r="B541" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4">
+      <c r="B542" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4">
+      <c r="B543" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4">
+      <c r="B544" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4">
+      <c r="B545" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4">
+      <c r="B546" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C546" t="s">
+        <v>912</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="547" s="4" customFormat="1" spans="1:2">
+      <c r="A547" s="13"/>
+      <c r="B547" s="4" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4">
+      <c r="B548" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4">
+      <c r="B549" t="s">
+        <v>83</v>
+      </c>
+      <c r="C549" t="s">
+        <v>82</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4">
+      <c r="B550" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4">
+      <c r="B551" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4">
+      <c r="B552" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4">
+      <c r="B553" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="554" spans="2:4">
+      <c r="B554" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4">
+      <c r="B555" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4">
+      <c r="B556" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4">
+      <c r="B557" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4">
+      <c r="B558" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="559" s="5" customFormat="1" spans="1:2">
+      <c r="A559" s="14"/>
+      <c r="B559" s="5" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4">
+      <c r="B560" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4">
+      <c r="B561" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="562" spans="2:4">
+      <c r="B562" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4">
+      <c r="B563" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4">
+      <c r="B564" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4">
+      <c r="B565" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="566" spans="2:4">
+      <c r="B566" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4">
+      <c r="B567" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4">
+      <c r="B568" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4">
+      <c r="B569" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="570" spans="2:4">
+      <c r="B570" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C570" t="s">
+        <v>232</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4">
+      <c r="B571" t="s">
+        <v>375</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="572" s="5" customFormat="1" spans="1:2">
+      <c r="A572" s="14"/>
+      <c r="B572" s="5" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4">
+      <c r="B573" t="s">
+        <v>375</v>
+      </c>
+      <c r="C573" t="s">
+        <v>377</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="574" spans="2:4">
+      <c r="B574" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4">
+      <c r="B575" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4">
+      <c r="B576" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="577" spans="2:4">
+      <c r="B577" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="578" spans="2:4">
+      <c r="B578" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="579" spans="2:4">
+      <c r="B579" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="580" spans="2:4">
+      <c r="B580" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="581" spans="2:4">
+      <c r="B581" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="582" spans="2:4">
+      <c r="B582" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="583" spans="2:4">
+      <c r="B583" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4">
+      <c r="B584" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="585" spans="2:4">
+      <c r="B585" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="586" s="5" customFormat="1" spans="1:2">
+      <c r="A586" s="14"/>
+      <c r="B586" s="5" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4">
+      <c r="B587" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="588" spans="2:4">
+      <c r="B588" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="589" spans="2:4">
+      <c r="B589" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C589" t="s">
+        <v>899</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="590" spans="2:4">
+      <c r="B590" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="591" spans="2:4">
+      <c r="B591" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C591" t="s">
+        <v>899</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="592" spans="2:4">
+      <c r="B592" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="593" spans="2:4">
+      <c r="B593" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4">
+      <c r="B594" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="595" spans="2:4">
+      <c r="B595" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4">
+      <c r="B596" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="597" spans="2:4">
+      <c r="B597" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="598" spans="2:4">
+      <c r="B598" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="599" spans="2:4">
+      <c r="B599" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="600" s="5" customFormat="1" spans="1:2">
+      <c r="A600" s="14"/>
+      <c r="B600" s="5" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="601" spans="2:4">
+      <c r="B601" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="602" spans="2:4">
+      <c r="B602" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C602" t="s">
+        <v>96</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="603" spans="2:4">
+      <c r="B603" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="604" spans="2:4">
+      <c r="B604" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C604" t="s">
+        <v>82</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="605" spans="2:4">
+      <c r="B605" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="606" spans="2:4">
+      <c r="B606" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="607" spans="2:4">
+      <c r="B607" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C607" t="s">
+        <v>769</v>
+      </c>
+      <c r="D607" s="15" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="608" spans="2:4">
+      <c r="B608" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4">
+      <c r="B609" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C609" t="s">
+        <v>573</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4">
+      <c r="B610" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D610" s="15" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4">
+      <c r="B611" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="612" spans="2:4">
+      <c r="B612" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="613" s="5" customFormat="1" spans="1:2">
+      <c r="A613" s="14"/>
+      <c r="B613" s="5" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="614" spans="2:4">
+      <c r="B614" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D614" s="15" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="615" spans="2:4">
+      <c r="B615" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D615" s="15" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="616" spans="2:4">
+      <c r="B616" s="15" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="617" spans="2:4">
+      <c r="B617" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="618" spans="2:4">
+      <c r="B618" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="619" s="5" customFormat="1" spans="1:2">
+      <c r="A619" s="14"/>
+      <c r="B619" s="5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4">
+      <c r="B620" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C620" t="s">
+        <v>327</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="621" spans="2:4">
+      <c r="B621" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D621" s="15" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4">
+      <c r="B622" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C622" t="s">
+        <v>652</v>
+      </c>
+      <c r="D622" s="15" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="623" spans="2:4">
+      <c r="B623" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4">
+      <c r="B624" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="625" spans="2:4">
+      <c r="B625" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4">
+      <c r="B626" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="627" spans="2:4">
+      <c r="B627" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="628" spans="2:4">
+      <c r="B628" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C628" t="s">
+        <v>999</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4">
+      <c r="B629" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4">
+      <c r="B630" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4">
+      <c r="B631" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C631" t="s">
+        <v>789</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="632" s="5" customFormat="1" spans="1:2">
+      <c r="A632" s="14"/>
+      <c r="B632" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="633" spans="2:4">
+      <c r="B633" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="634" spans="2:4">
+      <c r="B634" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="635" spans="2:4">
+      <c r="B635" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C635" t="s">
+        <v>119</v>
+      </c>
+      <c r="D635" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="636" spans="2:4">
+      <c r="B636" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="637" spans="2:4">
+      <c r="B637" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C637" t="s">
+        <v>611</v>
+      </c>
+      <c r="D637" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="638" spans="2:4">
+      <c r="B638" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D638" s="15" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="639" spans="2:4">
+      <c r="B639" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="640" spans="2:4">
+      <c r="B640" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="641" spans="2:4">
+      <c r="B641" t="s">
+        <v>433</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4">
+      <c r="B642" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="643" spans="2:4">
+      <c r="B643" t="s">
+        <v>499</v>
+      </c>
+      <c r="C643" t="s">
+        <v>498</v>
+      </c>
+      <c r="D643" s="15" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="644" spans="2:4">
+      <c r="B644" t="s">
+        <v>499</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D644" s="15" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="645" spans="2:4">
+      <c r="B645" t="s">
+        <v>499</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="646" s="5" customFormat="1" spans="1:2">
+      <c r="A646" s="14"/>
+      <c r="B646" s="5" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="647" spans="2:4">
+      <c r="B647" t="s">
+        <v>499</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="648" spans="2:4">
+      <c r="B648" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="649" spans="2:4">
+      <c r="B649" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="650" spans="2:4">
+      <c r="B650" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D650" s="15" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="651" spans="2:4">
+      <c r="B651" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="652" spans="2:4">
+      <c r="B652" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="653" spans="2:4">
+      <c r="B653" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="654" spans="2:4">
+      <c r="B654" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D654" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="655" spans="2:4">
+      <c r="B655" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="656" spans="2:4">
+      <c r="B656" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C656" t="s">
+        <v>707</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="657" spans="2:4">
+      <c r="B657" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="658" spans="2:4">
+      <c r="B658" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="659" spans="2:4">
+      <c r="B659" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1521</v>
       </c>
     </row>
   </sheetData>

--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15100"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$826</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$875</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009">
   <si>
     <t>标记</t>
   </si>
@@ -5648,6 +5648,402 @@
   </si>
   <si>
     <t>v. 操纵</t>
+  </si>
+  <si>
+    <t>101-120页</t>
+  </si>
+  <si>
+    <t>scorn</t>
+  </si>
+  <si>
+    <t>despise</t>
+  </si>
+  <si>
+    <t>轻蔑 嘲笑</t>
+  </si>
+  <si>
+    <t>scrutinize</t>
+  </si>
+  <si>
+    <t>examine</t>
+  </si>
+  <si>
+    <t>详细审查</t>
+  </si>
+  <si>
+    <t>secrete</t>
+  </si>
+  <si>
+    <t>分泌</t>
+  </si>
+  <si>
+    <t>shiver</t>
+  </si>
+  <si>
+    <t>tremor</t>
+  </si>
+  <si>
+    <t>发抖 打颤</t>
+  </si>
+  <si>
+    <t>simulated</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>假装的 仿造的</t>
+  </si>
+  <si>
+    <t>size up</t>
+  </si>
+  <si>
+    <t>reckon up to</t>
+  </si>
+  <si>
+    <t>估计</t>
+  </si>
+  <si>
+    <t>a solicitation of</t>
+  </si>
+  <si>
+    <t>an invitation of</t>
+  </si>
+  <si>
+    <t>恳求 恳请</t>
+  </si>
+  <si>
+    <t>sought-after</t>
+  </si>
+  <si>
+    <t>desired</t>
+  </si>
+  <si>
+    <t>受欢迎的</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>set off</t>
+  </si>
+  <si>
+    <t>触发</t>
+  </si>
+  <si>
+    <t>spectator</t>
+  </si>
+  <si>
+    <t>beholder</t>
+  </si>
+  <si>
+    <t>目击者</t>
+  </si>
+  <si>
+    <t>a matter of speculation</t>
+  </si>
+  <si>
+    <t>supposition</t>
+  </si>
+  <si>
+    <t>推断</t>
+  </si>
+  <si>
+    <t>spontaneous</t>
+  </si>
+  <si>
+    <t>impulsive instinctive</t>
+  </si>
+  <si>
+    <t>自发地 非计划安排的</t>
+  </si>
+  <si>
+    <t>sporadic</t>
+  </si>
+  <si>
+    <t>irregular intermittent</t>
+  </si>
+  <si>
+    <t>偶尔发生的</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>看见 发现</t>
+  </si>
+  <si>
+    <t>staggering</t>
+  </si>
+  <si>
+    <t>overwhelming</t>
+  </si>
+  <si>
+    <t>巨大的</t>
+  </si>
+  <si>
+    <t>staunch</t>
+  </si>
+  <si>
+    <t>loyal strong</t>
+  </si>
+  <si>
+    <t>坚定的 可靠的</t>
+  </si>
+  <si>
+    <t>stockpile</t>
+  </si>
+  <si>
+    <t>store up</t>
+  </si>
+  <si>
+    <t>储存</t>
+  </si>
+  <si>
+    <t>come into contract with</t>
+  </si>
+  <si>
+    <t>撞击</t>
+  </si>
+  <si>
+    <t>stringent</t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>严厉的</t>
+  </si>
+  <si>
+    <t>随后的</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>坚固的</t>
+  </si>
+  <si>
+    <t>sunk</t>
+  </si>
+  <si>
+    <t>down to the bottom</t>
+  </si>
+  <si>
+    <t>下陷的</t>
+  </si>
+  <si>
+    <t>supplant</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>代替 取代</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>stop by force</t>
+  </si>
+  <si>
+    <t>制止 镇压</t>
+  </si>
+  <si>
+    <t>susceptible to</t>
+  </si>
+  <si>
+    <t>prone to</t>
+  </si>
+  <si>
+    <t>易受...影响的</t>
+  </si>
+  <si>
+    <t>suspect</t>
+  </si>
+  <si>
+    <t>猜想 疑有</t>
+  </si>
+  <si>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>persist</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>tactual</t>
+  </si>
+  <si>
+    <t>textural</t>
+  </si>
+  <si>
+    <t>触觉的</t>
+  </si>
+  <si>
+    <t>tailspin</t>
+  </si>
+  <si>
+    <t>total confusion</t>
+  </si>
+  <si>
+    <t>混乱 失控</t>
+  </si>
+  <si>
+    <t>tame</t>
+  </si>
+  <si>
+    <t>domesticate</t>
+  </si>
+  <si>
+    <t>驯服 驯化</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>有形的 实际的</t>
+  </si>
+  <si>
+    <t>tantalizing</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>非常着急</t>
+  </si>
+  <si>
+    <t>taper</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>逐渐变小</t>
+  </si>
+  <si>
+    <t>tenet</t>
+  </si>
+  <si>
+    <t>principle</t>
+  </si>
+  <si>
+    <t>原则 信条</t>
+  </si>
+  <si>
+    <t>timid</t>
+  </si>
+  <si>
+    <t>fearful</t>
+  </si>
+  <si>
+    <t>胆怯的</t>
+  </si>
+  <si>
+    <t>toil</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>辛勤劳动</t>
+  </si>
+  <si>
+    <t>deform</t>
+  </si>
+  <si>
+    <t>转变</t>
+  </si>
+  <si>
+    <t>transitory</t>
+  </si>
+  <si>
+    <t>短暂的</t>
+  </si>
+  <si>
+    <t>truism</t>
+  </si>
+  <si>
+    <t>it was evidence that</t>
+  </si>
+  <si>
+    <t>不言而喻的道理</t>
+  </si>
+  <si>
+    <t>turbulent</t>
+  </si>
+  <si>
+    <t>agitated</t>
+  </si>
+  <si>
+    <t>激动的</t>
+  </si>
+  <si>
+    <t>underlying</t>
+  </si>
+  <si>
+    <t>inner</t>
+  </si>
+  <si>
+    <t>潜在的 隐含的</t>
+  </si>
+  <si>
+    <t>underrate</t>
+  </si>
+  <si>
+    <t>undervalue</t>
+  </si>
+  <si>
+    <t>低估 看清</t>
+  </si>
+  <si>
+    <t>without variation</t>
+  </si>
+  <si>
+    <t>统一的</t>
+  </si>
+  <si>
+    <t>universally</t>
+  </si>
+  <si>
+    <t>在各种情况下</t>
+  </si>
+  <si>
+    <t>unprecedented</t>
+  </si>
+  <si>
+    <t>空前的</t>
+  </si>
+  <si>
+    <t>unreceptive</t>
+  </si>
+  <si>
+    <t>unresponsive</t>
+  </si>
+  <si>
+    <t>接受能力差的</t>
+  </si>
+  <si>
+    <t>笨重的</t>
+  </si>
+  <si>
+    <t>urbane</t>
+  </si>
+  <si>
+    <t>cultivated</t>
+  </si>
+  <si>
+    <t>文雅的</t>
   </si>
 </sst>
 </file>
@@ -5655,10 +6051,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -5676,7 +6072,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5691,14 +6110,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5706,14 +6125,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5754,27 +6165,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5789,17 +6179,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5818,8 +6206,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5864,7 +6260,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5876,73 +6314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5966,7 +6338,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5978,25 +6416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6008,43 +6440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6061,23 +6463,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6106,26 +6517,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6140,105 +6557,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6247,65 +6649,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6327,13 +6729,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6355,6 +6760,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6676,16 +7084,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E826"/>
+  <dimension ref="A1:E875"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" topLeftCell="A701" workbookViewId="0">
-      <selection activeCell="D760" sqref="D760"/>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="D842" sqref="D842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="7"/>
-    <col min="2" max="2" width="16.6583333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.33333333333333" style="9"/>
+    <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="24.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="31.2833333333333" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
@@ -6694,7 +7102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -6707,8 +7115,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -6721,8 +7129,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:4">
-      <c r="A3" s="7">
+    <row r="3" spans="1:4">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -6735,8 +7143,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4">
+      <c r="A4" s="9">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -6793,8 +7201,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4">
+      <c r="A9" s="9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -6807,22 +7215,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+    <row r="10" hidden="1" spans="1:4">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:4">
-      <c r="A11" s="7">
+    <row r="11" spans="1:4">
+      <c r="A11" s="9">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -6846,8 +7254,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
-      <c r="A13" s="7">
+    <row r="13" spans="1:4">
+      <c r="A13" s="9">
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -6871,8 +7279,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:4">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4">
+      <c r="A15" s="9">
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -6896,8 +7304,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
-      <c r="A17" s="7">
+    <row r="17" spans="1:4">
+      <c r="A17" s="9">
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -6932,8 +7340,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:4">
-      <c r="A20" s="7">
+    <row r="20" spans="1:4">
+      <c r="A20" s="9">
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -6946,8 +7354,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
-      <c r="A21" s="7">
+    <row r="21" spans="1:4">
+      <c r="A21" s="9">
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -6972,7 +7380,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>1</v>
       </c>
       <c r="B23" t="s">
@@ -6986,7 +7394,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7">
+      <c r="A24" s="9">
         <v>1</v>
       </c>
       <c r="B24" t="s">
@@ -6999,8 +7407,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:4">
-      <c r="A25" s="7">
+    <row r="25" spans="1:4">
+      <c r="A25" s="9">
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -7035,8 +7443,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:4">
-      <c r="A28" s="7">
+    <row r="28" spans="1:4">
+      <c r="A28" s="9">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -7137,8 +7545,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
-      <c r="A37" s="7">
+    <row r="37" spans="1:4">
+      <c r="A37" s="9">
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -7173,8 +7581,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
-      <c r="A40" s="7">
+    <row r="40" spans="1:4">
+      <c r="A40" s="9">
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -7198,8 +7606,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:4">
-      <c r="A42" s="7">
+    <row r="42" spans="1:4">
+      <c r="A42" s="9">
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -7212,8 +7620,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:4">
-      <c r="A43" s="7">
+    <row r="43" spans="1:4">
+      <c r="A43" s="9">
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -7227,7 +7635,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7">
+      <c r="A44" s="9">
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -7241,7 +7649,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="7">
+      <c r="A45" s="9">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -7276,8 +7684,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
-      <c r="A48" s="7">
+    <row r="48" spans="1:4">
+      <c r="A48" s="9">
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -7290,8 +7698,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:4">
-      <c r="A49" s="7">
+    <row r="49" spans="1:4">
+      <c r="A49" s="9">
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -7304,8 +7712,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
-      <c r="A50" s="7">
+    <row r="50" spans="1:4">
+      <c r="A50" s="9">
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -7318,8 +7726,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
-      <c r="A51" s="7">
+    <row r="51" spans="1:4">
+      <c r="A51" s="9">
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -7332,17 +7740,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8">
+    <row r="52" hidden="1" spans="1:4">
+      <c r="A52" s="10">
         <v>9</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7412,22 +7820,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8">
+    <row r="59" hidden="1" spans="1:4">
+      <c r="A59" s="10">
         <v>9</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:4">
-      <c r="A60" s="7">
+    <row r="60" spans="1:4">
+      <c r="A60" s="9">
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -7440,8 +7848,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
-      <c r="A61" s="7">
+    <row r="61" spans="1:4">
+      <c r="A61" s="9">
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -7454,8 +7862,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
-      <c r="A62" s="7">
+    <row r="62" spans="1:4">
+      <c r="A62" s="9">
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -7468,8 +7876,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
-      <c r="A63" s="7">
+    <row r="63" spans="1:4">
+      <c r="A63" s="9">
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -7482,8 +7890,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
-      <c r="A64" s="7">
+    <row r="64" spans="1:4">
+      <c r="A64" s="9">
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -7518,8 +7926,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
-      <c r="A67" s="7">
+    <row r="67" spans="1:4">
+      <c r="A67" s="9">
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -7532,22 +7940,22 @@
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8">
+    <row r="68" hidden="1" spans="1:4">
+      <c r="A68" s="10">
         <v>9</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="7">
+      <c r="A69" s="9">
         <v>1</v>
       </c>
       <c r="B69" t="s">
@@ -7571,8 +7979,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
-      <c r="A71" s="7">
+    <row r="71" spans="1:4">
+      <c r="A71" s="9">
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -7596,8 +8004,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
-      <c r="A73" s="7">
+    <row r="73" spans="1:4">
+      <c r="A73" s="9">
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -7610,22 +8018,22 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="8">
+    <row r="74" hidden="1" spans="1:4">
+      <c r="A74" s="10">
         <v>9</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
-      <c r="A75" s="7">
+    <row r="75" spans="1:4">
+      <c r="A75" s="9">
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -7649,8 +8057,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
-      <c r="A77" s="7">
+    <row r="77" spans="1:4">
+      <c r="A77" s="9">
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -7663,8 +8071,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
-      <c r="A78" s="7">
+    <row r="78" spans="1:4">
+      <c r="A78" s="9">
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -7677,8 +8085,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
-      <c r="A79" s="7">
+    <row r="79" spans="1:4">
+      <c r="A79" s="9">
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -7713,8 +8121,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
-      <c r="A82" s="7">
+    <row r="82" spans="1:4">
+      <c r="A82" s="9">
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -7739,7 +8147,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="7">
+      <c r="A84" s="9">
         <v>1</v>
       </c>
       <c r="B84" t="s">
@@ -7752,8 +8160,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
-      <c r="A85" s="7">
+    <row r="85" spans="1:4">
+      <c r="A85" s="9">
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -7766,8 +8174,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
-      <c r="A86" s="7">
+    <row r="86" spans="1:4">
+      <c r="A86" s="9">
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -7792,7 +8200,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="7">
+      <c r="A88" s="9">
         <v>1</v>
       </c>
       <c r="B88" t="s">
@@ -7805,8 +8213,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
-      <c r="A89" s="7">
+    <row r="89" spans="1:4">
+      <c r="A89" s="9">
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -7819,8 +8227,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
-      <c r="A90" s="7">
+    <row r="90" spans="1:4">
+      <c r="A90" s="9">
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -7833,8 +8241,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
-      <c r="A91" s="7">
+    <row r="91" spans="1:4">
+      <c r="A91" s="9">
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -7847,8 +8255,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
-      <c r="A92" s="7">
+    <row r="92" spans="1:4">
+      <c r="A92" s="9">
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -7861,8 +8269,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
-      <c r="A93" s="7">
+    <row r="93" spans="1:4">
+      <c r="A93" s="9">
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -7875,8 +8283,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:4">
-      <c r="A94" s="7">
+    <row r="94" spans="1:4">
+      <c r="A94" s="9">
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -7890,7 +8298,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="7">
+      <c r="A95" s="9">
         <v>1</v>
       </c>
       <c r="B95" t="s">
@@ -7903,8 +8311,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
-      <c r="A96" s="7">
+    <row r="96" spans="1:4">
+      <c r="A96" s="9">
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -7917,22 +8325,22 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="8">
+    <row r="97" hidden="1" spans="1:4">
+      <c r="A97" s="10">
         <v>9</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:4">
-      <c r="A98" s="7">
+    <row r="98" spans="1:4">
+      <c r="A98" s="9">
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -7946,7 +8354,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="7">
+      <c r="A99" s="9">
         <v>1</v>
       </c>
       <c r="B99" t="s">
@@ -7981,22 +8389,22 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="8">
+    <row r="102" hidden="1" spans="1:4">
+      <c r="A102" s="10">
         <v>9</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
-      <c r="A103" s="7">
+    <row r="103" spans="1:4">
+      <c r="A103" s="9">
         <v>0</v>
       </c>
       <c r="B103" t="s">
@@ -8009,8 +8417,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
-      <c r="A104" s="7">
+    <row r="104" spans="1:4">
+      <c r="A104" s="9">
         <v>0</v>
       </c>
       <c r="B104" t="s">
@@ -8023,22 +8431,22 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="8">
+    <row r="105" hidden="1" spans="1:4">
+      <c r="A105" s="10">
         <v>9</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:4">
-      <c r="A106" s="7">
+    <row r="106" spans="1:4">
+      <c r="A106" s="9">
         <v>0</v>
       </c>
       <c r="B106" t="s">
@@ -8051,8 +8459,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:4">
-      <c r="A107" s="7">
+    <row r="107" spans="1:4">
+      <c r="A107" s="9">
         <v>0</v>
       </c>
       <c r="B107" t="s">
@@ -8065,8 +8473,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
-      <c r="A108" s="7">
+    <row r="108" spans="1:4">
+      <c r="A108" s="9">
         <v>0</v>
       </c>
       <c r="B108" t="s">
@@ -8090,8 +8498,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:4">
-      <c r="A110" s="7">
+    <row r="110" spans="1:4">
+      <c r="A110" s="9">
         <v>0</v>
       </c>
       <c r="B110" t="s">
@@ -8104,8 +8512,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:4">
-      <c r="A111" s="7">
+    <row r="111" spans="1:4">
+      <c r="A111" s="9">
         <v>0</v>
       </c>
       <c r="B111" t="s">
@@ -8118,8 +8526,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:4">
-      <c r="A112" s="7">
+    <row r="112" spans="1:4">
+      <c r="A112" s="9">
         <v>0</v>
       </c>
       <c r="B112" t="s">
@@ -8132,8 +8540,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:4">
-      <c r="A113" s="7">
+    <row r="113" spans="1:4">
+      <c r="A113" s="9">
         <v>0</v>
       </c>
       <c r="B113" t="s">
@@ -8146,8 +8554,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:4">
-      <c r="A114" s="7">
+    <row r="114" spans="1:4">
+      <c r="A114" s="9">
         <v>0</v>
       </c>
       <c r="B114" t="s">
@@ -8160,8 +8568,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:4">
-      <c r="A115" s="7">
+    <row r="115" spans="1:4">
+      <c r="A115" s="9">
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -8175,7 +8583,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="7">
+      <c r="A116" s="9">
         <v>1</v>
       </c>
       <c r="B116" t="s">
@@ -8221,8 +8629,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:4">
-      <c r="A120" s="7">
+    <row r="120" spans="1:4">
+      <c r="A120" s="9">
         <v>0</v>
       </c>
       <c r="B120" t="s">
@@ -8235,8 +8643,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:4">
-      <c r="A121" s="7">
+    <row r="121" spans="1:4">
+      <c r="A121" s="9">
         <v>0</v>
       </c>
       <c r="B121" t="s">
@@ -8249,22 +8657,22 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="8">
+    <row r="122" hidden="1" spans="1:4">
+      <c r="A122" s="10">
         <v>9</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:4">
-      <c r="A123" s="7">
+    <row r="123" spans="1:4">
+      <c r="A123" s="9">
         <v>0</v>
       </c>
       <c r="B123" t="s">
@@ -8288,8 +8696,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:4">
-      <c r="A125" s="7">
+    <row r="125" spans="1:4">
+      <c r="A125" s="9">
         <v>0</v>
       </c>
       <c r="B125" t="s">
@@ -8302,8 +8710,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:4">
-      <c r="A126" s="7">
+    <row r="126" spans="1:4">
+      <c r="A126" s="9">
         <v>0</v>
       </c>
       <c r="B126" t="s">
@@ -8316,8 +8724,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:4">
-      <c r="A127" s="7">
+    <row r="127" spans="1:4">
+      <c r="A127" s="9">
         <v>0</v>
       </c>
       <c r="B127" t="s">
@@ -8330,22 +8738,22 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="8">
+    <row r="128" hidden="1" spans="1:4">
+      <c r="A128" s="10">
         <v>9</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:4">
-      <c r="A129" s="7">
+    <row r="129" spans="1:4">
+      <c r="A129" s="9">
         <v>0</v>
       </c>
       <c r="B129" t="s">
@@ -8358,8 +8766,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:4">
-      <c r="A130" s="7">
+    <row r="130" spans="1:4">
+      <c r="A130" s="9">
         <v>0</v>
       </c>
       <c r="B130" t="s">
@@ -8372,8 +8780,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:4">
-      <c r="A131" s="7">
+    <row r="131" spans="1:4">
+      <c r="A131" s="9">
         <v>0</v>
       </c>
       <c r="B131" t="s">
@@ -8386,8 +8794,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:4">
-      <c r="A132" s="7">
+    <row r="132" spans="1:4">
+      <c r="A132" s="9">
         <v>0</v>
       </c>
       <c r="B132" t="s">
@@ -8400,8 +8808,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:4">
-      <c r="A133" s="7">
+    <row r="133" spans="1:4">
+      <c r="A133" s="9">
         <v>0</v>
       </c>
       <c r="B133" t="s">
@@ -8414,8 +8822,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:4">
-      <c r="A134" s="7">
+    <row r="134" spans="1:4">
+      <c r="A134" s="9">
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -8462,7 +8870,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="7">
+      <c r="A138" s="9">
         <v>1</v>
       </c>
       <c r="B138" t="s">
@@ -8475,8 +8883,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:4">
-      <c r="A139" s="7">
+    <row r="139" spans="1:4">
+      <c r="A139" s="9">
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -8500,8 +8908,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:4">
-      <c r="A141" s="7">
+    <row r="141" spans="1:4">
+      <c r="A141" s="9">
         <v>0</v>
       </c>
       <c r="B141" t="s">
@@ -8514,8 +8922,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:4">
-      <c r="A142" s="7">
+    <row r="142" spans="1:4">
+      <c r="A142" s="9">
         <v>0</v>
       </c>
       <c r="B142" t="s">
@@ -8529,7 +8937,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="7">
+      <c r="A143" s="9">
         <v>1</v>
       </c>
       <c r="B143" t="s">
@@ -8543,7 +8951,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="7">
+      <c r="A144" s="9">
         <v>1</v>
       </c>
       <c r="B144" t="s">
@@ -8557,7 +8965,7 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="7">
+      <c r="A145" s="9">
         <v>1</v>
       </c>
       <c r="B145" t="s">
@@ -8570,8 +8978,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:4">
-      <c r="A146" s="7">
+    <row r="146" spans="1:4">
+      <c r="A146" s="9">
         <v>0</v>
       </c>
       <c r="B146" t="s">
@@ -8584,8 +8992,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:4">
-      <c r="A147" s="7">
+    <row r="147" spans="1:4">
+      <c r="A147" s="9">
         <v>0</v>
       </c>
       <c r="B147" t="s">
@@ -8598,8 +9006,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:4">
-      <c r="A148" s="7">
+    <row r="148" spans="1:4">
+      <c r="A148" s="9">
         <v>0</v>
       </c>
       <c r="B148" t="s">
@@ -8612,8 +9020,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:4">
-      <c r="A149" s="7">
+    <row r="149" spans="1:4">
+      <c r="A149" s="9">
         <v>0</v>
       </c>
       <c r="B149" t="s">
@@ -8627,7 +9035,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="7">
+      <c r="A150" s="9">
         <v>1</v>
       </c>
       <c r="B150" t="s">
@@ -8651,36 +9059,36 @@
         <v>376</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="8">
+    <row r="152" hidden="1" spans="1:4">
+      <c r="A152" s="10">
         <v>9</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="8">
+    <row r="153" hidden="1" spans="1:4">
+      <c r="A153" s="10">
         <v>9</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:4">
-      <c r="A154" s="7">
+    <row r="154" spans="1:4">
+      <c r="A154" s="9">
         <v>0</v>
       </c>
       <c r="B154" t="s">
@@ -8693,8 +9101,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:4">
-      <c r="A155" s="7">
+    <row r="155" spans="1:4">
+      <c r="A155" s="9">
         <v>0</v>
       </c>
       <c r="B155" t="s">
@@ -8708,7 +9116,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="7">
+      <c r="A156" s="9">
         <v>1</v>
       </c>
       <c r="B156" t="s">
@@ -8721,8 +9129,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:4">
-      <c r="A157" s="7">
+    <row r="157" spans="1:4">
+      <c r="A157" s="9">
         <v>0</v>
       </c>
       <c r="B157" t="s">
@@ -8736,7 +9144,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="7">
+      <c r="A158" s="9">
         <v>1</v>
       </c>
       <c r="B158" t="s">
@@ -8749,31 +9157,31 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="8">
+    <row r="159" hidden="1" spans="1:4">
+      <c r="A159" s="10">
         <v>9</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="8">
+    <row r="160" hidden="1" spans="1:4">
+      <c r="A160" s="10">
         <v>9</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="7" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8833,7 +9241,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="7">
+      <c r="A166" s="9">
         <v>1</v>
       </c>
       <c r="B166" t="s">
@@ -8846,22 +9254,22 @@
         <v>413</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="8">
+    <row r="167" hidden="1" spans="1:4">
+      <c r="A167" s="10">
         <v>9</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="7">
+      <c r="A168" s="9">
         <v>1</v>
       </c>
       <c r="B168" t="s">
@@ -8874,8 +9282,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:4">
-      <c r="A169" s="7">
+    <row r="169" spans="1:4">
+      <c r="A169" s="9">
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -8889,7 +9297,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="7">
+      <c r="A170" s="9">
         <v>1</v>
       </c>
       <c r="B170" t="s">
@@ -8902,8 +9310,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:4">
-      <c r="A171" s="7">
+    <row r="171" spans="1:4">
+      <c r="A171" s="9">
         <v>0</v>
       </c>
       <c r="B171" t="s">
@@ -8916,8 +9324,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:4">
-      <c r="A172" s="7">
+    <row r="172" spans="1:4">
+      <c r="A172" s="9">
         <v>0</v>
       </c>
       <c r="B172" t="s">
@@ -8931,7 +9339,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="7">
+      <c r="A173" s="9">
         <v>1</v>
       </c>
       <c r="B173" t="s">
@@ -8944,8 +9352,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:4">
-      <c r="A174" s="7">
+    <row r="174" spans="1:4">
+      <c r="A174" s="9">
         <v>0</v>
       </c>
       <c r="B174" t="s">
@@ -8959,7 +9367,7 @@
       </c>
     </row>
     <row r="175" hidden="1" spans="2:4">
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C175" t="s">
@@ -8970,7 +9378,7 @@
       </c>
     </row>
     <row r="176" hidden="1" spans="2:4">
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C176" t="s">
@@ -8981,7 +9389,7 @@
       </c>
     </row>
     <row r="177" hidden="1" spans="2:4">
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C177" t="s">
@@ -8992,7 +9400,7 @@
       </c>
     </row>
     <row r="178" hidden="1" spans="2:4">
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C178" t="s">
@@ -9152,7 +9560,7 @@
       <c r="C192" t="s">
         <v>469</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="11" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9163,7 +9571,7 @@
       <c r="C193" t="s">
         <v>471</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="11" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9174,7 +9582,7 @@
       <c r="C194" t="s">
         <v>472</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="11" t="s">
         <v>470</v>
       </c>
     </row>
@@ -9185,7 +9593,7 @@
       <c r="C195" t="s">
         <v>473</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="11" t="s">
         <v>470</v>
       </c>
     </row>
@@ -10101,7 +10509,7 @@
       <c r="C278" t="s">
         <v>673</v>
       </c>
-      <c r="D278" s="10" t="s">
+      <c r="D278" s="11" t="s">
         <v>674</v>
       </c>
     </row>
@@ -10112,7 +10520,7 @@
       <c r="C279" t="s">
         <v>675</v>
       </c>
-      <c r="D279" s="10" t="s">
+      <c r="D279" s="11" t="s">
         <v>674</v>
       </c>
     </row>
@@ -10354,7 +10762,7 @@
       <c r="C301" t="s">
         <v>527</v>
       </c>
-      <c r="D301" s="10" t="s">
+      <c r="D301" s="11" t="s">
         <v>727</v>
       </c>
     </row>
@@ -10365,7 +10773,7 @@
       <c r="C302" t="s">
         <v>728</v>
       </c>
-      <c r="D302" s="10" t="s">
+      <c r="D302" s="11" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10376,7 +10784,7 @@
       <c r="C303" t="s">
         <v>730</v>
       </c>
-      <c r="D303" s="10" t="s">
+      <c r="D303" s="11" t="s">
         <v>729</v>
       </c>
     </row>
@@ -10876,7 +11284,7 @@
       </c>
     </row>
     <row r="349" s="1" customFormat="1" hidden="1" spans="1:2">
-      <c r="A349" s="11"/>
+      <c r="A349" s="12"/>
       <c r="B349" s="1" t="s">
         <v>840</v>
       </c>
@@ -11025,7 +11433,7 @@
       </c>
     </row>
     <row r="363" s="1" customFormat="1" hidden="1" spans="1:2">
-      <c r="A363" s="11"/>
+      <c r="A363" s="12"/>
       <c r="B363" s="1" t="s">
         <v>872</v>
       </c>
@@ -11185,7 +11593,7 @@
       </c>
     </row>
     <row r="378" s="1" customFormat="1" hidden="1" spans="1:2">
-      <c r="A378" s="11"/>
+      <c r="A378" s="12"/>
       <c r="B378" s="1" t="s">
         <v>907</v>
       </c>
@@ -11334,7 +11742,7 @@
       </c>
     </row>
     <row r="392" s="1" customFormat="1" hidden="1" spans="1:2">
-      <c r="A392" s="11"/>
+      <c r="A392" s="12"/>
       <c r="B392" s="1" t="s">
         <v>938</v>
       </c>
@@ -11472,7 +11880,7 @@
       </c>
     </row>
     <row r="405" s="1" customFormat="1" hidden="1" spans="1:2">
-      <c r="A405" s="11"/>
+      <c r="A405" s="12"/>
       <c r="B405" s="1" t="s">
         <v>970</v>
       </c>
@@ -11621,7 +12029,7 @@
       </c>
     </row>
     <row r="419" s="2" customFormat="1" hidden="1" spans="1:2">
-      <c r="A419" s="12"/>
+      <c r="A419" s="13"/>
       <c r="B419" s="2" t="s">
         <v>1005</v>
       </c>
@@ -11693,7 +12101,7 @@
       </c>
     </row>
     <row r="426" s="3" customFormat="1" spans="1:2">
-      <c r="A426" s="13">
+      <c r="A426" s="14">
         <v>1</v>
       </c>
       <c r="B426" s="3" t="s">
@@ -11711,8 +12119,8 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:4">
-      <c r="A428" s="7">
+    <row r="428" spans="1:4">
+      <c r="A428" s="9">
         <v>0</v>
       </c>
       <c r="B428" t="s">
@@ -11769,8 +12177,8 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:4">
-      <c r="A433" s="7">
+    <row r="433" spans="1:4">
+      <c r="A433" s="9">
         <v>0</v>
       </c>
       <c r="B433" t="s">
@@ -11828,13 +12236,13 @@
       </c>
     </row>
     <row r="438" s="3" customFormat="1" hidden="1" spans="1:2">
-      <c r="A438" s="13"/>
+      <c r="A438" s="14"/>
       <c r="B438" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:4">
-      <c r="A439" s="7">
+    <row r="439" spans="1:4">
+      <c r="A439" s="9">
         <v>0</v>
       </c>
       <c r="B439" t="s">
@@ -11848,7 +12256,7 @@
       </c>
     </row>
     <row r="440" hidden="1" spans="1:4">
-      <c r="A440" s="7">
+      <c r="A440" s="9">
         <v>2</v>
       </c>
       <c r="B440" t="s">
@@ -11905,8 +12313,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:4">
-      <c r="A445" s="7">
+    <row r="445" spans="1:4">
+      <c r="A445" s="9">
         <v>0</v>
       </c>
       <c r="B445" t="s">
@@ -11919,8 +12327,8 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:4">
-      <c r="A446" s="7">
+    <row r="446" spans="1:4">
+      <c r="A446" s="9">
         <v>0</v>
       </c>
       <c r="B446" t="s">
@@ -11956,7 +12364,7 @@
       </c>
     </row>
     <row r="449" hidden="1" spans="1:4">
-      <c r="A449" s="7">
+      <c r="A449" s="9">
         <v>2</v>
       </c>
       <c r="B449" t="s">
@@ -11969,8 +12377,8 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:4">
-      <c r="A450" s="7">
+    <row r="450" spans="1:4">
+      <c r="A450" s="9">
         <v>0</v>
       </c>
       <c r="B450" t="s">
@@ -11995,13 +12403,13 @@
       </c>
     </row>
     <row r="452" s="3" customFormat="1" hidden="1" spans="1:2">
-      <c r="A452" s="13"/>
+      <c r="A452" s="14"/>
       <c r="B452" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:4">
-      <c r="A453" s="7">
+    <row r="453" spans="1:4">
+      <c r="A453" s="9">
         <v>0</v>
       </c>
       <c r="B453" t="s">
@@ -12014,8 +12422,8 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:4">
-      <c r="A454" s="7">
+    <row r="454" spans="1:4">
+      <c r="A454" s="9">
         <v>0</v>
       </c>
       <c r="B454" t="s">
@@ -12029,7 +12437,7 @@
       </c>
     </row>
     <row r="455" hidden="1" spans="1:4">
-      <c r="A455" s="7">
+      <c r="A455" s="9">
         <v>2</v>
       </c>
       <c r="B455" t="s">
@@ -12086,8 +12494,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:4">
-      <c r="A460" s="7">
+    <row r="460" spans="1:4">
+      <c r="A460" s="9">
         <v>0</v>
       </c>
       <c r="B460" t="s">
@@ -12111,8 +12519,8 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:4">
-      <c r="A462" s="7">
+    <row r="462" spans="1:4">
+      <c r="A462" s="9">
         <v>0</v>
       </c>
       <c r="B462" t="s">
@@ -12137,7 +12545,7 @@
       </c>
     </row>
     <row r="464" hidden="1" spans="1:4">
-      <c r="A464" s="7">
+      <c r="A464" s="9">
         <v>2</v>
       </c>
       <c r="B464" t="s">
@@ -12162,7 +12570,7 @@
       </c>
     </row>
     <row r="466" s="3" customFormat="1" hidden="1" spans="1:2">
-      <c r="A466" s="13"/>
+      <c r="A466" s="14"/>
       <c r="B466" s="3" t="s">
         <v>1114</v>
       </c>
@@ -12200,8 +12608,8 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:4">
-      <c r="A470" s="7">
+    <row r="470" spans="1:4">
+      <c r="A470" s="9">
         <v>0</v>
       </c>
       <c r="B470" t="s">
@@ -12226,7 +12634,7 @@
       </c>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="7">
+      <c r="A472" s="9">
         <v>1</v>
       </c>
       <c r="B472" t="s">
@@ -12317,7 +12725,7 @@
       </c>
     </row>
     <row r="480" s="4" customFormat="1" hidden="1" spans="1:2">
-      <c r="A480" s="14"/>
+      <c r="A480" s="15"/>
       <c r="B480" s="4" t="s">
         <v>1147</v>
       </c>
@@ -12345,7 +12753,7 @@
       </c>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="7">
+      <c r="A483" s="9">
         <v>1</v>
       </c>
       <c r="B483" t="s">
@@ -12359,7 +12767,7 @@
       </c>
     </row>
     <row r="484" hidden="1" spans="1:4">
-      <c r="A484" s="7">
+      <c r="A484" s="9">
         <v>2</v>
       </c>
       <c r="B484" t="s">
@@ -12460,8 +12868,8 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:4">
-      <c r="A493" s="7">
+    <row r="493" spans="1:4">
+      <c r="A493" s="9">
         <v>0</v>
       </c>
       <c r="B493" t="s">
@@ -12475,7 +12883,7 @@
       </c>
     </row>
     <row r="494" s="4" customFormat="1" hidden="1" spans="1:2">
-      <c r="A494" s="14"/>
+      <c r="A494" s="15"/>
       <c r="B494" s="4" t="s">
         <v>1176</v>
       </c>
@@ -12502,8 +12910,8 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:4">
-      <c r="A497" s="7">
+    <row r="497" spans="1:4">
+      <c r="A497" s="9">
         <v>0</v>
       </c>
       <c r="B497" t="s">
@@ -12593,8 +13001,8 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:4">
-      <c r="A505" s="7">
+    <row r="505" spans="1:4">
+      <c r="A505" s="9">
         <v>0</v>
       </c>
       <c r="B505" t="s">
@@ -12607,8 +13015,8 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:4">
-      <c r="A506" s="7">
+    <row r="506" spans="1:4">
+      <c r="A506" s="9">
         <v>0</v>
       </c>
       <c r="B506" t="s">
@@ -12621,8 +13029,8 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:4">
-      <c r="A507" s="7">
+    <row r="507" spans="1:4">
+      <c r="A507" s="9">
         <v>0</v>
       </c>
       <c r="B507" t="s">
@@ -12636,13 +13044,13 @@
       </c>
     </row>
     <row r="508" s="4" customFormat="1" hidden="1" spans="1:2">
-      <c r="A508" s="14"/>
+      <c r="A508" s="15"/>
       <c r="B508" s="4" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:4">
-      <c r="A509" s="7">
+    <row r="509" spans="1:4">
+      <c r="A509" s="9">
         <v>0</v>
       </c>
       <c r="B509" t="s">
@@ -12666,8 +13074,8 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:4">
-      <c r="A511" s="7">
+    <row r="511" spans="1:4">
+      <c r="A511" s="9">
         <v>0</v>
       </c>
       <c r="B511" t="s">
@@ -12691,8 +13099,8 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:4">
-      <c r="A513" s="7">
+    <row r="513" spans="1:4">
+      <c r="A513" s="9">
         <v>0</v>
       </c>
       <c r="B513" t="s">
@@ -12705,8 +13113,8 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:4">
-      <c r="A514" s="7">
+    <row r="514" spans="1:4">
+      <c r="A514" s="9">
         <v>0</v>
       </c>
       <c r="B514" t="s">
@@ -12742,7 +13150,7 @@
       </c>
     </row>
     <row r="517" hidden="1" spans="1:4">
-      <c r="A517" s="7">
+      <c r="A517" s="9">
         <v>2</v>
       </c>
       <c r="B517" t="s">
@@ -12789,7 +13197,7 @@
       </c>
     </row>
     <row r="521" hidden="1" spans="1:4">
-      <c r="A521" s="7">
+      <c r="A521" s="9">
         <v>2</v>
       </c>
       <c r="B521" t="s">
@@ -12803,7 +13211,7 @@
       </c>
     </row>
     <row r="522" s="4" customFormat="1" hidden="1" spans="1:2">
-      <c r="A522" s="14"/>
+      <c r="A522" s="15"/>
       <c r="B522" s="4" t="s">
         <v>1231</v>
       </c>
@@ -12830,8 +13238,8 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:4">
-      <c r="A525" s="7">
+    <row r="525" spans="1:4">
+      <c r="A525" s="9">
         <v>0</v>
       </c>
       <c r="B525" t="s">
@@ -12900,7 +13308,7 @@
       </c>
     </row>
     <row r="531" hidden="1" spans="1:4">
-      <c r="A531" s="7">
+      <c r="A531" s="9">
         <v>2</v>
       </c>
       <c r="B531" t="s">
@@ -12914,7 +13322,7 @@
       </c>
     </row>
     <row r="532" hidden="1" spans="1:4">
-      <c r="A532" s="7">
+      <c r="A532" s="9">
         <v>2</v>
       </c>
       <c r="B532" t="s">
@@ -12961,7 +13369,7 @@
       </c>
     </row>
     <row r="536" s="4" customFormat="1" hidden="1" spans="1:2">
-      <c r="A536" s="14"/>
+      <c r="A536" s="15"/>
       <c r="B536" s="4" t="s">
         <v>1259</v>
       </c>
@@ -12977,8 +13385,8 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:4">
-      <c r="A538" s="7">
+    <row r="538" spans="1:4">
+      <c r="A538" s="9">
         <v>0</v>
       </c>
       <c r="B538" t="s">
@@ -12991,8 +13399,8 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:4">
-      <c r="A539" s="7">
+    <row r="539" spans="1:4">
+      <c r="A539" s="9">
         <v>0</v>
       </c>
       <c r="B539" t="s">
@@ -13061,7 +13469,7 @@
       </c>
     </row>
     <row r="545" hidden="1" spans="1:4">
-      <c r="A545" s="7">
+      <c r="A545" s="9">
         <v>2</v>
       </c>
       <c r="B545" t="s">
@@ -13086,7 +13494,7 @@
       </c>
     </row>
     <row r="547" s="4" customFormat="1" hidden="1" spans="1:2">
-      <c r="A547" s="14"/>
+      <c r="A547" s="15"/>
       <c r="B547" s="4" t="s">
         <v>1278</v>
       </c>
@@ -13146,8 +13554,8 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="553" hidden="1" spans="1:4">
-      <c r="A553" s="7">
+    <row r="553" spans="1:4">
+      <c r="A553" s="9">
         <v>0</v>
       </c>
       <c r="B553" t="s">
@@ -13161,7 +13569,7 @@
       </c>
     </row>
     <row r="554" hidden="1" spans="1:4">
-      <c r="A554" s="7">
+      <c r="A554" s="9">
         <v>2</v>
       </c>
       <c r="B554" t="s">
@@ -13197,7 +13605,7 @@
       </c>
     </row>
     <row r="557" hidden="1" spans="1:4">
-      <c r="A557" s="7">
+      <c r="A557" s="9">
         <v>2</v>
       </c>
       <c r="B557" t="s">
@@ -13210,8 +13618,8 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:4">
-      <c r="A558" s="7">
+    <row r="558" spans="1:4">
+      <c r="A558" s="9">
         <v>0</v>
       </c>
       <c r="B558" t="s">
@@ -13225,7 +13633,7 @@
       </c>
     </row>
     <row r="559" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A559" s="15"/>
+      <c r="A559" s="16"/>
       <c r="B559" s="5" t="s">
         <v>1306</v>
       </c>
@@ -13252,8 +13660,8 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:4">
-      <c r="A562" s="7">
+    <row r="562" spans="1:4">
+      <c r="A562" s="9">
         <v>0</v>
       </c>
       <c r="B562" t="s">
@@ -13278,7 +13686,7 @@
       </c>
     </row>
     <row r="564" hidden="1" spans="1:4">
-      <c r="A564" s="7">
+      <c r="A564" s="9">
         <v>2</v>
       </c>
       <c r="B564" t="s">
@@ -13292,7 +13700,7 @@
       </c>
     </row>
     <row r="565" hidden="1" spans="1:4">
-      <c r="A565" s="7">
+      <c r="A565" s="9">
         <v>2</v>
       </c>
       <c r="B565" t="s">
@@ -13338,8 +13746,8 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:4">
-      <c r="A569" s="7">
+    <row r="569" spans="1:4">
+      <c r="A569" s="9">
         <v>0</v>
       </c>
       <c r="B569" t="s">
@@ -13353,7 +13761,7 @@
       </c>
     </row>
     <row r="570" hidden="1" spans="1:4">
-      <c r="A570" s="7">
+      <c r="A570" s="9">
         <v>2</v>
       </c>
       <c r="B570" t="s">
@@ -13378,7 +13786,7 @@
       </c>
     </row>
     <row r="572" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A572" s="15"/>
+      <c r="A572" s="16"/>
       <c r="B572" s="5" t="s">
         <v>1338</v>
       </c>
@@ -13494,7 +13902,7 @@
       </c>
     </row>
     <row r="583" hidden="1" spans="1:4">
-      <c r="A583" s="7">
+      <c r="A583" s="9">
         <v>2</v>
       </c>
       <c r="B583" t="s">
@@ -13507,8 +13915,8 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="1:4">
-      <c r="A584" s="7">
+    <row r="584" spans="1:4">
+      <c r="A584" s="9">
         <v>0</v>
       </c>
       <c r="B584" t="s">
@@ -13521,8 +13929,8 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="585" hidden="1" spans="1:4">
-      <c r="A585" s="7">
+    <row r="585" spans="1:4">
+      <c r="A585" s="9">
         <v>0</v>
       </c>
       <c r="B585" t="s">
@@ -13536,7 +13944,7 @@
       </c>
     </row>
     <row r="586" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A586" s="15"/>
+      <c r="A586" s="16"/>
       <c r="B586" s="5" t="s">
         <v>1372</v>
       </c>
@@ -13596,8 +14004,8 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="592" hidden="1" spans="1:4">
-      <c r="A592" s="7">
+    <row r="592" spans="1:4">
+      <c r="A592" s="9">
         <v>0</v>
       </c>
       <c r="B592" t="s">
@@ -13622,7 +14030,7 @@
       </c>
     </row>
     <row r="594" hidden="1" spans="1:4">
-      <c r="A594" s="7">
+      <c r="A594" s="9">
         <v>2</v>
       </c>
       <c r="B594" t="s">
@@ -13691,7 +14099,7 @@
       </c>
     </row>
     <row r="600" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A600" s="15"/>
+      <c r="A600" s="16"/>
       <c r="B600" s="5" t="s">
         <v>1403</v>
       </c>
@@ -13730,7 +14138,7 @@
       </c>
     </row>
     <row r="604" hidden="1" spans="1:4">
-      <c r="A604" s="7">
+      <c r="A604" s="9">
         <v>2</v>
       </c>
       <c r="B604" t="s">
@@ -13744,7 +14152,7 @@
       </c>
     </row>
     <row r="605" hidden="1" spans="1:4">
-      <c r="A605" s="7">
+      <c r="A605" s="9">
         <v>2</v>
       </c>
       <c r="B605" t="s">
@@ -13758,7 +14166,7 @@
       </c>
     </row>
     <row r="606" hidden="1" spans="1:4">
-      <c r="A606" s="7">
+      <c r="A606" s="9">
         <v>2</v>
       </c>
       <c r="B606" t="s">
@@ -13805,7 +14213,7 @@
       </c>
     </row>
     <row r="610" hidden="1" spans="1:4">
-      <c r="A610" s="7">
+      <c r="A610" s="9">
         <v>2</v>
       </c>
       <c r="B610" t="s">
@@ -13841,7 +14249,7 @@
       </c>
     </row>
     <row r="613" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A613" s="15"/>
+      <c r="A613" s="16"/>
       <c r="B613" s="5" t="s">
         <v>1430</v>
       </c>
@@ -13879,8 +14287,8 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="1:4">
-      <c r="A617" s="7">
+    <row r="617" spans="1:4">
+      <c r="A617" s="9">
         <v>0</v>
       </c>
       <c r="B617" t="s">
@@ -13905,7 +14313,7 @@
       </c>
     </row>
     <row r="619" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A619" s="15"/>
+      <c r="A619" s="16"/>
       <c r="B619" s="5" t="s">
         <v>1439</v>
       </c>
@@ -13921,8 +14329,8 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="1:4">
-      <c r="A621" s="7">
+    <row r="621" spans="1:4">
+      <c r="A621" s="9">
         <v>0</v>
       </c>
       <c r="B621" t="s">
@@ -13946,8 +14354,8 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:4">
-      <c r="A623" s="7">
+    <row r="623" spans="1:4">
+      <c r="A623" s="9">
         <v>0</v>
       </c>
       <c r="B623" t="s">
@@ -14004,8 +14412,8 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="1:4">
-      <c r="A628" s="7">
+    <row r="628" spans="1:4">
+      <c r="A628" s="9">
         <v>0</v>
       </c>
       <c r="B628" t="s">
@@ -14052,7 +14460,7 @@
       </c>
     </row>
     <row r="632" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A632" s="15"/>
+      <c r="A632" s="16"/>
       <c r="B632" s="5" t="s">
         <v>1464</v>
       </c>
@@ -14090,8 +14498,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:4">
-      <c r="A636" s="7">
+    <row r="636" spans="1:4">
+      <c r="A636" s="9">
         <v>0</v>
       </c>
       <c r="B636" t="s">
@@ -14116,7 +14524,7 @@
       </c>
     </row>
     <row r="638" hidden="1" spans="1:4">
-      <c r="A638" s="7">
+      <c r="A638" s="9">
         <v>2</v>
       </c>
       <c r="B638" t="s">
@@ -14140,8 +14548,8 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:4">
-      <c r="A640" s="7">
+    <row r="640" spans="1:4">
+      <c r="A640" s="9">
         <v>0</v>
       </c>
       <c r="B640" t="s">
@@ -14166,7 +14574,7 @@
       </c>
     </row>
     <row r="642" hidden="1" spans="1:4">
-      <c r="A642" s="7">
+      <c r="A642" s="9">
         <v>2</v>
       </c>
       <c r="B642" t="s">
@@ -14213,7 +14621,7 @@
       </c>
     </row>
     <row r="646" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A646" s="15"/>
+      <c r="A646" s="16"/>
       <c r="B646" s="5" t="s">
         <v>1491</v>
       </c>
@@ -14285,7 +14693,7 @@
       </c>
     </row>
     <row r="653" hidden="1" spans="1:4">
-      <c r="A653" s="7">
+      <c r="A653" s="9">
         <v>2</v>
       </c>
       <c r="B653" t="s">
@@ -14343,7 +14751,7 @@
       </c>
     </row>
     <row r="658" hidden="1" spans="1:4">
-      <c r="A658" s="7">
+      <c r="A658" s="9">
         <v>2</v>
       </c>
       <c r="B658" t="s">
@@ -14356,8 +14764,8 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="1:4">
-      <c r="A659" s="7">
+    <row r="659" spans="1:4">
+      <c r="A659" s="9">
         <v>0</v>
       </c>
       <c r="B659" t="s">
@@ -14371,7 +14779,7 @@
       </c>
     </row>
     <row r="660" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A660" s="15"/>
+      <c r="A660" s="16"/>
       <c r="B660" s="5" t="s">
         <v>1522</v>
       </c>
@@ -14409,8 +14817,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="1:4">
-      <c r="A664" s="7">
+    <row r="664" spans="1:4">
+      <c r="A664" s="9">
         <v>0</v>
       </c>
       <c r="B664" t="s">
@@ -14423,8 +14831,8 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="665" hidden="1" spans="1:4">
-      <c r="A665" s="7">
+    <row r="665" spans="1:4">
+      <c r="A665" s="9">
         <v>0</v>
       </c>
       <c r="B665" t="s">
@@ -14437,8 +14845,8 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="666" hidden="1" spans="1:4">
-      <c r="A666" s="7">
+    <row r="666" spans="1:4">
+      <c r="A666" s="9">
         <v>0</v>
       </c>
       <c r="B666" t="s">
@@ -14484,8 +14892,8 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="670" hidden="1" spans="1:4">
-      <c r="A670" s="7">
+    <row r="670" spans="1:4">
+      <c r="A670" s="9">
         <v>0</v>
       </c>
       <c r="B670" t="s">
@@ -14521,7 +14929,7 @@
       </c>
     </row>
     <row r="673" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A673" s="15"/>
+      <c r="A673" s="16"/>
       <c r="B673" s="5" t="s">
         <v>1549</v>
       </c>
@@ -14538,7 +14946,7 @@
       </c>
     </row>
     <row r="675" hidden="1" spans="1:4">
-      <c r="A675" s="7">
+      <c r="A675" s="9">
         <v>2</v>
       </c>
       <c r="B675" t="s">
@@ -14552,7 +14960,7 @@
       </c>
     </row>
     <row r="676" hidden="1" spans="1:4">
-      <c r="A676" s="7">
+      <c r="A676" s="9">
         <v>2</v>
       </c>
       <c r="B676" t="s">
@@ -14566,7 +14974,7 @@
       </c>
     </row>
     <row r="677" hidden="1" spans="1:4">
-      <c r="A677" s="7">
+      <c r="A677" s="9">
         <v>2</v>
       </c>
       <c r="B677" t="s">
@@ -14580,7 +14988,7 @@
       </c>
     </row>
     <row r="678" hidden="1" spans="1:4">
-      <c r="A678" s="7">
+      <c r="A678" s="9">
         <v>2</v>
       </c>
       <c r="B678" t="s">
@@ -14594,7 +15002,7 @@
       </c>
     </row>
     <row r="679" hidden="1" spans="1:4">
-      <c r="A679" s="7">
+      <c r="A679" s="9">
         <v>2</v>
       </c>
       <c r="B679" t="s">
@@ -14685,7 +15093,7 @@
       </c>
     </row>
     <row r="687" s="5" customFormat="1" hidden="1" spans="1:2">
-      <c r="A687" s="15"/>
+      <c r="A687" s="16"/>
       <c r="B687" s="5" t="s">
         <v>1584</v>
       </c>
@@ -14702,7 +15110,7 @@
       </c>
     </row>
     <row r="689" hidden="1" spans="1:4">
-      <c r="A689" s="7">
+      <c r="A689" s="9">
         <v>2</v>
       </c>
       <c r="B689" t="s">
@@ -14716,7 +15124,7 @@
       </c>
     </row>
     <row r="690" hidden="1" spans="1:4">
-      <c r="A690" s="7">
+      <c r="A690" s="9">
         <v>2</v>
       </c>
       <c r="B690" t="s">
@@ -14730,7 +15138,7 @@
       </c>
     </row>
     <row r="691" hidden="1" spans="1:4">
-      <c r="A691" s="7">
+      <c r="A691" s="9">
         <v>2</v>
       </c>
       <c r="B691" t="s">
@@ -14755,7 +15163,7 @@
       </c>
     </row>
     <row r="693" hidden="1" spans="1:4">
-      <c r="A693" s="7">
+      <c r="A693" s="9">
         <v>2</v>
       </c>
       <c r="B693" t="s">
@@ -14790,8 +15198,8 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="1:4">
-      <c r="A696" s="7">
+    <row r="696" spans="1:4">
+      <c r="A696" s="9">
         <v>0</v>
       </c>
       <c r="B696" t="s">
@@ -14827,7 +15235,7 @@
       </c>
     </row>
     <row r="699" hidden="1" spans="1:4">
-      <c r="A699" s="7">
+      <c r="A699" s="9">
         <v>2</v>
       </c>
       <c r="B699" t="s">
@@ -14840,8 +15248,8 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="700" hidden="1" spans="1:4">
-      <c r="A700" s="7">
+    <row r="700" spans="1:4">
+      <c r="A700" s="9">
         <v>0</v>
       </c>
       <c r="B700" t="s">
@@ -14854,8 +15262,8 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="701" s="6" customFormat="1" spans="1:2">
-      <c r="A701" s="16">
+    <row r="701" s="6" customFormat="1" hidden="1" spans="1:2">
+      <c r="A701" s="17">
         <v>9</v>
       </c>
       <c r="B701" s="6" t="s">
@@ -14973,7 +15381,7 @@
       </c>
     </row>
     <row r="712" spans="1:4">
-      <c r="A712" s="7">
+      <c r="A712" s="9">
         <v>1</v>
       </c>
       <c r="B712" t="s">
@@ -15008,8 +15416,8 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="715" s="6" customFormat="1" spans="1:2">
-      <c r="A715" s="16">
+    <row r="715" s="6" customFormat="1" hidden="1" spans="1:2">
+      <c r="A715" s="17">
         <v>9</v>
       </c>
       <c r="B715" s="6" t="s">
@@ -15017,7 +15425,7 @@
       </c>
     </row>
     <row r="716" spans="1:4">
-      <c r="A716" s="7">
+      <c r="A716" s="9">
         <v>1</v>
       </c>
       <c r="B716" t="s">
@@ -15031,7 +15439,7 @@
       </c>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="7">
+      <c r="A717" s="9">
         <v>1</v>
       </c>
       <c r="B717" t="s">
@@ -15155,7 +15563,7 @@
       </c>
     </row>
     <row r="728" spans="1:4">
-      <c r="A728" s="7">
+      <c r="A728" s="9">
         <v>1</v>
       </c>
       <c r="B728" t="s">
@@ -15169,7 +15577,7 @@
       </c>
     </row>
     <row r="729" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A729" s="16"/>
+      <c r="A729" s="17"/>
       <c r="B729" s="6" t="s">
         <v>1668</v>
       </c>
@@ -15186,7 +15594,7 @@
       </c>
     </row>
     <row r="731" spans="1:4">
-      <c r="A731" s="7">
+      <c r="A731" s="9">
         <v>1</v>
       </c>
       <c r="B731" t="s">
@@ -15200,7 +15608,7 @@
       </c>
     </row>
     <row r="732" spans="1:4">
-      <c r="A732" s="7">
+      <c r="A732" s="9">
         <v>1</v>
       </c>
       <c r="B732" t="s">
@@ -15302,7 +15710,7 @@
       </c>
     </row>
     <row r="741" spans="1:4">
-      <c r="A741" s="7">
+      <c r="A741" s="9">
         <v>1</v>
       </c>
       <c r="B741" t="s">
@@ -15316,7 +15724,7 @@
       </c>
     </row>
     <row r="742" spans="1:4">
-      <c r="A742" s="7">
+      <c r="A742" s="9">
         <v>1</v>
       </c>
       <c r="B742" t="s">
@@ -15330,7 +15738,7 @@
       </c>
     </row>
     <row r="743" spans="1:4">
-      <c r="A743" s="7">
+      <c r="A743" s="9">
         <v>1</v>
       </c>
       <c r="B743" t="s">
@@ -15344,13 +15752,13 @@
       </c>
     </row>
     <row r="744" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A744" s="16"/>
+      <c r="A744" s="17"/>
       <c r="B744" s="6" t="s">
         <v>1702</v>
       </c>
     </row>
     <row r="745" spans="1:4">
-      <c r="A745" s="7">
+      <c r="A745" s="9">
         <v>1</v>
       </c>
       <c r="B745" t="s">
@@ -15375,7 +15783,7 @@
       </c>
     </row>
     <row r="747" spans="1:4">
-      <c r="A747" s="7">
+      <c r="A747" s="9">
         <v>1</v>
       </c>
       <c r="B747" t="s">
@@ -15389,7 +15797,7 @@
       </c>
     </row>
     <row r="748" spans="1:4">
-      <c r="A748" s="7">
+      <c r="A748" s="9">
         <v>1</v>
       </c>
       <c r="B748" t="s">
@@ -15414,7 +15822,7 @@
       </c>
     </row>
     <row r="750" spans="1:4">
-      <c r="A750" s="7">
+      <c r="A750" s="9">
         <v>1</v>
       </c>
       <c r="B750" t="s">
@@ -15428,7 +15836,7 @@
       </c>
     </row>
     <row r="751" spans="1:4">
-      <c r="A751" s="7">
+      <c r="A751" s="9">
         <v>1</v>
       </c>
       <c r="B751" t="s">
@@ -15442,7 +15850,7 @@
       </c>
     </row>
     <row r="752" spans="1:4">
-      <c r="A752" s="7">
+      <c r="A752" s="9">
         <v>1</v>
       </c>
       <c r="B752" t="s">
@@ -15522,13 +15930,13 @@
       </c>
     </row>
     <row r="759" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A759" s="16"/>
+      <c r="A759" s="17"/>
       <c r="B759" s="6" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="7">
+      <c r="A760" s="9">
         <v>1</v>
       </c>
       <c r="B760" t="s">
@@ -15608,7 +16016,7 @@
       </c>
     </row>
     <row r="767" spans="1:4">
-      <c r="A767" s="7">
+      <c r="A767" s="9">
         <v>1</v>
       </c>
       <c r="B767" t="s">
@@ -15633,7 +16041,7 @@
       </c>
     </row>
     <row r="769" spans="1:4">
-      <c r="A769" s="7">
+      <c r="A769" s="9">
         <v>1</v>
       </c>
       <c r="B769" t="s">
@@ -15647,7 +16055,7 @@
       </c>
     </row>
     <row r="770" spans="1:4">
-      <c r="A770" s="7">
+      <c r="A770" s="9">
         <v>1</v>
       </c>
       <c r="B770" t="s">
@@ -15661,7 +16069,7 @@
       </c>
     </row>
     <row r="771" spans="1:4">
-      <c r="A771" s="7">
+      <c r="A771" s="9">
         <v>1</v>
       </c>
       <c r="B771" t="s">
@@ -15686,13 +16094,13 @@
       </c>
     </row>
     <row r="773" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A773" s="16"/>
+      <c r="A773" s="17"/>
       <c r="B773" s="6" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="774" spans="1:4">
-      <c r="A774" s="7">
+      <c r="A774" s="9">
         <v>1</v>
       </c>
       <c r="B774" t="s">
@@ -15783,7 +16191,7 @@
       </c>
     </row>
     <row r="782" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A782" s="16"/>
+      <c r="A782" s="17"/>
       <c r="B782" s="6" t="s">
         <v>1780</v>
       </c>
@@ -15910,7 +16318,7 @@
       </c>
     </row>
     <row r="794" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A794" s="16"/>
+      <c r="A794" s="17"/>
       <c r="B794" s="6" t="s">
         <v>1800</v>
       </c>
@@ -15927,7 +16335,7 @@
       </c>
     </row>
     <row r="796" spans="1:4">
-      <c r="A796" s="7">
+      <c r="A796" s="9">
         <v>1</v>
       </c>
       <c r="B796" t="s">
@@ -15941,7 +16349,7 @@
       </c>
     </row>
     <row r="797" spans="1:4">
-      <c r="A797" s="7">
+      <c r="A797" s="9">
         <v>1</v>
       </c>
       <c r="B797" t="s">
@@ -16065,7 +16473,7 @@
       </c>
     </row>
     <row r="808" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A808" s="16"/>
+      <c r="A808" s="17"/>
       <c r="B808" s="6" t="s">
         <v>1831</v>
       </c>
@@ -16082,7 +16490,7 @@
       </c>
     </row>
     <row r="810" spans="1:4">
-      <c r="A810" s="7">
+      <c r="A810" s="9">
         <v>1</v>
       </c>
       <c r="B810" t="s">
@@ -16140,7 +16548,7 @@
       </c>
     </row>
     <row r="815" s="6" customFormat="1" hidden="1" spans="1:2">
-      <c r="A815" s="16"/>
+      <c r="A815" s="17"/>
       <c r="B815" s="6" t="s">
         <v>1850</v>
       </c>
@@ -16190,7 +16598,7 @@
       </c>
     </row>
     <row r="820" spans="1:4">
-      <c r="A820" s="7">
+      <c r="A820" s="9">
         <v>1</v>
       </c>
       <c r="B820" t="s">
@@ -16204,7 +16612,7 @@
       </c>
     </row>
     <row r="821" spans="1:4">
-      <c r="A821" s="7">
+      <c r="A821" s="9">
         <v>1</v>
       </c>
       <c r="B821" t="s">
@@ -16218,7 +16626,7 @@
       </c>
     </row>
     <row r="822" spans="1:4">
-      <c r="A822" s="7">
+      <c r="A822" s="9">
         <v>1</v>
       </c>
       <c r="B822" t="s">
@@ -16232,7 +16640,7 @@
       </c>
     </row>
     <row r="823" spans="1:4">
-      <c r="A823" s="7">
+      <c r="A823" s="9">
         <v>1</v>
       </c>
       <c r="B823" t="s">
@@ -16246,7 +16654,7 @@
       </c>
     </row>
     <row r="824" spans="1:4">
-      <c r="A824" s="7">
+      <c r="A824" s="9">
         <v>1</v>
       </c>
       <c r="B824" t="s">
@@ -16260,7 +16668,7 @@
       </c>
     </row>
     <row r="825" spans="1:4">
-      <c r="A825" s="7">
+      <c r="A825" s="9">
         <v>1</v>
       </c>
       <c r="B825" t="s">
@@ -16284,12 +16692,690 @@
         <v>1876</v>
       </c>
     </row>
+    <row r="827" s="7" customFormat="1" hidden="1" spans="1:2">
+      <c r="A827" s="10"/>
+      <c r="B827" s="7" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="828" s="8" customFormat="1" spans="1:4">
+      <c r="A828" s="18">
+        <v>1</v>
+      </c>
+      <c r="B828" s="8" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C828" s="8" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D828" s="8" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4">
+      <c r="A829" s="9">
+        <v>0</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4">
+      <c r="A830" s="9">
+        <v>0</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="831" s="8" customFormat="1" spans="1:4">
+      <c r="A831" s="18">
+        <v>1</v>
+      </c>
+      <c r="B831" s="8" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C831" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D831" s="8" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4">
+      <c r="A832" s="9">
+        <v>0</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="833" s="8" customFormat="1" spans="1:4">
+      <c r="A833" s="18">
+        <v>1</v>
+      </c>
+      <c r="B833" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C833" s="8" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D833" s="8" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4">
+      <c r="A834" s="9">
+        <v>0</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4">
+      <c r="A835" s="9">
+        <v>0</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4">
+      <c r="A836" s="9">
+        <v>0</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="837" s="8" customFormat="1" spans="1:4">
+      <c r="A837" s="18">
+        <v>1</v>
+      </c>
+      <c r="B837" s="8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C837" s="8" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D837" s="8" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4">
+      <c r="A838" s="9">
+        <v>0</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="839" s="8" customFormat="1" spans="1:4">
+      <c r="A839" s="18">
+        <v>1</v>
+      </c>
+      <c r="B839" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C839" s="8" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D839" s="8" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="840" s="8" customFormat="1" spans="1:4">
+      <c r="A840" s="18">
+        <v>1</v>
+      </c>
+      <c r="B840" s="8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C840" s="8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D840" s="8" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="841" s="8" customFormat="1" spans="1:4">
+      <c r="A841" s="18">
+        <v>1</v>
+      </c>
+      <c r="B841" s="8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C841" s="8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D841" s="8" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="842" s="8" customFormat="1" spans="1:4">
+      <c r="A842" s="18">
+        <v>1</v>
+      </c>
+      <c r="B842" s="8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C842" s="8" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D842" s="8" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4">
+      <c r="A843" s="9">
+        <v>0</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="844" s="8" customFormat="1" spans="1:4">
+      <c r="A844" s="18">
+        <v>1</v>
+      </c>
+      <c r="B844" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C844" s="8" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D844" s="8" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4">
+      <c r="A845" s="9">
+        <v>0</v>
+      </c>
+      <c r="B845" t="s">
+        <v>386</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4">
+      <c r="A846" s="9">
+        <v>0</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4">
+      <c r="A847" s="9">
+        <v>0</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4">
+      <c r="A848" s="9">
+        <v>0</v>
+      </c>
+      <c r="B848" t="s">
+        <v>38</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4">
+      <c r="A849" s="9">
+        <v>0</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="850" s="8" customFormat="1" spans="1:4">
+      <c r="A850" s="18">
+        <v>1</v>
+      </c>
+      <c r="B850" s="8" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C850" s="8" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D850" s="8" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="851" s="8" customFormat="1" spans="1:4">
+      <c r="A851" s="18">
+        <v>1</v>
+      </c>
+      <c r="B851" s="8" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C851" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D851" s="8" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="852" s="8" customFormat="1" spans="1:4">
+      <c r="A852" s="18">
+        <v>1</v>
+      </c>
+      <c r="B852" s="8" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C852" s="8" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D852" s="8" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4">
+      <c r="A853" s="9">
+        <v>0</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C853" t="s">
+        <v>296</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="854" s="8" customFormat="1" spans="1:4">
+      <c r="A854" s="18">
+        <v>1</v>
+      </c>
+      <c r="B854" s="8" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C854" s="8" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D854" s="8" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4">
+      <c r="A855" s="9">
+        <v>0</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4">
+      <c r="A856" s="9">
+        <v>0</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4">
+      <c r="A857" s="9">
+        <v>0</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="858" s="8" customFormat="1" spans="1:4">
+      <c r="A858" s="18">
+        <v>1</v>
+      </c>
+      <c r="B858" s="8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C858" s="8" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D858" s="8" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="859" s="8" customFormat="1" spans="1:4">
+      <c r="A859" s="18">
+        <v>1</v>
+      </c>
+      <c r="B859" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C859" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D859" s="8" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="860" s="8" customFormat="1" spans="1:4">
+      <c r="A860" s="18">
+        <v>1</v>
+      </c>
+      <c r="B860" s="8" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C860" s="8" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D860" s="8" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4">
+      <c r="A861" s="9">
+        <v>0</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="862" s="8" customFormat="1" spans="1:4">
+      <c r="A862" s="18">
+        <v>1</v>
+      </c>
+      <c r="B862" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C862" s="8" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D862" s="8" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4">
+      <c r="A863" s="9">
+        <v>0</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4">
+      <c r="A864" s="9">
+        <v>0</v>
+      </c>
+      <c r="B864" t="s">
+        <v>688</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="865" s="8" customFormat="1" spans="1:4">
+      <c r="A865" s="18">
+        <v>1</v>
+      </c>
+      <c r="B865" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C865" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D865" s="8" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4">
+      <c r="A866" s="9">
+        <v>0</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="867" s="8" customFormat="1" spans="1:4">
+      <c r="A867" s="18">
+        <v>1</v>
+      </c>
+      <c r="B867" s="8" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C867" s="8" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D867" s="8" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4">
+      <c r="A868" s="9">
+        <v>0</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4">
+      <c r="A869" s="9">
+        <v>0</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4">
+      <c r="A870" s="9">
+        <v>0</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4">
+      <c r="A871" s="9">
+        <v>0</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="872" s="8" customFormat="1" spans="1:4">
+      <c r="A872" s="18">
+        <v>1</v>
+      </c>
+      <c r="B872" s="8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C872" s="8" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D872" s="8" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4">
+      <c r="A873" s="9">
+        <v>0</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C873" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D873" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="874" s="8" customFormat="1" spans="1:4">
+      <c r="A874" s="18">
+        <v>1</v>
+      </c>
+      <c r="B874" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C874" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="D874" s="8" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4">
+      <c r="A875" s="9">
+        <v>0</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C875" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D875" t="s">
+        <v>2008</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A826">
+  <autoFilter ref="A1:A875">
     <filterColumn colId="0">
       <customFilters>
+        <customFilter operator="equal" val="0"/>
         <customFilter operator="equal" val="1"/>
-        <customFilter operator="equal" val="9"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/wordsforclass.xlsx
+++ b/wordsforclass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220"/>
+    <workbookView windowWidth="16460" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048">
   <si>
     <t>标记</t>
   </si>
@@ -6044,6 +6044,123 @@
   </si>
   <si>
     <t>文雅的</t>
+  </si>
+  <si>
+    <t>121-127</t>
+  </si>
+  <si>
+    <t>vagary</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>n. 难以预测的变化</t>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>a. 多才多艺的</t>
+  </si>
+  <si>
+    <t>vial</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>n. 小瓶</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
+    <t>vivid</t>
+  </si>
+  <si>
+    <t>a. 生机勃勃的</t>
+  </si>
+  <si>
+    <t>virtually</t>
+  </si>
+  <si>
+    <t>ad. 事实上地</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>ad. 差不多</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>open to break</t>
+  </si>
+  <si>
+    <t>a. 易受伤害的</t>
+  </si>
+  <si>
+    <t>wanting</t>
+  </si>
+  <si>
+    <t>a. 不够好的 不充分的</t>
+  </si>
+  <si>
+    <t>warrant</t>
+  </si>
+  <si>
+    <t>authorize</t>
+  </si>
+  <si>
+    <t>授权</t>
+  </si>
+  <si>
+    <t>使正当</t>
+  </si>
+  <si>
+    <t>wary</t>
+  </si>
+  <si>
+    <t>cautious</t>
+  </si>
+  <si>
+    <t>a. 小心的 谨慎的</t>
+  </si>
+  <si>
+    <t>whereby</t>
+  </si>
+  <si>
+    <t>through a process in which</t>
+  </si>
+  <si>
+    <t>凭借</t>
+  </si>
+  <si>
+    <t>wield</t>
+  </si>
+  <si>
+    <t>exert</t>
+  </si>
+  <si>
+    <t>行使</t>
+  </si>
+  <si>
+    <t>yearning</t>
+  </si>
+  <si>
+    <t>longing</t>
+  </si>
+  <si>
+    <t>思念的 渴望的</t>
+  </si>
+  <si>
+    <t>zenith</t>
+  </si>
+  <si>
+    <t>顶点</t>
   </si>
 </sst>
 </file>
@@ -7083,11 +7200,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E875"/>
+  <sheetPr/>
+  <dimension ref="A1:E891"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="D842" sqref="D842"/>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" topLeftCell="B868" workbookViewId="0">
+      <selection activeCell="D891" sqref="D891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
@@ -7157,7 +7274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="2:4">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -7168,7 +7285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="2:4">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -7179,7 +7296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="2:4">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -7190,7 +7307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="2:4">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -7215,7 +7332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -7243,7 +7360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="2:4">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -7268,7 +7385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="2:4">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -7293,7 +7410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="2:4">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -7318,7 +7435,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="2:4">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -7329,7 +7446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="2:4">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -7368,7 +7485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="2:4">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>50</v>
       </c>
@@ -7421,7 +7538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="2:4">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>61</v>
       </c>
@@ -7432,7 +7549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="2:4">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>64</v>
       </c>
@@ -7457,7 +7574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="2:4">
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>68</v>
       </c>
@@ -7468,7 +7585,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="2:4">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>71</v>
       </c>
@@ -7479,7 +7596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="2:4">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -7490,7 +7607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="2:4">
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -7501,7 +7618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="2:4">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -7512,7 +7629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="2:4">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -7523,7 +7640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="2:4">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>85</v>
       </c>
@@ -7534,7 +7651,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="2:4">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>88</v>
       </c>
@@ -7559,7 +7676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="2:4">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>92</v>
       </c>
@@ -7570,7 +7687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="2:4">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>92</v>
       </c>
@@ -7595,7 +7712,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="2:4">
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -7662,7 +7779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="2:4">
+    <row r="46" spans="2:4">
       <c r="B46" t="s">
         <v>112</v>
       </c>
@@ -7673,7 +7790,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="2:4">
+    <row r="47" spans="2:4">
       <c r="B47" t="s">
         <v>115</v>
       </c>
@@ -7740,7 +7857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" s="10">
         <v>9</v>
       </c>
@@ -7754,7 +7871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="2:4">
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>127</v>
       </c>
@@ -7765,7 +7882,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="2:4">
+    <row r="54" spans="2:4">
       <c r="B54" t="s">
         <v>127</v>
       </c>
@@ -7776,7 +7893,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="2:4">
+    <row r="55" spans="2:4">
       <c r="B55" t="s">
         <v>127</v>
       </c>
@@ -7787,7 +7904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="2:4">
+    <row r="56" spans="2:4">
       <c r="B56" t="s">
         <v>133</v>
       </c>
@@ -7798,7 +7915,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="2:4">
+    <row r="57" spans="2:4">
       <c r="B57" t="s">
         <v>136</v>
       </c>
@@ -7809,7 +7926,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="2:4">
+    <row r="58" spans="2:4">
       <c r="B58" t="s">
         <v>136</v>
       </c>
@@ -7820,7 +7937,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59" s="10">
         <v>9</v>
       </c>
@@ -7904,7 +8021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="2:4">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>157</v>
       </c>
@@ -7915,7 +8032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="2:4">
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>160</v>
       </c>
@@ -7940,7 +8057,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" s="10">
         <v>9</v>
       </c>
@@ -7968,7 +8085,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="2:4">
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>35</v>
       </c>
@@ -7993,7 +8110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="2:4">
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>175</v>
       </c>
@@ -8018,7 +8135,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:4">
+    <row r="74" spans="1:4">
       <c r="A74" s="10">
         <v>9</v>
       </c>
@@ -8046,7 +8163,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="2:4">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>183</v>
       </c>
@@ -8099,7 +8216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="2:4">
+    <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>195</v>
       </c>
@@ -8110,7 +8227,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="2:4">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>198</v>
       </c>
@@ -8135,7 +8252,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="2:4">
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>204</v>
       </c>
@@ -8188,7 +8305,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="2:4">
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>214</v>
       </c>
@@ -8325,7 +8442,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:4">
+    <row r="97" spans="1:4">
       <c r="A97" s="10">
         <v>9</v>
       </c>
@@ -8367,7 +8484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="2:4">
+    <row r="100" spans="2:4">
       <c r="B100" t="s">
         <v>244</v>
       </c>
@@ -8378,7 +8495,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="2:4">
+    <row r="101" spans="2:4">
       <c r="B101" t="s">
         <v>247</v>
       </c>
@@ -8389,7 +8506,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
+    <row r="102" spans="1:4">
       <c r="A102" s="10">
         <v>9</v>
       </c>
@@ -8431,7 +8548,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:4">
+    <row r="105" spans="1:4">
       <c r="A105" s="10">
         <v>9</v>
       </c>
@@ -8487,7 +8604,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="2:4">
+    <row r="109" spans="2:4">
       <c r="B109" t="s">
         <v>267</v>
       </c>
@@ -8596,7 +8713,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="2:4">
+    <row r="117" spans="2:4">
       <c r="B117" t="s">
         <v>289</v>
       </c>
@@ -8607,7 +8724,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="2:4">
+    <row r="118" spans="2:4">
       <c r="B118" t="s">
         <v>292</v>
       </c>
@@ -8618,7 +8735,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="2:4">
+    <row r="119" spans="2:4">
       <c r="B119" t="s">
         <v>295</v>
       </c>
@@ -8657,7 +8774,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:4">
+    <row r="122" spans="1:4">
       <c r="A122" s="10">
         <v>9</v>
       </c>
@@ -8685,7 +8802,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="2:4">
+    <row r="124" spans="2:4">
       <c r="B124" t="s">
         <v>128</v>
       </c>
@@ -8738,7 +8855,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:4">
+    <row r="128" spans="1:4">
       <c r="A128" s="10">
         <v>9</v>
       </c>
@@ -8836,7 +8953,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="2:4">
+    <row r="135" spans="2:4">
       <c r="B135" t="s">
         <v>334</v>
       </c>
@@ -8847,7 +8964,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="2:4">
+    <row r="136" spans="2:4">
       <c r="B136" t="s">
         <v>337</v>
       </c>
@@ -8858,7 +8975,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="2:4">
+    <row r="137" spans="2:4">
       <c r="B137" t="s">
         <v>337</v>
       </c>
@@ -8897,7 +9014,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="2:4">
+    <row r="140" spans="2:4">
       <c r="B140" t="s">
         <v>346</v>
       </c>
@@ -9048,7 +9165,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="2:4">
+    <row r="151" spans="2:4">
       <c r="B151" t="s">
         <v>374</v>
       </c>
@@ -9059,7 +9176,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:4">
+    <row r="152" spans="1:4">
       <c r="A152" s="10">
         <v>9</v>
       </c>
@@ -9073,7 +9190,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:4">
+    <row r="153" spans="1:4">
       <c r="A153" s="10">
         <v>9</v>
       </c>
@@ -9157,7 +9274,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:4">
+    <row r="159" spans="1:4">
       <c r="A159" s="10">
         <v>9</v>
       </c>
@@ -9171,7 +9288,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:4">
+    <row r="160" spans="1:4">
       <c r="A160" s="10">
         <v>9</v>
       </c>
@@ -9185,7 +9302,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="2:4">
+    <row r="161" spans="2:4">
       <c r="B161" t="s">
         <v>398</v>
       </c>
@@ -9196,7 +9313,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="2:4">
+    <row r="162" spans="2:4">
       <c r="B162" t="s">
         <v>401</v>
       </c>
@@ -9207,7 +9324,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="2:4">
+    <row r="163" spans="2:4">
       <c r="B163" t="s">
         <v>404</v>
       </c>
@@ -9218,7 +9335,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="2:4">
+    <row r="164" spans="2:4">
       <c r="B164" t="s">
         <v>407</v>
       </c>
@@ -9229,7 +9346,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="2:4">
+    <row r="165" spans="2:4">
       <c r="B165" t="s">
         <v>407</v>
       </c>
@@ -9254,7 +9371,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:4">
+    <row r="167" spans="1:4">
       <c r="A167" s="10">
         <v>9</v>
       </c>
@@ -9366,7 +9483,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="2:4">
+    <row r="175" spans="2:4">
       <c r="B175" s="11" t="s">
         <v>428</v>
       </c>
@@ -9377,7 +9494,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="2:4">
+    <row r="176" spans="2:4">
       <c r="B176" s="11" t="s">
         <v>428</v>
       </c>
@@ -9388,7 +9505,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="2:4">
+    <row r="177" spans="2:4">
       <c r="B177" s="11" t="s">
         <v>428</v>
       </c>
@@ -9399,7 +9516,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="2:4">
+    <row r="178" spans="2:4">
       <c r="B178" s="11" t="s">
         <v>428</v>
       </c>
@@ -9410,7 +9527,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="2:4">
+    <row r="179" spans="2:4">
       <c r="B179" t="s">
         <v>434</v>
       </c>
@@ -9421,7 +9538,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="2:4">
+    <row r="180" spans="2:4">
       <c r="B180" t="s">
         <v>437</v>
       </c>
@@ -9432,7 +9549,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="2:4">
+    <row r="181" spans="2:4">
       <c r="B181" t="s">
         <v>440</v>
       </c>
@@ -9443,7 +9560,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="2:4">
+    <row r="182" spans="2:4">
       <c r="B182" t="s">
         <v>443</v>
       </c>
@@ -9454,7 +9571,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="2:4">
+    <row r="183" spans="2:4">
       <c r="B183" t="s">
         <v>446</v>
       </c>
@@ -9465,7 +9582,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="2:4">
+    <row r="184" spans="2:4">
       <c r="B184" t="s">
         <v>449</v>
       </c>
@@ -9476,7 +9593,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="2:4">
+    <row r="185" spans="2:4">
       <c r="B185" t="s">
         <v>449</v>
       </c>
@@ -9487,7 +9604,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="2:4">
+    <row r="186" spans="2:4">
       <c r="B186" t="s">
         <v>449</v>
       </c>
@@ -9498,7 +9615,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="2:4">
+    <row r="187" spans="2:4">
       <c r="B187" t="s">
         <v>454</v>
       </c>
@@ -9509,7 +9626,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="2:4">
+    <row r="188" spans="2:4">
       <c r="B188" t="s">
         <v>457</v>
       </c>
@@ -9520,7 +9637,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="2:4">
+    <row r="189" spans="2:4">
       <c r="B189" t="s">
         <v>460</v>
       </c>
@@ -9531,7 +9648,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="2:4">
+    <row r="190" spans="2:4">
       <c r="B190" t="s">
         <v>462</v>
       </c>
@@ -9542,7 +9659,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="2:4">
+    <row r="191" spans="2:4">
       <c r="B191" t="s">
         <v>465</v>
       </c>
@@ -9553,7 +9670,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="2:4">
+    <row r="192" spans="2:4">
       <c r="B192" t="s">
         <v>468</v>
       </c>
@@ -9564,7 +9681,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="2:4">
+    <row r="193" spans="2:4">
       <c r="B193" t="s">
         <v>468</v>
       </c>
@@ -9575,7 +9692,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="2:4">
+    <row r="194" spans="2:4">
       <c r="B194" t="s">
         <v>468</v>
       </c>
@@ -9586,7 +9703,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="2:4">
+    <row r="195" spans="2:4">
       <c r="B195" t="s">
         <v>468</v>
       </c>
@@ -9597,7 +9714,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="2:4">
+    <row r="196" spans="2:4">
       <c r="B196" t="s">
         <v>474</v>
       </c>
@@ -9608,7 +9725,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="2:4">
+    <row r="197" spans="2:4">
       <c r="B197" t="s">
         <v>477</v>
       </c>
@@ -9619,7 +9736,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="2:4">
+    <row r="198" spans="2:4">
       <c r="B198" t="s">
         <v>480</v>
       </c>
@@ -9630,7 +9747,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="2:4">
+    <row r="199" spans="2:4">
       <c r="B199" t="s">
         <v>483</v>
       </c>
@@ -9641,7 +9758,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="2:4">
+    <row r="200" spans="2:4">
       <c r="B200" t="s">
         <v>483</v>
       </c>
@@ -9652,7 +9769,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="2:4">
+    <row r="201" spans="2:4">
       <c r="B201" t="s">
         <v>486</v>
       </c>
@@ -9663,7 +9780,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="2:4">
+    <row r="202" spans="2:4">
       <c r="B202" t="s">
         <v>489</v>
       </c>
@@ -9674,7 +9791,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="2:4">
+    <row r="203" spans="2:4">
       <c r="B203" t="s">
         <v>489</v>
       </c>
@@ -9685,7 +9802,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="2:4">
+    <row r="204" spans="2:4">
       <c r="B204" t="s">
         <v>492</v>
       </c>
@@ -9696,7 +9813,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="2:4">
+    <row r="205" spans="2:4">
       <c r="B205" t="s">
         <v>495</v>
       </c>
@@ -9707,7 +9824,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="2:4">
+    <row r="206" spans="2:4">
       <c r="B206" t="s">
         <v>498</v>
       </c>
@@ -9718,7 +9835,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="2:4">
+    <row r="207" spans="2:4">
       <c r="B207" t="s">
         <v>501</v>
       </c>
@@ -9729,7 +9846,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="2:4">
+    <row r="208" spans="2:4">
       <c r="B208" t="s">
         <v>504</v>
       </c>
@@ -9740,7 +9857,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="2:4">
+    <row r="209" spans="2:4">
       <c r="B209" t="s">
         <v>507</v>
       </c>
@@ -9751,7 +9868,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="2:4">
+    <row r="210" spans="2:4">
       <c r="B210" t="s">
         <v>507</v>
       </c>
@@ -9762,7 +9879,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="2:4">
+    <row r="211" spans="2:4">
       <c r="B211" t="s">
         <v>65</v>
       </c>
@@ -9773,7 +9890,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="2:4">
+    <row r="212" spans="2:4">
       <c r="B212" t="s">
         <v>514</v>
       </c>
@@ -9784,7 +9901,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="2:4">
+    <row r="213" spans="2:4">
       <c r="B213" t="s">
         <v>517</v>
       </c>
@@ -9795,7 +9912,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="2:4">
+    <row r="214" spans="2:4">
       <c r="B214" t="s">
         <v>519</v>
       </c>
@@ -9806,7 +9923,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="2:4">
+    <row r="215" spans="2:4">
       <c r="B215" t="s">
         <v>522</v>
       </c>
@@ -9817,7 +9934,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="2:4">
+    <row r="216" spans="2:4">
       <c r="B216" t="s">
         <v>522</v>
       </c>
@@ -9828,7 +9945,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="2:4">
+    <row r="217" spans="2:4">
       <c r="B217" t="s">
         <v>526</v>
       </c>
@@ -9839,7 +9956,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="2:4">
+    <row r="218" spans="2:4">
       <c r="B218" t="s">
         <v>529</v>
       </c>
@@ -9850,7 +9967,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="2:4">
+    <row r="219" spans="2:4">
       <c r="B219" t="s">
         <v>532</v>
       </c>
@@ -9861,7 +9978,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="2:4">
+    <row r="220" spans="2:4">
       <c r="B220" t="s">
         <v>535</v>
       </c>
@@ -9872,7 +9989,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="2:4">
+    <row r="221" spans="2:4">
       <c r="B221" t="s">
         <v>538</v>
       </c>
@@ -9883,7 +10000,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="2:4">
+    <row r="222" spans="2:4">
       <c r="B222" t="s">
         <v>541</v>
       </c>
@@ -9894,7 +10011,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="2:4">
+    <row r="223" spans="2:4">
       <c r="B223" t="s">
         <v>544</v>
       </c>
@@ -9905,7 +10022,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="2:4">
+    <row r="224" spans="2:4">
       <c r="B224" t="s">
         <v>544</v>
       </c>
@@ -9916,7 +10033,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="2:4">
+    <row r="225" spans="2:4">
       <c r="B225" t="s">
         <v>549</v>
       </c>
@@ -9927,7 +10044,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="2:4">
+    <row r="226" spans="2:4">
       <c r="B226" t="s">
         <v>552</v>
       </c>
@@ -9938,7 +10055,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="2:4">
+    <row r="227" spans="2:4">
       <c r="B227" t="s">
         <v>552</v>
       </c>
@@ -9949,7 +10066,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="2:4">
+    <row r="228" spans="2:4">
       <c r="B228" t="s">
         <v>557</v>
       </c>
@@ -9960,7 +10077,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="2:4">
+    <row r="229" spans="2:4">
       <c r="B229" t="s">
         <v>557</v>
       </c>
@@ -9971,7 +10088,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="2:4">
+    <row r="230" spans="2:4">
       <c r="B230" t="s">
         <v>559</v>
       </c>
@@ -9982,7 +10099,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="2:4">
+    <row r="231" spans="2:4">
       <c r="B231" t="s">
         <v>562</v>
       </c>
@@ -9993,7 +10110,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="2:4">
+    <row r="232" spans="2:4">
       <c r="B232" t="s">
         <v>565</v>
       </c>
@@ -10004,7 +10121,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="2:4">
+    <row r="233" spans="2:4">
       <c r="B233" t="s">
         <v>565</v>
       </c>
@@ -10015,7 +10132,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="2:4">
+    <row r="234" spans="2:4">
       <c r="B234" t="s">
         <v>570</v>
       </c>
@@ -10026,7 +10143,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="2:4">
+    <row r="235" spans="2:4">
       <c r="B235" t="s">
         <v>570</v>
       </c>
@@ -10037,7 +10154,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="2:4">
+    <row r="236" spans="2:4">
       <c r="B236" t="s">
         <v>574</v>
       </c>
@@ -10048,7 +10165,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="2:4">
+    <row r="237" spans="2:4">
       <c r="B237" t="s">
         <v>577</v>
       </c>
@@ -10059,7 +10176,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="2:4">
+    <row r="238" spans="2:4">
       <c r="B238" t="s">
         <v>577</v>
       </c>
@@ -10070,7 +10187,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="2:4">
+    <row r="239" spans="2:4">
       <c r="B239" t="s">
         <v>581</v>
       </c>
@@ -10081,7 +10198,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="2:4">
+    <row r="240" spans="2:4">
       <c r="B240" t="s">
         <v>265</v>
       </c>
@@ -10092,7 +10209,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="2:4">
+    <row r="241" spans="2:4">
       <c r="B241" t="s">
         <v>265</v>
       </c>
@@ -10103,7 +10220,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="2:4">
+    <row r="242" spans="2:4">
       <c r="B242" t="s">
         <v>585</v>
       </c>
@@ -10114,7 +10231,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="2:4">
+    <row r="243" spans="2:4">
       <c r="B243" t="s">
         <v>588</v>
       </c>
@@ -10125,7 +10242,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="2:4">
+    <row r="244" spans="2:4">
       <c r="B244" t="s">
         <v>591</v>
       </c>
@@ -10136,7 +10253,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="2:4">
+    <row r="245" spans="2:4">
       <c r="B245" t="s">
         <v>594</v>
       </c>
@@ -10147,7 +10264,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="2:4">
+    <row r="246" spans="2:4">
       <c r="B246" t="s">
         <v>597</v>
       </c>
@@ -10158,7 +10275,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="2:4">
+    <row r="247" spans="2:4">
       <c r="B247" t="s">
         <v>597</v>
       </c>
@@ -10169,7 +10286,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="2:4">
+    <row r="248" spans="2:4">
       <c r="B248" t="s">
         <v>601</v>
       </c>
@@ -10180,7 +10297,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="2:4">
+    <row r="249" spans="2:4">
       <c r="B249" t="s">
         <v>601</v>
       </c>
@@ -10191,7 +10308,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="2:4">
+    <row r="250" spans="2:4">
       <c r="B250" t="s">
         <v>601</v>
       </c>
@@ -10202,7 +10319,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="2:4">
+    <row r="251" spans="2:4">
       <c r="B251" t="s">
         <v>607</v>
       </c>
@@ -10213,7 +10330,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="2:4">
+    <row r="252" spans="2:4">
       <c r="B252" t="s">
         <v>610</v>
       </c>
@@ -10224,7 +10341,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="2:4">
+    <row r="253" spans="2:4">
       <c r="B253" t="s">
         <v>610</v>
       </c>
@@ -10235,7 +10352,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="2:4">
+    <row r="254" spans="2:4">
       <c r="B254" t="s">
         <v>614</v>
       </c>
@@ -10246,7 +10363,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="2:4">
+    <row r="255" spans="2:4">
       <c r="B255" t="s">
         <v>617</v>
       </c>
@@ -10257,7 +10374,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="2:4">
+    <row r="256" spans="2:4">
       <c r="B256" t="s">
         <v>617</v>
       </c>
@@ -10268,7 +10385,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="2:4">
+    <row r="257" spans="2:4">
       <c r="B257" t="s">
         <v>617</v>
       </c>
@@ -10279,7 +10396,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="2:5">
+    <row r="258" spans="2:5">
       <c r="B258" t="s">
         <v>622</v>
       </c>
@@ -10293,7 +10410,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="2:4">
+    <row r="259" spans="2:4">
       <c r="B259" t="s">
         <v>625</v>
       </c>
@@ -10304,7 +10421,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="2:4">
+    <row r="260" spans="2:4">
       <c r="B260" t="s">
         <v>628</v>
       </c>
@@ -10315,7 +10432,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="2:4">
+    <row r="261" spans="2:4">
       <c r="B261" t="s">
         <v>631</v>
       </c>
@@ -10326,7 +10443,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="2:4">
+    <row r="262" spans="2:4">
       <c r="B262" t="s">
         <v>634</v>
       </c>
@@ -10337,7 +10454,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="2:4">
+    <row r="263" spans="2:4">
       <c r="B263" t="s">
         <v>637</v>
       </c>
@@ -10348,7 +10465,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="2:4">
+    <row r="264" spans="2:4">
       <c r="B264" t="s">
         <v>640</v>
       </c>
@@ -10359,7 +10476,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="2:4">
+    <row r="265" spans="2:4">
       <c r="B265" t="s">
         <v>475</v>
       </c>
@@ -10370,7 +10487,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="2:4">
+    <row r="266" spans="2:4">
       <c r="B266" t="s">
         <v>645</v>
       </c>
@@ -10381,7 +10498,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="2:4">
+    <row r="267" spans="2:4">
       <c r="B267" t="s">
         <v>645</v>
       </c>
@@ -10392,7 +10509,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="2:4">
+    <row r="268" spans="2:4">
       <c r="B268" t="s">
         <v>649</v>
       </c>
@@ -10403,7 +10520,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="2:4">
+    <row r="269" spans="2:4">
       <c r="B269" t="s">
         <v>651</v>
       </c>
@@ -10414,7 +10531,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="2:4">
+    <row r="270" spans="2:4">
       <c r="B270" t="s">
         <v>653</v>
       </c>
@@ -10425,7 +10542,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="2:4">
+    <row r="271" spans="2:4">
       <c r="B271" t="s">
         <v>653</v>
       </c>
@@ -10436,7 +10553,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="2:4">
+    <row r="272" spans="2:4">
       <c r="B272" t="s">
         <v>656</v>
       </c>
@@ -10447,7 +10564,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="2:4">
+    <row r="273" spans="2:4">
       <c r="B273" t="s">
         <v>659</v>
       </c>
@@ -10458,7 +10575,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="2:4">
+    <row r="274" spans="2:4">
       <c r="B274" t="s">
         <v>662</v>
       </c>
@@ -10469,7 +10586,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="2:4">
+    <row r="275" spans="2:4">
       <c r="B275" t="s">
         <v>664</v>
       </c>
@@ -10480,7 +10597,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="2:4">
+    <row r="276" spans="2:4">
       <c r="B276" t="s">
         <v>667</v>
       </c>
@@ -10491,7 +10608,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="2:4">
+    <row r="277" spans="2:4">
       <c r="B277" t="s">
         <v>669</v>
       </c>
@@ -10502,7 +10619,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="2:4">
+    <row r="278" spans="2:4">
       <c r="B278" t="s">
         <v>672</v>
       </c>
@@ -10513,7 +10630,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="2:4">
+    <row r="279" spans="2:4">
       <c r="B279" t="s">
         <v>672</v>
       </c>
@@ -10524,7 +10641,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="2:4">
+    <row r="280" spans="2:4">
       <c r="B280" t="s">
         <v>676</v>
       </c>
@@ -10535,7 +10652,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="2:4">
+    <row r="281" spans="2:4">
       <c r="B281" t="s">
         <v>676</v>
       </c>
@@ -10546,7 +10663,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="2:4">
+    <row r="282" spans="2:4">
       <c r="B282" t="s">
         <v>680</v>
       </c>
@@ -10557,7 +10674,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="2:4">
+    <row r="283" spans="2:4">
       <c r="B283" t="s">
         <v>680</v>
       </c>
@@ -10568,7 +10685,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="2:4">
+    <row r="284" spans="2:4">
       <c r="B284" t="s">
         <v>684</v>
       </c>
@@ -10579,7 +10696,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="2:4">
+    <row r="285" spans="2:4">
       <c r="B285" t="s">
         <v>687</v>
       </c>
@@ -10590,7 +10707,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="2:4">
+    <row r="286" spans="2:4">
       <c r="B286" t="s">
         <v>690</v>
       </c>
@@ -10601,7 +10718,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="2:4">
+    <row r="287" spans="2:4">
       <c r="B287" t="s">
         <v>692</v>
       </c>
@@ -10612,7 +10729,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="2:4">
+    <row r="288" spans="2:4">
       <c r="B288" t="s">
         <v>692</v>
       </c>
@@ -10623,7 +10740,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="2:4">
+    <row r="289" spans="2:4">
       <c r="B289" t="s">
         <v>692</v>
       </c>
@@ -10634,7 +10751,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="2:4">
+    <row r="290" spans="2:4">
       <c r="B290" t="s">
         <v>697</v>
       </c>
@@ -10645,7 +10762,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="2:4">
+    <row r="291" spans="2:4">
       <c r="B291" t="s">
         <v>697</v>
       </c>
@@ -10656,7 +10773,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="2:4">
+    <row r="292" spans="2:4">
       <c r="B292" t="s">
         <v>702</v>
       </c>
@@ -10667,7 +10784,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="2:4">
+    <row r="293" spans="2:4">
       <c r="B293" t="s">
         <v>702</v>
       </c>
@@ -10678,7 +10795,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="2:4">
+    <row r="294" spans="2:4">
       <c r="B294" t="s">
         <v>706</v>
       </c>
@@ -10689,7 +10806,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="2:4">
+    <row r="295" spans="2:4">
       <c r="B295" t="s">
         <v>709</v>
       </c>
@@ -10700,7 +10817,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="2:4">
+    <row r="296" spans="2:4">
       <c r="B296" t="s">
         <v>712</v>
       </c>
@@ -10711,7 +10828,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="2:4">
+    <row r="297" spans="2:4">
       <c r="B297" t="s">
         <v>714</v>
       </c>
@@ -10722,7 +10839,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="2:4">
+    <row r="298" spans="2:4">
       <c r="B298" t="s">
         <v>717</v>
       </c>
@@ -10733,7 +10850,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="2:4">
+    <row r="299" spans="2:4">
       <c r="B299" t="s">
         <v>720</v>
       </c>
@@ -10744,7 +10861,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="2:4">
+    <row r="300" spans="2:4">
       <c r="B300" t="s">
         <v>723</v>
       </c>
@@ -10755,7 +10872,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="2:4">
+    <row r="301" spans="2:4">
       <c r="B301" t="s">
         <v>726</v>
       </c>
@@ -10766,7 +10883,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="2:4">
+    <row r="302" spans="2:4">
       <c r="B302" t="s">
         <v>726</v>
       </c>
@@ -10777,7 +10894,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="2:4">
+    <row r="303" spans="2:4">
       <c r="B303" t="s">
         <v>726</v>
       </c>
@@ -10788,7 +10905,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="2:4">
+    <row r="304" spans="2:4">
       <c r="B304" t="s">
         <v>731</v>
       </c>
@@ -10799,7 +10916,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="2:4">
+    <row r="305" spans="2:4">
       <c r="B305" t="s">
         <v>731</v>
       </c>
@@ -10810,7 +10927,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="2:4">
+    <row r="306" spans="2:4">
       <c r="B306" t="s">
         <v>733</v>
       </c>
@@ -10821,7 +10938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="2:4">
+    <row r="307" spans="2:4">
       <c r="B307" t="s">
         <v>734</v>
       </c>
@@ -10832,7 +10949,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="2:4">
+    <row r="308" spans="2:4">
       <c r="B308" t="s">
         <v>737</v>
       </c>
@@ -10843,7 +10960,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="2:4">
+    <row r="309" spans="2:4">
       <c r="B309" t="s">
         <v>740</v>
       </c>
@@ -10854,7 +10971,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="2:4">
+    <row r="310" spans="2:4">
       <c r="B310" t="s">
         <v>677</v>
       </c>
@@ -10865,7 +10982,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="2:4">
+    <row r="311" spans="2:4">
       <c r="B311" t="s">
         <v>744</v>
       </c>
@@ -10876,7 +10993,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="2:4">
+    <row r="312" spans="2:4">
       <c r="B312" t="s">
         <v>747</v>
       </c>
@@ -10887,7 +11004,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="2:4">
+    <row r="313" spans="2:4">
       <c r="B313" t="s">
         <v>750</v>
       </c>
@@ -10898,7 +11015,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="2:4">
+    <row r="314" spans="2:4">
       <c r="B314" t="s">
         <v>750</v>
       </c>
@@ -10909,7 +11026,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="2:4">
+    <row r="315" spans="2:4">
       <c r="B315" t="s">
         <v>753</v>
       </c>
@@ -10920,7 +11037,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="2:4">
+    <row r="316" spans="2:4">
       <c r="B316" t="s">
         <v>751</v>
       </c>
@@ -10931,7 +11048,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="2:4">
+    <row r="317" spans="2:4">
       <c r="B317" t="s">
         <v>757</v>
       </c>
@@ -10942,7 +11059,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="2:4">
+    <row r="318" spans="2:4">
       <c r="B318" t="s">
         <v>760</v>
       </c>
@@ -10953,7 +11070,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="2:4">
+    <row r="319" spans="2:4">
       <c r="B319" t="s">
         <v>763</v>
       </c>
@@ -10964,7 +11081,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="2:4">
+    <row r="320" spans="2:4">
       <c r="B320" t="s">
         <v>763</v>
       </c>
@@ -10975,7 +11092,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="2:4">
+    <row r="321" spans="2:4">
       <c r="B321" t="s">
         <v>763</v>
       </c>
@@ -10986,7 +11103,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="2:4">
+    <row r="322" spans="2:4">
       <c r="B322" t="s">
         <v>768</v>
       </c>
@@ -10997,7 +11114,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="2:4">
+    <row r="323" spans="2:4">
       <c r="B323" t="s">
         <v>771</v>
       </c>
@@ -11008,7 +11125,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="2:4">
+    <row r="324" spans="2:4">
       <c r="B324" t="s">
         <v>774</v>
       </c>
@@ -11019,7 +11136,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="2:4">
+    <row r="325" spans="2:4">
       <c r="B325" t="s">
         <v>777</v>
       </c>
@@ -11030,7 +11147,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="2:4">
+    <row r="326" spans="2:4">
       <c r="B326" t="s">
         <v>780</v>
       </c>
@@ -11041,7 +11158,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="2:4">
+    <row r="327" spans="2:4">
       <c r="B327" t="s">
         <v>754</v>
       </c>
@@ -11052,7 +11169,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="2:4">
+    <row r="328" spans="2:4">
       <c r="B328" t="s">
         <v>785</v>
       </c>
@@ -11063,7 +11180,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="2:4">
+    <row r="329" spans="2:4">
       <c r="B329" t="s">
         <v>788</v>
       </c>
@@ -11074,7 +11191,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="2:4">
+    <row r="330" spans="2:4">
       <c r="B330" t="s">
         <v>791</v>
       </c>
@@ -11085,7 +11202,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="2:4">
+    <row r="331" spans="2:4">
       <c r="B331" t="s">
         <v>791</v>
       </c>
@@ -11096,7 +11213,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="2:4">
+    <row r="332" spans="2:4">
       <c r="B332" t="s">
         <v>795</v>
       </c>
@@ -11107,7 +11224,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="2:4">
+    <row r="333" spans="2:4">
       <c r="B333" t="s">
         <v>798</v>
       </c>
@@ -11118,7 +11235,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="2:4">
+    <row r="334" spans="2:4">
       <c r="B334" t="s">
         <v>798</v>
       </c>
@@ -11129,7 +11246,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="2:4">
+    <row r="335" spans="2:4">
       <c r="B335" t="s">
         <v>803</v>
       </c>
@@ -11140,7 +11257,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="2:4">
+    <row r="336" spans="2:4">
       <c r="B336" t="s">
         <v>806</v>
       </c>
@@ -11151,7 +11268,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="2:4">
+    <row r="337" spans="2:4">
       <c r="B337" t="s">
         <v>809</v>
       </c>
@@ -11162,7 +11279,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="2:4">
+    <row r="338" spans="2:4">
       <c r="B338" t="s">
         <v>812</v>
       </c>
@@ -11173,7 +11290,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="2:4">
+    <row r="339" spans="2:4">
       <c r="B339" t="s">
         <v>815</v>
       </c>
@@ -11184,7 +11301,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="2:4">
+    <row r="340" spans="2:4">
       <c r="B340" t="s">
         <v>818</v>
       </c>
@@ -11195,7 +11312,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="2:4">
+    <row r="341" spans="2:4">
       <c r="B341" t="s">
         <v>818</v>
       </c>
@@ -11206,7 +11323,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="2:4">
+    <row r="342" spans="2:4">
       <c r="B342" t="s">
         <v>822</v>
       </c>
@@ -11217,7 +11334,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="2:4">
+    <row r="343" spans="2:4">
       <c r="B343" t="s">
         <v>825</v>
       </c>
@@ -11228,7 +11345,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="2:4">
+    <row r="344" spans="2:4">
       <c r="B344" t="s">
         <v>828</v>
       </c>
@@ -11239,7 +11356,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="2:4">
+    <row r="345" spans="2:4">
       <c r="B345" t="s">
         <v>828</v>
       </c>
@@ -11250,7 +11367,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="2:4">
+    <row r="346" spans="2:4">
       <c r="B346" t="s">
         <v>833</v>
       </c>
@@ -11261,7 +11378,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="2:4">
+    <row r="347" spans="2:4">
       <c r="B347" t="s">
         <v>836</v>
       </c>
@@ -11272,7 +11389,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="2:4">
+    <row r="348" spans="2:4">
       <c r="B348" t="s">
         <v>836</v>
       </c>
@@ -11283,13 +11400,13 @@
         <v>839</v>
       </c>
     </row>
-    <row r="349" s="1" customFormat="1" hidden="1" spans="1:2">
+    <row r="349" s="1" customFormat="1" spans="1:2">
       <c r="A349" s="12"/>
       <c r="B349" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="2:4">
+    <row r="350" spans="2:4">
       <c r="B350" t="s">
         <v>841</v>
       </c>
@@ -11300,7 +11417,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="2:4">
+    <row r="351" spans="2:4">
       <c r="B351" t="s">
         <v>843</v>
       </c>
@@ -11311,7 +11428,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="2:4">
+    <row r="352" spans="2:4">
       <c r="B352" t="s">
         <v>845</v>
       </c>
@@ -11322,7 +11439,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="2:4">
+    <row r="353" spans="2:4">
       <c r="B353" t="s">
         <v>848</v>
       </c>
@@ -11333,7 +11450,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="2:4">
+    <row r="354" spans="2:4">
       <c r="B354" t="s">
         <v>851</v>
       </c>
@@ -11344,7 +11461,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="2:4">
+    <row r="355" spans="2:4">
       <c r="B355" t="s">
         <v>854</v>
       </c>
@@ -11355,7 +11472,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="2:4">
+    <row r="356" spans="2:4">
       <c r="B356" t="s">
         <v>857</v>
       </c>
@@ -11366,7 +11483,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="2:4">
+    <row r="357" spans="2:4">
       <c r="B357" t="s">
         <v>860</v>
       </c>
@@ -11377,7 +11494,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="2:4">
+    <row r="358" spans="2:4">
       <c r="B358" t="s">
         <v>862</v>
       </c>
@@ -11388,7 +11505,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="2:4">
+    <row r="359" spans="2:4">
       <c r="B359" t="s">
         <v>862</v>
       </c>
@@ -11399,7 +11516,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="2:4">
+    <row r="360" spans="2:4">
       <c r="B360" t="s">
         <v>862</v>
       </c>
@@ -11410,7 +11527,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="2:4">
+    <row r="361" spans="2:4">
       <c r="B361" t="s">
         <v>867</v>
       </c>
@@ -11421,7 +11538,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="2:4">
+    <row r="362" spans="2:4">
       <c r="B362" t="s">
         <v>870</v>
       </c>
@@ -11432,13 +11549,13 @@
         <v>869</v>
       </c>
     </row>
-    <row r="363" s="1" customFormat="1" hidden="1" spans="1:2">
+    <row r="363" s="1" customFormat="1" spans="1:2">
       <c r="A363" s="12"/>
       <c r="B363" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="2:4">
+    <row r="364" spans="2:4">
       <c r="B364" t="s">
         <v>873</v>
       </c>
@@ -11449,7 +11566,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="2:4">
+    <row r="365" spans="2:4">
       <c r="B365" t="s">
         <v>873</v>
       </c>
@@ -11460,7 +11577,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="2:4">
+    <row r="366" spans="2:4">
       <c r="B366" t="s">
         <v>878</v>
       </c>
@@ -11471,7 +11588,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="2:4">
+    <row r="367" spans="2:4">
       <c r="B367" t="s">
         <v>881</v>
       </c>
@@ -11482,7 +11599,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="2:4">
+    <row r="368" spans="2:4">
       <c r="B368" t="s">
         <v>881</v>
       </c>
@@ -11493,7 +11610,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="2:4">
+    <row r="369" spans="2:4">
       <c r="B369" t="s">
         <v>885</v>
       </c>
@@ -11504,7 +11621,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="2:4">
+    <row r="370" spans="2:4">
       <c r="B370" t="s">
         <v>887</v>
       </c>
@@ -11515,7 +11632,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="2:4">
+    <row r="371" spans="2:4">
       <c r="B371" t="s">
         <v>890</v>
       </c>
@@ -11526,7 +11643,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="2:4">
+    <row r="372" spans="2:4">
       <c r="B372" t="s">
         <v>893</v>
       </c>
@@ -11537,7 +11654,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="2:4">
+    <row r="373" spans="2:4">
       <c r="B373" t="s">
         <v>896</v>
       </c>
@@ -11548,7 +11665,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="2:4">
+    <row r="374" spans="2:4">
       <c r="B374" t="s">
         <v>896</v>
       </c>
@@ -11559,7 +11676,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="2:4">
+    <row r="375" spans="2:4">
       <c r="B375" t="s">
         <v>900</v>
       </c>
@@ -11570,7 +11687,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="2:4">
+    <row r="376" spans="2:4">
       <c r="B376" t="s">
         <v>903</v>
       </c>
@@ -11581,7 +11698,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="2:4">
+    <row r="377" spans="2:4">
       <c r="B377" t="s">
         <v>903</v>
       </c>
@@ -11592,13 +11709,13 @@
         <v>905</v>
       </c>
     </row>
-    <row r="378" s="1" customFormat="1" hidden="1" spans="1:2">
+    <row r="378" s="1" customFormat="1" spans="1:2">
       <c r="A378" s="12"/>
       <c r="B378" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="2:4">
+    <row r="379" spans="2:4">
       <c r="B379" t="s">
         <v>908</v>
       </c>
@@ -11609,7 +11726,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="2:4">
+    <row r="380" spans="2:4">
       <c r="B380" t="s">
         <v>908</v>
       </c>
@@ -11620,7 +11737,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="2:4">
+    <row r="381" spans="2:4">
       <c r="B381" t="s">
         <v>911</v>
       </c>
@@ -11631,7 +11748,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="2:4">
+    <row r="382" spans="2:4">
       <c r="B382" t="s">
         <v>914</v>
       </c>
@@ -11642,7 +11759,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="2:4">
+    <row r="383" spans="2:4">
       <c r="B383" t="s">
         <v>916</v>
       </c>
@@ -11653,7 +11770,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="2:4">
+    <row r="384" spans="2:4">
       <c r="B384" t="s">
         <v>919</v>
       </c>
@@ -11664,7 +11781,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="2:4">
+    <row r="385" spans="2:4">
       <c r="B385" t="s">
         <v>919</v>
       </c>
@@ -11675,7 +11792,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="2:4">
+    <row r="386" spans="2:4">
       <c r="B386" t="s">
         <v>919</v>
       </c>
@@ -11686,7 +11803,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="2:4">
+    <row r="387" spans="2:4">
       <c r="B387" t="s">
         <v>923</v>
       </c>
@@ -11697,7 +11814,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="2:4">
+    <row r="388" spans="2:4">
       <c r="B388" t="s">
         <v>926</v>
       </c>
@@ -11708,7 +11825,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="2:4">
+    <row r="389" spans="2:4">
       <c r="B389" t="s">
         <v>929</v>
       </c>
@@ -11719,7 +11836,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="2:4">
+    <row r="390" spans="2:4">
       <c r="B390" t="s">
         <v>932</v>
       </c>
@@ -11730,7 +11847,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="2:4">
+    <row r="391" spans="2:4">
       <c r="B391" t="s">
         <v>935</v>
       </c>
@@ -11741,13 +11858,13 @@
         <v>937</v>
       </c>
     </row>
-    <row r="392" s="1" customFormat="1" hidden="1" spans="1:2">
+    <row r="392" s="1" customFormat="1" spans="1:2">
       <c r="A392" s="12"/>
       <c r="B392" s="1" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="2:4">
+    <row r="393" spans="2:4">
       <c r="B393" t="s">
         <v>939</v>
       </c>
@@ -11758,7 +11875,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="2:4">
+    <row r="394" spans="2:4">
       <c r="B394" t="s">
         <v>942</v>
       </c>
@@ -11769,7 +11886,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="2:4">
+    <row r="395" spans="2:4">
       <c r="B395" t="s">
         <v>942</v>
       </c>
@@ -11780,7 +11897,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="2:4">
+    <row r="396" spans="2:4">
       <c r="B396" t="s">
         <v>946</v>
       </c>
@@ -11791,7 +11908,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="2:4">
+    <row r="397" spans="2:4">
       <c r="B397" t="s">
         <v>949</v>
       </c>
@@ -11802,7 +11919,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="2:4">
+    <row r="398" spans="2:4">
       <c r="B398" t="s">
         <v>952</v>
       </c>
@@ -11813,7 +11930,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="2:4">
+    <row r="399" spans="2:4">
       <c r="B399" t="s">
         <v>955</v>
       </c>
@@ -11824,7 +11941,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="2:4">
+    <row r="400" spans="2:4">
       <c r="B400" t="s">
         <v>958</v>
       </c>
@@ -11835,7 +11952,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="2:4">
+    <row r="401" spans="2:4">
       <c r="B401" t="s">
         <v>958</v>
       </c>
@@ -11846,7 +11963,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="2:4">
+    <row r="402" spans="2:4">
       <c r="B402" t="s">
         <v>958</v>
       </c>
@@ -11857,7 +11974,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="2:4">
+    <row r="403" spans="2:4">
       <c r="B403" t="s">
         <v>965</v>
       </c>
@@ -11868,7 +11985,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="2:4">
+    <row r="404" spans="2:4">
       <c r="B404" t="s">
         <v>967</v>
       </c>
@@ -11879,13 +11996,13 @@
         <v>969</v>
       </c>
     </row>
-    <row r="405" s="1" customFormat="1" hidden="1" spans="1:2">
+    <row r="405" s="1" customFormat="1" spans="1:2">
       <c r="A405" s="12"/>
       <c r="B405" s="1" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="2:4">
+    <row r="406" spans="2:4">
       <c r="B406" t="s">
         <v>971</v>
       </c>
@@ -11896,7 +12013,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="2:4">
+    <row r="407" spans="2:4">
       <c r="B407" t="s">
         <v>933</v>
       </c>
@@ -11907,7 +12024,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="2:4">
+    <row r="408" spans="2:4">
       <c r="B408" t="s">
         <v>933</v>
       </c>
@@ -11918,7 +12035,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="2:4">
+    <row r="409" spans="2:4">
       <c r="B409" t="s">
         <v>978</v>
       </c>
@@ -11929,7 +12046,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="2:4">
+    <row r="410" spans="2:4">
       <c r="B410" t="s">
         <v>981</v>
       </c>
@@ -11940,7 +12057,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="2:4">
+    <row r="411" spans="2:4">
       <c r="B411" t="s">
         <v>983</v>
       </c>
@@ -11951,7 +12068,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="2:4">
+    <row r="412" spans="2:4">
       <c r="B412" t="s">
         <v>986</v>
       </c>
@@ -11962,7 +12079,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="2:4">
+    <row r="413" spans="2:4">
       <c r="B413" t="s">
         <v>986</v>
       </c>
@@ -11973,7 +12090,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="2:4">
+    <row r="414" spans="2:4">
       <c r="B414" t="s">
         <v>990</v>
       </c>
@@ -11984,7 +12101,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="2:4">
+    <row r="415" spans="2:4">
       <c r="B415" t="s">
         <v>993</v>
       </c>
@@ -11995,7 +12112,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="2:4">
+    <row r="416" spans="2:4">
       <c r="B416" t="s">
         <v>996</v>
       </c>
@@ -12006,7 +12123,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="2:4">
+    <row r="417" spans="2:4">
       <c r="B417" t="s">
         <v>999</v>
       </c>
@@ -12017,7 +12134,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="2:4">
+    <row r="418" spans="2:4">
       <c r="B418" t="s">
         <v>1002</v>
       </c>
@@ -12028,13 +12145,13 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="419" s="2" customFormat="1" hidden="1" spans="1:2">
+    <row r="419" s="2" customFormat="1" spans="1:2">
       <c r="A419" s="13"/>
       <c r="B419" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="2:4">
+    <row r="420" spans="2:4">
       <c r="B420" t="s">
         <v>1002</v>
       </c>
@@ -12045,7 +12162,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="2:4">
+    <row r="421" spans="2:4">
       <c r="B421" t="s">
         <v>1007</v>
       </c>
@@ -12056,7 +12173,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="2:4">
+    <row r="422" spans="2:4">
       <c r="B422" t="s">
         <v>1010</v>
       </c>
@@ -12067,7 +12184,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="2:4">
+    <row r="423" spans="2:4">
       <c r="B423" t="s">
         <v>1010</v>
       </c>
@@ -12078,7 +12195,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="2:4">
+    <row r="424" spans="2:4">
       <c r="B424" t="s">
         <v>1014</v>
       </c>
@@ -12089,7 +12206,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="2:4">
+    <row r="425" spans="2:4">
       <c r="B425" t="s">
         <v>1017</v>
       </c>
@@ -12108,7 +12225,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="2:4">
+    <row r="427" spans="2:4">
       <c r="B427" t="s">
         <v>1021</v>
       </c>
@@ -12133,7 +12250,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="2:4">
+    <row r="429" spans="2:4">
       <c r="B429" t="s">
         <v>1027</v>
       </c>
@@ -12144,7 +12261,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="2:4">
+    <row r="430" spans="2:4">
       <c r="B430" t="s">
         <v>1027</v>
       </c>
@@ -12155,7 +12272,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="2:4">
+    <row r="431" spans="2:4">
       <c r="B431" t="s">
         <v>1031</v>
       </c>
@@ -12166,7 +12283,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="2:4">
+    <row r="432" spans="2:4">
       <c r="B432" t="s">
         <v>553</v>
       </c>
@@ -12191,7 +12308,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="2:4">
+    <row r="434" spans="2:4">
       <c r="B434" t="s">
         <v>1036</v>
       </c>
@@ -12202,7 +12319,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="2:4">
+    <row r="435" spans="2:4">
       <c r="B435" t="s">
         <v>1039</v>
       </c>
@@ -12213,7 +12330,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="2:4">
+    <row r="436" spans="2:4">
       <c r="B436" t="s">
         <v>1032</v>
       </c>
@@ -12224,7 +12341,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="2:4">
+    <row r="437" spans="2:4">
       <c r="B437" t="s">
         <v>1044</v>
       </c>
@@ -12235,7 +12352,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="438" s="3" customFormat="1" hidden="1" spans="1:2">
+    <row r="438" s="3" customFormat="1" spans="1:2">
       <c r="A438" s="14"/>
       <c r="B438" s="3" t="s">
         <v>1047</v>
@@ -12255,7 +12372,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:4">
+    <row r="440" spans="1:4">
       <c r="A440" s="9">
         <v>2</v>
       </c>
@@ -12269,7 +12386,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="2:4">
+    <row r="441" spans="2:4">
       <c r="B441" t="s">
         <v>1053</v>
       </c>
@@ -12280,7 +12397,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="2:4">
+    <row r="442" spans="2:4">
       <c r="B442" t="s">
         <v>1053</v>
       </c>
@@ -12291,7 +12408,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="2:4">
+    <row r="443" spans="2:4">
       <c r="B443" t="s">
         <v>1053</v>
       </c>
@@ -12302,7 +12419,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="2:4">
+    <row r="444" spans="2:4">
       <c r="B444" t="s">
         <v>1058</v>
       </c>
@@ -12341,7 +12458,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="2:4">
+    <row r="447" spans="2:4">
       <c r="B447" t="s">
         <v>1066</v>
       </c>
@@ -12352,7 +12469,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="2:4">
+    <row r="448" spans="2:4">
       <c r="B448" t="s">
         <v>146</v>
       </c>
@@ -12363,7 +12480,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:4">
+    <row r="449" spans="1:4">
       <c r="A449" s="9">
         <v>2</v>
       </c>
@@ -12391,7 +12508,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="2:4">
+    <row r="451" spans="2:4">
       <c r="B451" t="s">
         <v>1075</v>
       </c>
@@ -12402,7 +12519,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="452" s="3" customFormat="1" hidden="1" spans="1:2">
+    <row r="452" s="3" customFormat="1" spans="1:2">
       <c r="A452" s="14"/>
       <c r="B452" s="3" t="s">
         <v>1078</v>
@@ -12436,7 +12553,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:4">
+    <row r="455" spans="1:4">
       <c r="A455" s="9">
         <v>2</v>
       </c>
@@ -12450,7 +12567,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="2:4">
+    <row r="456" spans="2:4">
       <c r="B456" t="s">
         <v>1088</v>
       </c>
@@ -12461,7 +12578,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="2:4">
+    <row r="457" spans="2:4">
       <c r="B457" t="s">
         <v>1091</v>
       </c>
@@ -12472,7 +12589,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="2:4">
+    <row r="458" spans="2:4">
       <c r="B458" t="s">
         <v>1091</v>
       </c>
@@ -12483,7 +12600,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="2:4">
+    <row r="459" spans="2:4">
       <c r="B459" t="s">
         <v>1095</v>
       </c>
@@ -12508,7 +12625,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="2:4">
+    <row r="461" spans="2:4">
       <c r="B461" t="s">
         <v>1101</v>
       </c>
@@ -12533,7 +12650,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="2:4">
+    <row r="463" spans="2:4">
       <c r="B463" t="s">
         <v>1106</v>
       </c>
@@ -12544,7 +12661,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:4">
+    <row r="464" spans="1:4">
       <c r="A464" s="9">
         <v>2</v>
       </c>
@@ -12558,7 +12675,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="2:4">
+    <row r="465" spans="2:4">
       <c r="B465" t="s">
         <v>1111</v>
       </c>
@@ -12569,13 +12686,13 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="466" s="3" customFormat="1" hidden="1" spans="1:2">
+    <row r="466" s="3" customFormat="1" spans="1:2">
       <c r="A466" s="14"/>
       <c r="B466" s="3" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="2:4">
+    <row r="467" spans="2:4">
       <c r="B467" t="s">
         <v>1115</v>
       </c>
@@ -12586,7 +12703,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="2:4">
+    <row r="468" spans="2:4">
       <c r="B468" t="s">
         <v>341</v>
       </c>
@@ -12597,7 +12714,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="2:4">
+    <row r="469" spans="2:4">
       <c r="B469" t="s">
         <v>1120</v>
       </c>
@@ -12622,7 +12739,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="2:4">
+    <row r="471" spans="2:4">
       <c r="B471" t="s">
         <v>1126</v>
       </c>
@@ -12647,7 +12764,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="2:4">
+    <row r="473" spans="2:4">
       <c r="B473" t="s">
         <v>1130</v>
       </c>
@@ -12658,7 +12775,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="2:4">
+    <row r="474" spans="2:4">
       <c r="B474" t="s">
         <v>1133</v>
       </c>
@@ -12669,7 +12786,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="2:4">
+    <row r="475" spans="2:4">
       <c r="B475" t="s">
         <v>1135</v>
       </c>
@@ -12680,7 +12797,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="2:4">
+    <row r="476" spans="2:4">
       <c r="B476" t="s">
         <v>1138</v>
       </c>
@@ -12691,7 +12808,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="2:4">
+    <row r="477" spans="2:4">
       <c r="B477" t="s">
         <v>1141</v>
       </c>
@@ -12702,7 +12819,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="2:4">
+    <row r="478" spans="2:4">
       <c r="B478" t="s">
         <v>1028</v>
       </c>
@@ -12713,7 +12830,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="2:4">
+    <row r="479" spans="2:4">
       <c r="B479" t="s">
         <v>1028</v>
       </c>
@@ -12724,13 +12841,13 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="480" s="4" customFormat="1" hidden="1" spans="1:2">
+    <row r="480" s="4" customFormat="1" spans="1:2">
       <c r="A480" s="15"/>
       <c r="B480" s="4" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="2:4">
+    <row r="481" spans="2:4">
       <c r="B481" t="s">
         <v>1148</v>
       </c>
@@ -12741,7 +12858,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="2:4">
+    <row r="482" spans="2:4">
       <c r="B482" t="s">
         <v>441</v>
       </c>
@@ -12766,7 +12883,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:4">
+    <row r="484" spans="1:4">
       <c r="A484" s="9">
         <v>2</v>
       </c>
@@ -12780,7 +12897,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="2:4">
+    <row r="485" spans="2:4">
       <c r="B485" t="s">
         <v>1157</v>
       </c>
@@ -12791,7 +12908,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="2:4">
+    <row r="486" spans="2:4">
       <c r="B486" t="s">
         <v>1160</v>
       </c>
@@ -12802,7 +12919,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="2:4">
+    <row r="487" spans="2:4">
       <c r="B487" t="s">
         <v>1162</v>
       </c>
@@ -12813,7 +12930,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="2:4">
+    <row r="488" spans="2:4">
       <c r="B488" t="s">
         <v>1165</v>
       </c>
@@ -12824,7 +12941,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="2:4">
+    <row r="489" spans="2:4">
       <c r="B489" t="s">
         <v>1168</v>
       </c>
@@ -12835,7 +12952,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="2:4">
+    <row r="490" spans="2:4">
       <c r="B490" t="s">
         <v>1169</v>
       </c>
@@ -12846,7 +12963,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="2:4">
+    <row r="491" spans="2:4">
       <c r="B491" t="s">
         <v>1169</v>
       </c>
@@ -12857,7 +12974,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="2:4">
+    <row r="492" spans="2:4">
       <c r="B492" t="s">
         <v>1172</v>
       </c>
@@ -12882,13 +12999,13 @@
         <v>639</v>
       </c>
     </row>
-    <row r="494" s="4" customFormat="1" hidden="1" spans="1:2">
+    <row r="494" s="4" customFormat="1" spans="1:2">
       <c r="A494" s="15"/>
       <c r="B494" s="4" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="2:4">
+    <row r="495" spans="2:4">
       <c r="B495" t="s">
         <v>1175</v>
       </c>
@@ -12899,7 +13016,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="2:4">
+    <row r="496" spans="2:4">
       <c r="B496" t="s">
         <v>1177</v>
       </c>
@@ -12924,7 +13041,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="2:4">
+    <row r="498" spans="2:4">
       <c r="B498" t="s">
         <v>1177</v>
       </c>
@@ -12935,7 +13052,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="2:4">
+    <row r="499" spans="2:4">
       <c r="B499" t="s">
         <v>1177</v>
       </c>
@@ -12946,7 +13063,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="2:4">
+    <row r="500" spans="2:4">
       <c r="B500" t="s">
         <v>1177</v>
       </c>
@@ -12957,7 +13074,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="2:4">
+    <row r="501" spans="2:4">
       <c r="B501" t="s">
         <v>1177</v>
       </c>
@@ -12968,7 +13085,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="2:4">
+    <row r="502" spans="2:4">
       <c r="B502" t="s">
         <v>381</v>
       </c>
@@ -12979,7 +13096,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="2:4">
+    <row r="503" spans="2:4">
       <c r="B503" t="s">
         <v>1186</v>
       </c>
@@ -12990,7 +13107,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="2:4">
+    <row r="504" spans="2:4">
       <c r="B504" t="s">
         <v>1189</v>
       </c>
@@ -13043,7 +13160,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="508" s="4" customFormat="1" hidden="1" spans="1:2">
+    <row r="508" s="4" customFormat="1" spans="1:2">
       <c r="A508" s="15"/>
       <c r="B508" s="4" t="s">
         <v>1201</v>
@@ -13063,7 +13180,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="2:4">
+    <row r="510" spans="2:4">
       <c r="B510" t="s">
         <v>1205</v>
       </c>
@@ -13088,7 +13205,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="2:4">
+    <row r="512" spans="2:4">
       <c r="B512" t="s">
         <v>1211</v>
       </c>
@@ -13127,7 +13244,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="2:4">
+    <row r="515" spans="2:4">
       <c r="B515" t="s">
         <v>1217</v>
       </c>
@@ -13138,7 +13255,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="2:4">
+    <row r="516" spans="2:4">
       <c r="B516" t="s">
         <v>1217</v>
       </c>
@@ -13149,7 +13266,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:4">
+    <row r="517" spans="1:4">
       <c r="A517" s="9">
         <v>2</v>
       </c>
@@ -13163,7 +13280,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="2:4">
+    <row r="518" spans="2:4">
       <c r="B518" t="s">
         <v>423</v>
       </c>
@@ -13174,7 +13291,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="2:4">
+    <row r="519" spans="2:4">
       <c r="B519" t="s">
         <v>1223</v>
       </c>
@@ -13185,7 +13302,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="2:4">
+    <row r="520" spans="2:4">
       <c r="B520" t="s">
         <v>1226</v>
       </c>
@@ -13196,7 +13313,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:4">
+    <row r="521" spans="1:4">
       <c r="A521" s="9">
         <v>2</v>
       </c>
@@ -13210,13 +13327,13 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="522" s="4" customFormat="1" hidden="1" spans="1:2">
+    <row r="522" s="4" customFormat="1" spans="1:2">
       <c r="A522" s="15"/>
       <c r="B522" s="4" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="2:4">
+    <row r="523" spans="2:4">
       <c r="B523" t="s">
         <v>1229</v>
       </c>
@@ -13227,7 +13344,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="2:4">
+    <row r="524" spans="2:4">
       <c r="B524" t="s">
         <v>1233</v>
       </c>
@@ -13252,7 +13369,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="2:4">
+    <row r="526" spans="2:4">
       <c r="B526" t="s">
         <v>1238</v>
       </c>
@@ -13263,7 +13380,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="2:4">
+    <row r="527" spans="2:4">
       <c r="B527" t="s">
         <v>1240</v>
       </c>
@@ -13274,7 +13391,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="2:4">
+    <row r="528" spans="2:4">
       <c r="B528" t="s">
         <v>1242</v>
       </c>
@@ -13285,7 +13402,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="2:4">
+    <row r="529" spans="2:4">
       <c r="B529" t="s">
         <v>1242</v>
       </c>
@@ -13296,7 +13413,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="2:4">
+    <row r="530" spans="2:4">
       <c r="B530" t="s">
         <v>1242</v>
       </c>
@@ -13307,7 +13424,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:4">
+    <row r="531" spans="1:4">
       <c r="A531" s="9">
         <v>2</v>
       </c>
@@ -13321,7 +13438,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:4">
+    <row r="532" spans="1:4">
       <c r="A532" s="9">
         <v>2</v>
       </c>
@@ -13335,7 +13452,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="2:4">
+    <row r="533" spans="2:4">
       <c r="B533" t="s">
         <v>1252</v>
       </c>
@@ -13346,7 +13463,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="2:4">
+    <row r="534" spans="2:4">
       <c r="B534" t="s">
         <v>1255</v>
       </c>
@@ -13357,7 +13474,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="2:4">
+    <row r="535" spans="2:4">
       <c r="B535" t="s">
         <v>1255</v>
       </c>
@@ -13368,13 +13485,13 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="536" s="4" customFormat="1" hidden="1" spans="1:2">
+    <row r="536" s="4" customFormat="1" spans="1:2">
       <c r="A536" s="15"/>
       <c r="B536" s="4" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="2:4">
+    <row r="537" spans="2:4">
       <c r="B537" t="s">
         <v>1255</v>
       </c>
@@ -13413,7 +13530,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="2:4">
+    <row r="540" spans="2:4">
       <c r="B540" t="s">
         <v>1262</v>
       </c>
@@ -13424,7 +13541,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="2:4">
+    <row r="541" spans="2:4">
       <c r="B541" t="s">
         <v>1265</v>
       </c>
@@ -13435,7 +13552,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="2:4">
+    <row r="542" spans="2:4">
       <c r="B542" t="s">
         <v>1268</v>
       </c>
@@ -13446,7 +13563,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="2:4">
+    <row r="543" spans="2:4">
       <c r="B543" t="s">
         <v>1268</v>
       </c>
@@ -13457,7 +13574,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="2:4">
+    <row r="544" spans="2:4">
       <c r="B544" t="s">
         <v>1272</v>
       </c>
@@ -13468,7 +13585,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:4">
+    <row r="545" spans="1:4">
       <c r="A545" s="9">
         <v>2</v>
       </c>
@@ -13482,7 +13599,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="2:4">
+    <row r="546" spans="2:4">
       <c r="B546" t="s">
         <v>1275</v>
       </c>
@@ -13493,13 +13610,13 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="547" s="4" customFormat="1" hidden="1" spans="1:2">
+    <row r="547" s="4" customFormat="1" spans="1:2">
       <c r="A547" s="15"/>
       <c r="B547" s="4" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="2:4">
+    <row r="548" spans="2:4">
       <c r="B548" t="s">
         <v>1279</v>
       </c>
@@ -13510,7 +13627,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="2:4">
+    <row r="549" spans="2:4">
       <c r="B549" t="s">
         <v>83</v>
       </c>
@@ -13521,7 +13638,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="2:4">
+    <row r="550" spans="2:4">
       <c r="B550" t="s">
         <v>1282</v>
       </c>
@@ -13532,7 +13649,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="2:4">
+    <row r="551" spans="2:4">
       <c r="B551" t="s">
         <v>1282</v>
       </c>
@@ -13543,7 +13660,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="2:4">
+    <row r="552" spans="2:4">
       <c r="B552" t="s">
         <v>1286</v>
       </c>
@@ -13568,7 +13685,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="1:4">
+    <row r="554" spans="1:4">
       <c r="A554" s="9">
         <v>2</v>
       </c>
@@ -13582,7 +13699,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="2:4">
+    <row r="555" spans="2:4">
       <c r="B555" t="s">
         <v>1294</v>
       </c>
@@ -13593,7 +13710,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="556" hidden="1" spans="2:4">
+    <row r="556" spans="2:4">
       <c r="B556" t="s">
         <v>1297</v>
       </c>
@@ -13604,7 +13721,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:4">
+    <row r="557" spans="1:4">
       <c r="A557" s="9">
         <v>2</v>
       </c>
@@ -13632,13 +13749,13 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="559" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="559" s="5" customFormat="1" spans="1:2">
       <c r="A559" s="16"/>
       <c r="B559" s="5" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="2:4">
+    <row r="560" spans="2:4">
       <c r="B560" t="s">
         <v>1307</v>
       </c>
@@ -13649,7 +13766,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="2:4">
+    <row r="561" spans="2:4">
       <c r="B561" t="s">
         <v>1307</v>
       </c>
@@ -13674,7 +13791,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="2:4">
+    <row r="563" spans="2:4">
       <c r="B563" t="s">
         <v>1314</v>
       </c>
@@ -13685,7 +13802,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:4">
+    <row r="564" spans="1:4">
       <c r="A564" s="9">
         <v>2</v>
       </c>
@@ -13699,7 +13816,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:4">
+    <row r="565" spans="1:4">
       <c r="A565" s="9">
         <v>2</v>
       </c>
@@ -13713,7 +13830,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="2:4">
+    <row r="566" spans="2:4">
       <c r="B566" t="s">
         <v>1323</v>
       </c>
@@ -13724,7 +13841,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="2:4">
+    <row r="567" spans="2:4">
       <c r="B567" t="s">
         <v>1325</v>
       </c>
@@ -13735,7 +13852,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="2:4">
+    <row r="568" spans="2:4">
       <c r="B568" t="s">
         <v>1328</v>
       </c>
@@ -13760,7 +13877,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:4">
+    <row r="570" spans="1:4">
       <c r="A570" s="9">
         <v>2</v>
       </c>
@@ -13774,7 +13891,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="2:4">
+    <row r="571" spans="2:4">
       <c r="B571" t="s">
         <v>375</v>
       </c>
@@ -13785,13 +13902,13 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="572" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="572" s="5" customFormat="1" spans="1:2">
       <c r="A572" s="16"/>
       <c r="B572" s="5" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="2:4">
+    <row r="573" spans="2:4">
       <c r="B573" t="s">
         <v>375</v>
       </c>
@@ -13802,7 +13919,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="2:4">
+    <row r="574" spans="2:4">
       <c r="B574" t="s">
         <v>1340</v>
       </c>
@@ -13813,7 +13930,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="2:4">
+    <row r="575" spans="2:4">
       <c r="B575" t="s">
         <v>1343</v>
       </c>
@@ -13824,7 +13941,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="2:4">
+    <row r="576" spans="2:4">
       <c r="B576" t="s">
         <v>1346</v>
       </c>
@@ -13835,7 +13952,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="2:4">
+    <row r="577" spans="2:4">
       <c r="B577" t="s">
         <v>1349</v>
       </c>
@@ -13846,7 +13963,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="2:4">
+    <row r="578" spans="2:4">
       <c r="B578" t="s">
         <v>1352</v>
       </c>
@@ -13857,7 +13974,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="2:4">
+    <row r="579" spans="2:4">
       <c r="B579" t="s">
         <v>1355</v>
       </c>
@@ -13868,7 +13985,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="2:4">
+    <row r="580" spans="2:4">
       <c r="B580" t="s">
         <v>1358</v>
       </c>
@@ -13879,7 +13996,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="2:4">
+    <row r="581" spans="2:4">
       <c r="B581" t="s">
         <v>1361</v>
       </c>
@@ -13890,7 +14007,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="2:4">
+    <row r="582" spans="2:4">
       <c r="B582" t="s">
         <v>1361</v>
       </c>
@@ -13901,7 +14018,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="1:4">
+    <row r="583" spans="1:4">
       <c r="A583" s="9">
         <v>2</v>
       </c>
@@ -13943,13 +14060,13 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="586" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="586" s="5" customFormat="1" spans="1:2">
       <c r="A586" s="16"/>
       <c r="B586" s="5" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="2:4">
+    <row r="587" spans="2:4">
       <c r="B587" t="s">
         <v>1368</v>
       </c>
@@ -13960,7 +14077,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="2:4">
+    <row r="588" spans="2:4">
       <c r="B588" t="s">
         <v>1374</v>
       </c>
@@ -13971,7 +14088,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="2:4">
+    <row r="589" spans="2:4">
       <c r="B589" t="s">
         <v>1321</v>
       </c>
@@ -13982,7 +14099,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="2:4">
+    <row r="590" spans="2:4">
       <c r="B590" t="s">
         <v>1378</v>
       </c>
@@ -13993,7 +14110,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="2:4">
+    <row r="591" spans="2:4">
       <c r="B591" t="s">
         <v>1381</v>
       </c>
@@ -14018,7 +14135,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="2:4">
+    <row r="593" spans="2:4">
       <c r="B593" t="s">
         <v>1382</v>
       </c>
@@ -14029,7 +14146,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="1:4">
+    <row r="594" spans="1:4">
       <c r="A594" s="9">
         <v>2</v>
       </c>
@@ -14043,7 +14160,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="2:4">
+    <row r="595" spans="2:4">
       <c r="B595" t="s">
         <v>1390</v>
       </c>
@@ -14054,7 +14171,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="2:4">
+    <row r="596" spans="2:4">
       <c r="B596" t="s">
         <v>1390</v>
       </c>
@@ -14065,7 +14182,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="2:4">
+    <row r="597" spans="2:4">
       <c r="B597" t="s">
         <v>1394</v>
       </c>
@@ -14076,7 +14193,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="2:4">
+    <row r="598" spans="2:4">
       <c r="B598" t="s">
         <v>1397</v>
       </c>
@@ -14087,7 +14204,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="2:4">
+    <row r="599" spans="2:4">
       <c r="B599" t="s">
         <v>1400</v>
       </c>
@@ -14098,13 +14215,13 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="600" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="600" s="5" customFormat="1" spans="1:2">
       <c r="A600" s="16"/>
       <c r="B600" s="5" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="2:4">
+    <row r="601" spans="2:4">
       <c r="B601" t="s">
         <v>1404</v>
       </c>
@@ -14115,7 +14232,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="2:4">
+    <row r="602" spans="2:4">
       <c r="B602" t="s">
         <v>1407</v>
       </c>
@@ -14126,7 +14243,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="2:4">
+    <row r="603" spans="2:4">
       <c r="B603" t="s">
         <v>1409</v>
       </c>
@@ -14137,7 +14254,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:4">
+    <row r="604" spans="1:4">
       <c r="A604" s="9">
         <v>2</v>
       </c>
@@ -14151,7 +14268,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="1:4">
+    <row r="605" spans="1:4">
       <c r="A605" s="9">
         <v>2</v>
       </c>
@@ -14165,7 +14282,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="1:4">
+    <row r="606" spans="1:4">
       <c r="A606" s="9">
         <v>2</v>
       </c>
@@ -14179,7 +14296,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="2:4">
+    <row r="607" spans="2:4">
       <c r="B607" t="s">
         <v>1415</v>
       </c>
@@ -14190,7 +14307,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="2:4">
+    <row r="608" spans="2:4">
       <c r="B608" t="s">
         <v>1418</v>
       </c>
@@ -14201,7 +14318,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="2:4">
+    <row r="609" spans="2:4">
       <c r="B609" t="s">
         <v>1421</v>
       </c>
@@ -14212,7 +14329,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="1:4">
+    <row r="610" spans="1:4">
       <c r="A610" s="9">
         <v>2</v>
       </c>
@@ -14226,7 +14343,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="2:4">
+    <row r="611" spans="2:4">
       <c r="B611" t="s">
         <v>1424</v>
       </c>
@@ -14237,7 +14354,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="2:4">
+    <row r="612" spans="2:4">
       <c r="B612" t="s">
         <v>1427</v>
       </c>
@@ -14248,13 +14365,13 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="613" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="613" s="5" customFormat="1" spans="1:2">
       <c r="A613" s="16"/>
       <c r="B613" s="5" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="2:4">
+    <row r="614" spans="2:4">
       <c r="B614" t="s">
         <v>1431</v>
       </c>
@@ -14265,7 +14382,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="2:4">
+    <row r="615" spans="2:4">
       <c r="B615" t="s">
         <v>1431</v>
       </c>
@@ -14276,7 +14393,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="2:4">
+    <row r="616" spans="2:4">
       <c r="B616" t="s">
         <v>1431</v>
       </c>
@@ -14301,7 +14418,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="2:4">
+    <row r="618" spans="2:4">
       <c r="B618" t="s">
         <v>1112</v>
       </c>
@@ -14312,13 +14429,13 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="619" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="619" s="5" customFormat="1" spans="1:2">
       <c r="A619" s="16"/>
       <c r="B619" s="5" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="2:4">
+    <row r="620" spans="2:4">
       <c r="B620" t="s">
         <v>1440</v>
       </c>
@@ -14343,7 +14460,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="2:4">
+    <row r="622" spans="2:4">
       <c r="B622" t="s">
         <v>1442</v>
       </c>
@@ -14368,7 +14485,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="624" hidden="1" spans="2:4">
+    <row r="624" spans="2:4">
       <c r="B624" t="s">
         <v>1446</v>
       </c>
@@ -14379,7 +14496,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="2:4">
+    <row r="625" spans="2:4">
       <c r="B625" t="s">
         <v>1449</v>
       </c>
@@ -14390,7 +14507,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="2:4">
+    <row r="626" spans="2:4">
       <c r="B626" t="s">
         <v>1452</v>
       </c>
@@ -14401,7 +14518,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="2:4">
+    <row r="627" spans="2:4">
       <c r="B627" t="s">
         <v>1452</v>
       </c>
@@ -14426,7 +14543,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="2:4">
+    <row r="629" spans="2:4">
       <c r="B629" t="s">
         <v>1456</v>
       </c>
@@ -14437,7 +14554,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="2:4">
+    <row r="630" spans="2:4">
       <c r="B630" t="s">
         <v>1459</v>
       </c>
@@ -14448,7 +14565,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="2:4">
+    <row r="631" spans="2:4">
       <c r="B631" t="s">
         <v>1462</v>
       </c>
@@ -14459,13 +14576,13 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="632" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="632" s="5" customFormat="1" spans="1:2">
       <c r="A632" s="16"/>
       <c r="B632" s="5" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="633" hidden="1" spans="2:4">
+    <row r="633" spans="2:4">
       <c r="B633" t="s">
         <v>1465</v>
       </c>
@@ -14476,7 +14593,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="2:4">
+    <row r="634" spans="2:4">
       <c r="B634" t="s">
         <v>1468</v>
       </c>
@@ -14487,7 +14604,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="2:4">
+    <row r="635" spans="2:4">
       <c r="B635" t="s">
         <v>1471</v>
       </c>
@@ -14512,7 +14629,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="2:4">
+    <row r="637" spans="2:4">
       <c r="B637" t="s">
         <v>1475</v>
       </c>
@@ -14523,7 +14640,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:4">
+    <row r="638" spans="1:4">
       <c r="A638" s="9">
         <v>2</v>
       </c>
@@ -14537,7 +14654,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="2:4">
+    <row r="639" spans="2:4">
       <c r="B639" t="s">
         <v>1476</v>
       </c>
@@ -14562,7 +14679,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="2:4">
+    <row r="641" spans="2:4">
       <c r="B641" t="s">
         <v>433</v>
       </c>
@@ -14573,7 +14690,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="642" hidden="1" spans="1:4">
+    <row r="642" spans="1:4">
       <c r="A642" s="9">
         <v>2</v>
       </c>
@@ -14587,7 +14704,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="643" hidden="1" spans="2:4">
+    <row r="643" spans="2:4">
       <c r="B643" t="s">
         <v>499</v>
       </c>
@@ -14598,7 +14715,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="2:4">
+    <row r="644" spans="2:4">
       <c r="B644" t="s">
         <v>499</v>
       </c>
@@ -14609,7 +14726,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="2:4">
+    <row r="645" spans="2:4">
       <c r="B645" t="s">
         <v>499</v>
       </c>
@@ -14620,13 +14737,13 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="646" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="646" s="5" customFormat="1" spans="1:2">
       <c r="A646" s="16"/>
       <c r="B646" s="5" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="2:4">
+    <row r="647" spans="2:4">
       <c r="B647" t="s">
         <v>499</v>
       </c>
@@ -14637,7 +14754,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="2:4">
+    <row r="648" spans="2:4">
       <c r="B648" t="s">
         <v>1493</v>
       </c>
@@ -14648,7 +14765,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="2:4">
+    <row r="649" spans="2:4">
       <c r="B649" t="s">
         <v>1495</v>
       </c>
@@ -14659,7 +14776,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="2:4">
+    <row r="650" spans="2:4">
       <c r="B650" t="s">
         <v>1498</v>
       </c>
@@ -14670,7 +14787,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="2:4">
+    <row r="651" spans="2:4">
       <c r="B651" t="s">
         <v>1498</v>
       </c>
@@ -14681,7 +14798,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="2:4">
+    <row r="652" spans="2:4">
       <c r="B652" t="s">
         <v>1502</v>
       </c>
@@ -14692,7 +14809,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="653" hidden="1" spans="1:4">
+    <row r="653" spans="1:4">
       <c r="A653" s="9">
         <v>2</v>
       </c>
@@ -14706,7 +14823,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="2:4">
+    <row r="654" spans="2:4">
       <c r="B654" t="s">
         <v>1508</v>
       </c>
@@ -14717,7 +14834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="655" hidden="1" spans="2:4">
+    <row r="655" spans="2:4">
       <c r="B655" t="s">
         <v>1510</v>
       </c>
@@ -14728,7 +14845,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="2:4">
+    <row r="656" spans="2:4">
       <c r="B656" t="s">
         <v>1513</v>
       </c>
@@ -14739,7 +14856,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="657" hidden="1" spans="2:4">
+    <row r="657" spans="2:4">
       <c r="B657" t="s">
         <v>1515</v>
       </c>
@@ -14750,7 +14867,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="658" hidden="1" spans="1:4">
+    <row r="658" spans="1:4">
       <c r="A658" s="9">
         <v>2</v>
       </c>
@@ -14778,13 +14895,13 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="660" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="660" s="5" customFormat="1" spans="1:2">
       <c r="A660" s="16"/>
       <c r="B660" s="5" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="661" hidden="1" spans="2:4">
+    <row r="661" spans="2:4">
       <c r="B661" t="s">
         <v>1523</v>
       </c>
@@ -14795,7 +14912,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="2:4">
+    <row r="662" spans="2:4">
       <c r="B662" t="s">
         <v>1526</v>
       </c>
@@ -14806,7 +14923,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="663" hidden="1" spans="2:4">
+    <row r="663" spans="2:4">
       <c r="B663" t="s">
         <v>1529</v>
       </c>
@@ -14859,7 +14976,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="667" hidden="1" spans="2:4">
+    <row r="667" spans="2:4">
       <c r="B667" t="s">
         <v>1540</v>
       </c>
@@ -14870,7 +14987,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="2:4">
+    <row r="668" spans="2:4">
       <c r="B668" t="s">
         <v>1540</v>
       </c>
@@ -14881,7 +14998,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="669" hidden="1" spans="2:4">
+    <row r="669" spans="2:4">
       <c r="B669" t="s">
         <v>1540</v>
       </c>
@@ -14906,7 +15023,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="2:4">
+    <row r="671" spans="2:4">
       <c r="B671" t="s">
         <v>1544</v>
       </c>
@@ -14917,7 +15034,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="672" hidden="1" spans="2:4">
+    <row r="672" spans="2:4">
       <c r="B672" t="s">
         <v>1546</v>
       </c>
@@ -14928,13 +15045,13 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="673" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="673" s="5" customFormat="1" spans="1:2">
       <c r="A673" s="16"/>
       <c r="B673" s="5" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="674" hidden="1" spans="2:4">
+    <row r="674" spans="2:4">
       <c r="B674" t="s">
         <v>1550</v>
       </c>
@@ -14945,7 +15062,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="1:4">
+    <row r="675" spans="1:4">
       <c r="A675" s="9">
         <v>2</v>
       </c>
@@ -14959,7 +15076,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="1:4">
+    <row r="676" spans="1:4">
       <c r="A676" s="9">
         <v>2</v>
       </c>
@@ -14973,7 +15090,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="1:4">
+    <row r="677" spans="1:4">
       <c r="A677" s="9">
         <v>2</v>
       </c>
@@ -14987,7 +15104,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:4">
+    <row r="678" spans="1:4">
       <c r="A678" s="9">
         <v>2</v>
       </c>
@@ -15001,7 +15118,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="1:4">
+    <row r="679" spans="1:4">
       <c r="A679" s="9">
         <v>2</v>
       </c>
@@ -15015,7 +15132,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="680" hidden="1" spans="2:4">
+    <row r="680" spans="2:4">
       <c r="B680" t="s">
         <v>1561</v>
       </c>
@@ -15026,7 +15143,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="681" hidden="1" spans="2:4">
+    <row r="681" spans="2:4">
       <c r="B681" t="s">
         <v>1566</v>
       </c>
@@ -15037,7 +15154,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="2:4">
+    <row r="682" spans="2:4">
       <c r="B682" t="s">
         <v>1569</v>
       </c>
@@ -15048,7 +15165,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="2:4">
+    <row r="683" spans="2:4">
       <c r="B683" t="s">
         <v>1572</v>
       </c>
@@ -15059,7 +15176,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="2:4">
+    <row r="684" spans="2:4">
       <c r="B684" t="s">
         <v>1575</v>
       </c>
@@ -15070,7 +15187,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="685" hidden="1" spans="2:4">
+    <row r="685" spans="2:4">
       <c r="B685" t="s">
         <v>1578</v>
       </c>
@@ -15081,7 +15198,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="686" hidden="1" spans="2:4">
+    <row r="686" spans="2:4">
       <c r="B686" t="s">
         <v>1581</v>
       </c>
@@ -15092,13 +15209,13 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="687" s="5" customFormat="1" hidden="1" spans="1:2">
+    <row r="687" s="5" customFormat="1" spans="1:2">
       <c r="A687" s="16"/>
       <c r="B687" s="5" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="2:4">
+    <row r="688" spans="2:4">
       <c r="B688" t="s">
         <v>1585</v>
       </c>
@@ -15109,7 +15226,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="1:4">
+    <row r="689" spans="1:4">
       <c r="A689" s="9">
         <v>2</v>
       </c>
@@ -15123,7 +15240,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:4">
+    <row r="690" spans="1:4">
       <c r="A690" s="9">
         <v>2</v>
       </c>
@@ -15137,7 +15254,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="691" hidden="1" spans="1:4">
+    <row r="691" spans="1:4">
       <c r="A691" s="9">
         <v>2</v>
       </c>
@@ -15151,7 +15268,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="2:4">
+    <row r="692" spans="2:4">
       <c r="B692" t="s">
         <v>1595</v>
       </c>
@@ -15162,7 +15279,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="693" hidden="1" spans="1:4">
+    <row r="693" spans="1:4">
       <c r="A693" s="9">
         <v>2</v>
       </c>
@@ -15176,7 +15293,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="2:4">
+    <row r="694" spans="2:4">
       <c r="B694" t="s">
         <v>1600</v>
       </c>
@@ -15187,7 +15304,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="2:4">
+    <row r="695" spans="2:4">
       <c r="B695" t="s">
         <v>1603</v>
       </c>
@@ -15212,7 +15329,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="2:4">
+    <row r="697" spans="2:4">
       <c r="B697" t="s">
         <v>1608</v>
       </c>
@@ -15223,7 +15340,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="698" hidden="1" spans="2:4">
+    <row r="698" spans="2:4">
       <c r="B698" t="s">
         <v>1608</v>
       </c>
@@ -15234,7 +15351,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="1:4">
+    <row r="699" spans="1:4">
       <c r="A699" s="9">
         <v>2</v>
       </c>
@@ -15262,7 +15379,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="701" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="701" s="6" customFormat="1" spans="1:2">
       <c r="A701" s="17">
         <v>9</v>
       </c>
@@ -15270,7 +15387,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="702" hidden="1" spans="2:4">
+    <row r="702" spans="2:4">
       <c r="B702" t="s">
         <v>1618</v>
       </c>
@@ -15281,7 +15398,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="703" hidden="1" spans="2:4">
+    <row r="703" spans="2:4">
       <c r="B703" t="s">
         <v>1621</v>
       </c>
@@ -15292,7 +15409,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="704" hidden="1" spans="2:4">
+    <row r="704" spans="2:4">
       <c r="B704" t="s">
         <v>1621</v>
       </c>
@@ -15303,7 +15420,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="2:4">
+    <row r="705" spans="2:4">
       <c r="B705" t="s">
         <v>1621</v>
       </c>
@@ -15314,7 +15431,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="2:4">
+    <row r="706" spans="2:4">
       <c r="B706" t="s">
         <v>1621</v>
       </c>
@@ -15325,7 +15442,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="707" hidden="1" spans="2:4">
+    <row r="707" spans="2:4">
       <c r="B707" t="s">
         <v>1621</v>
       </c>
@@ -15336,7 +15453,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="2:4">
+    <row r="708" spans="2:4">
       <c r="B708" t="s">
         <v>1621</v>
       </c>
@@ -15347,7 +15464,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="2:4">
+    <row r="709" spans="2:4">
       <c r="B709" t="s">
         <v>1627</v>
       </c>
@@ -15358,7 +15475,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="710" hidden="1" spans="2:4">
+    <row r="710" spans="2:4">
       <c r="B710" t="s">
         <v>1627</v>
       </c>
@@ -15369,7 +15486,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="711" hidden="1" spans="2:4">
+    <row r="711" spans="2:4">
       <c r="B711" t="s">
         <v>1631</v>
       </c>
@@ -15394,7 +15511,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="713" hidden="1" spans="2:4">
+    <row r="713" spans="2:4">
       <c r="B713" t="s">
         <v>1634</v>
       </c>
@@ -15405,7 +15522,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="2:4">
+    <row r="714" spans="2:4">
       <c r="B714" t="s">
         <v>1638</v>
       </c>
@@ -15416,7 +15533,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="715" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="715" s="6" customFormat="1" spans="1:2">
       <c r="A715" s="17">
         <v>9</v>
       </c>
@@ -15452,7 +15569,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="718" hidden="1" spans="2:4">
+    <row r="718" spans="2:4">
       <c r="B718" t="s">
         <v>1648</v>
       </c>
@@ -15463,7 +15580,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="2:4">
+    <row r="719" spans="2:4">
       <c r="B719" t="s">
         <v>1650</v>
       </c>
@@ -15474,7 +15591,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="720" hidden="1" spans="2:4">
+    <row r="720" spans="2:4">
       <c r="B720" t="s">
         <v>1652</v>
       </c>
@@ -15485,7 +15602,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="721" hidden="1" spans="2:4">
+    <row r="721" spans="2:4">
       <c r="B721" t="s">
         <v>1655</v>
       </c>
@@ -15496,7 +15613,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="2:4">
+    <row r="722" spans="2:4">
       <c r="B722" t="s">
         <v>1655</v>
       </c>
@@ -15507,7 +15624,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="723" hidden="1" spans="2:4">
+    <row r="723" spans="2:4">
       <c r="B723" t="s">
         <v>1655</v>
       </c>
@@ -15518,7 +15635,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="2:4">
+    <row r="724" spans="2:4">
       <c r="B724" t="s">
         <v>1655</v>
       </c>
@@ -15529,7 +15646,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="2:4">
+    <row r="725" spans="2:4">
       <c r="B725" t="s">
         <v>1661</v>
       </c>
@@ -15540,7 +15657,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="726" hidden="1" spans="2:4">
+    <row r="726" spans="2:4">
       <c r="B726" t="s">
         <v>1661</v>
       </c>
@@ -15551,7 +15668,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="727" hidden="1" spans="2:4">
+    <row r="727" spans="2:4">
       <c r="B727" t="s">
         <v>1661</v>
       </c>
@@ -15576,13 +15693,13 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="729" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="729" s="6" customFormat="1" spans="1:2">
       <c r="A729" s="17"/>
       <c r="B729" s="6" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="730" hidden="1" spans="2:4">
+    <row r="730" spans="2:4">
       <c r="B730" t="s">
         <v>1669</v>
       </c>
@@ -15621,7 +15738,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="2:4">
+    <row r="733" spans="2:4">
       <c r="B733" t="s">
         <v>1674</v>
       </c>
@@ -15632,7 +15749,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="734" hidden="1" spans="2:4">
+    <row r="734" spans="2:4">
       <c r="B734" t="s">
         <v>1677</v>
       </c>
@@ -15643,7 +15760,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="2:4">
+    <row r="735" spans="2:4">
       <c r="B735" t="s">
         <v>1680</v>
       </c>
@@ -15654,7 +15771,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="2:4">
+    <row r="736" spans="2:4">
       <c r="B736" t="s">
         <v>1683</v>
       </c>
@@ -15665,7 +15782,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="737" hidden="1" spans="2:4">
+    <row r="737" spans="2:4">
       <c r="B737" t="s">
         <v>1683</v>
       </c>
@@ -15676,7 +15793,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="2:4">
+    <row r="738" spans="2:4">
       <c r="B738" t="s">
         <v>1686</v>
       </c>
@@ -15687,7 +15804,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="2:4">
+    <row r="739" spans="2:4">
       <c r="B739" t="s">
         <v>1689</v>
       </c>
@@ -15698,7 +15815,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="2:4">
+    <row r="740" spans="2:4">
       <c r="B740" t="s">
         <v>1691</v>
       </c>
@@ -15751,7 +15868,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="744" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="744" s="6" customFormat="1" spans="1:2">
       <c r="A744" s="17"/>
       <c r="B744" s="6" t="s">
         <v>1702</v>
@@ -15771,7 +15888,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="746" hidden="1" spans="2:4">
+    <row r="746" spans="2:4">
       <c r="B746" t="s">
         <v>1706</v>
       </c>
@@ -15810,7 +15927,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="2:4">
+    <row r="749" spans="2:4">
       <c r="B749" t="s">
         <v>1712</v>
       </c>
@@ -15863,7 +15980,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="753" hidden="1" spans="2:4">
+    <row r="753" spans="2:4">
       <c r="B753" t="s">
         <v>1724</v>
       </c>
@@ -15874,7 +15991,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="754" hidden="1" spans="2:4">
+    <row r="754" spans="2:4">
       <c r="B754" t="s">
         <v>1727</v>
       </c>
@@ -15885,7 +16002,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="755" hidden="1" spans="2:4">
+    <row r="755" spans="2:4">
       <c r="B755" t="s">
         <v>1729</v>
       </c>
@@ -15896,7 +16013,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="756" hidden="1" spans="2:4">
+    <row r="756" spans="2:4">
       <c r="B756" t="s">
         <v>1729</v>
       </c>
@@ -15907,7 +16024,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="757" hidden="1" spans="2:4">
+    <row r="757" spans="2:4">
       <c r="B757" t="s">
         <v>1731</v>
       </c>
@@ -15918,7 +16035,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="758" hidden="1" spans="2:4">
+    <row r="758" spans="2:4">
       <c r="B758" t="s">
         <v>1733</v>
       </c>
@@ -15929,7 +16046,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="759" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="759" s="6" customFormat="1" spans="1:2">
       <c r="A759" s="17"/>
       <c r="B759" s="6" t="s">
         <v>1734</v>
@@ -15949,7 +16066,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="761" hidden="1" spans="2:4">
+    <row r="761" spans="2:4">
       <c r="B761" t="s">
         <v>1735</v>
       </c>
@@ -15960,7 +16077,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="762" hidden="1" spans="2:4">
+    <row r="762" spans="2:4">
       <c r="B762" t="s">
         <v>1737</v>
       </c>
@@ -15971,7 +16088,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="763" hidden="1" spans="2:4">
+    <row r="763" spans="2:4">
       <c r="B763" t="s">
         <v>1740</v>
       </c>
@@ -15982,7 +16099,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="2:4">
+    <row r="764" spans="2:4">
       <c r="B764" t="s">
         <v>1743</v>
       </c>
@@ -15993,7 +16110,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="765" hidden="1" spans="2:4">
+    <row r="765" spans="2:4">
       <c r="B765" t="s">
         <v>1746</v>
       </c>
@@ -16004,7 +16121,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="766" hidden="1" spans="2:4">
+    <row r="766" spans="2:4">
       <c r="B766" t="s">
         <v>679</v>
       </c>
@@ -16029,7 +16146,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="768" hidden="1" spans="2:4">
+    <row r="768" spans="2:4">
       <c r="B768" t="s">
         <v>1748</v>
       </c>
@@ -16082,7 +16199,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="772" hidden="1" spans="2:4">
+    <row r="772" spans="2:4">
       <c r="B772" t="s">
         <v>1758</v>
       </c>
@@ -16093,7 +16210,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="773" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="773" s="6" customFormat="1" spans="1:2">
       <c r="A773" s="17"/>
       <c r="B773" s="6" t="s">
         <v>1761</v>
@@ -16113,7 +16230,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="775" hidden="1" spans="2:4">
+    <row r="775" spans="2:4">
       <c r="B775" t="s">
         <v>1764</v>
       </c>
@@ -16124,7 +16241,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="776" hidden="1" spans="2:4">
+    <row r="776" spans="2:4">
       <c r="B776" t="s">
         <v>1166</v>
       </c>
@@ -16135,7 +16252,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="777" hidden="1" spans="2:4">
+    <row r="777" spans="2:4">
       <c r="B777" t="s">
         <v>1768</v>
       </c>
@@ -16146,7 +16263,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="2:4">
+    <row r="778" spans="2:4">
       <c r="B778" t="s">
         <v>1771</v>
       </c>
@@ -16157,7 +16274,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="779" hidden="1" spans="2:4">
+    <row r="779" spans="2:4">
       <c r="B779" t="s">
         <v>1772</v>
       </c>
@@ -16168,7 +16285,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="780" hidden="1" spans="2:4">
+    <row r="780" spans="2:4">
       <c r="B780" t="s">
         <v>1775</v>
       </c>
@@ -16179,7 +16296,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="781" hidden="1" spans="2:4">
+    <row r="781" spans="2:4">
       <c r="B781" t="s">
         <v>1778</v>
       </c>
@@ -16190,13 +16307,13 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="782" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="782" s="6" customFormat="1" spans="1:2">
       <c r="A782" s="17"/>
       <c r="B782" s="6" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="783" hidden="1" spans="2:4">
+    <row r="783" spans="2:4">
       <c r="B783" t="s">
         <v>1781</v>
       </c>
@@ -16207,7 +16324,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="784" hidden="1" spans="2:4">
+    <row r="784" spans="2:4">
       <c r="B784" t="s">
         <v>1781</v>
       </c>
@@ -16218,7 +16335,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="2:4">
+    <row r="785" spans="2:4">
       <c r="B785" t="s">
         <v>1782</v>
       </c>
@@ -16229,7 +16346,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="786" hidden="1" spans="2:4">
+    <row r="786" spans="2:4">
       <c r="B786" t="s">
         <v>1227</v>
       </c>
@@ -16240,7 +16357,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="2:4">
+    <row r="787" spans="2:4">
       <c r="B787" t="s">
         <v>1786</v>
       </c>
@@ -16251,7 +16368,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="2:4">
+    <row r="788" spans="2:4">
       <c r="B788" t="s">
         <v>1789</v>
       </c>
@@ -16262,7 +16379,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="789" hidden="1" spans="2:4">
+    <row r="789" spans="2:4">
       <c r="B789" t="s">
         <v>1789</v>
       </c>
@@ -16273,7 +16390,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="790" hidden="1" spans="2:4">
+    <row r="790" spans="2:4">
       <c r="B790" t="s">
         <v>1789</v>
       </c>
@@ -16284,7 +16401,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="791" hidden="1" spans="2:4">
+    <row r="791" spans="2:4">
       <c r="B791" t="s">
         <v>1791</v>
       </c>
@@ -16295,7 +16412,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="792" hidden="1" spans="2:4">
+    <row r="792" spans="2:4">
       <c r="B792" t="s">
         <v>1794</v>
       </c>
@@ -16306,7 +16423,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="2:4">
+    <row r="793" spans="2:4">
       <c r="B793" t="s">
         <v>1797</v>
       </c>
@@ -16317,13 +16434,13 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="794" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="794" s="6" customFormat="1" spans="1:2">
       <c r="A794" s="17"/>
       <c r="B794" s="6" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="2:4">
+    <row r="795" spans="2:4">
       <c r="B795" t="s">
         <v>1801</v>
       </c>
@@ -16362,7 +16479,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="798" hidden="1" spans="2:4">
+    <row r="798" spans="2:4">
       <c r="B798" t="s">
         <v>1807</v>
       </c>
@@ -16373,7 +16490,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="2:4">
+    <row r="799" spans="2:4">
       <c r="B799" t="s">
         <v>1811</v>
       </c>
@@ -16384,7 +16501,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="800" hidden="1" spans="2:4">
+    <row r="800" spans="2:4">
       <c r="B800" t="s">
         <v>1813</v>
       </c>
@@ -16395,7 +16512,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="801" hidden="1" spans="2:4">
+    <row r="801" spans="2:4">
       <c r="B801" t="s">
         <v>1816</v>
       </c>
@@ -16406,7 +16523,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="802" hidden="1" spans="2:4">
+    <row r="802" spans="2:4">
       <c r="B802" t="s">
         <v>1819</v>
       </c>
@@ -16417,7 +16534,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="803" hidden="1" spans="2:4">
+    <row r="803" spans="2:4">
       <c r="B803" t="s">
         <v>1822</v>
       </c>
@@ -16428,7 +16545,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="804" hidden="1" spans="2:4">
+    <row r="804" spans="2:4">
       <c r="B804" t="s">
         <v>1822</v>
       </c>
@@ -16439,7 +16556,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="805" hidden="1" spans="2:4">
+    <row r="805" spans="2:4">
       <c r="B805" t="s">
         <v>1826</v>
       </c>
@@ -16450,7 +16567,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="806" hidden="1" spans="2:4">
+    <row r="806" spans="2:4">
       <c r="B806" t="s">
         <v>1826</v>
       </c>
@@ -16461,7 +16578,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="807" hidden="1" spans="2:4">
+    <row r="807" spans="2:4">
       <c r="B807" t="s">
         <v>1826</v>
       </c>
@@ -16472,13 +16589,13 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="808" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="808" s="6" customFormat="1" spans="1:2">
       <c r="A808" s="17"/>
       <c r="B808" s="6" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="809" hidden="1" spans="2:4">
+    <row r="809" spans="2:4">
       <c r="B809" t="s">
         <v>1832</v>
       </c>
@@ -16503,7 +16620,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="2:4">
+    <row r="811" spans="2:4">
       <c r="B811" t="s">
         <v>1838</v>
       </c>
@@ -16514,7 +16631,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="812" hidden="1" spans="2:4">
+    <row r="812" spans="2:4">
       <c r="B812" t="s">
         <v>1841</v>
       </c>
@@ -16525,7 +16642,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="813" hidden="1" spans="2:4">
+    <row r="813" spans="2:4">
       <c r="B813" t="s">
         <v>1844</v>
       </c>
@@ -16536,7 +16653,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="814" hidden="1" spans="2:4">
+    <row r="814" spans="2:4">
       <c r="B814" t="s">
         <v>1847</v>
       </c>
@@ -16547,13 +16664,13 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="815" s="6" customFormat="1" hidden="1" spans="1:2">
+    <row r="815" s="6" customFormat="1" spans="1:2">
       <c r="A815" s="17"/>
       <c r="B815" s="6" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="816" hidden="1" spans="2:4">
+    <row r="816" spans="2:4">
       <c r="B816" t="s">
         <v>1851</v>
       </c>
@@ -16564,7 +16681,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="817" hidden="1" spans="2:4">
+    <row r="817" spans="2:4">
       <c r="B817" t="s">
         <v>1854</v>
       </c>
@@ -16575,7 +16692,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="818" hidden="1" spans="2:4">
+    <row r="818" spans="2:4">
       <c r="B818" t="s">
         <v>1854</v>
       </c>
@@ -16586,7 +16703,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="819" hidden="1" spans="2:4">
+    <row r="819" spans="2:4">
       <c r="B819" t="s">
         <v>1858</v>
       </c>
@@ -16681,7 +16798,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="2:4">
+    <row r="826" spans="2:4">
       <c r="B826" t="s">
         <v>1875</v>
       </c>
@@ -16692,7 +16809,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="827" s="7" customFormat="1" hidden="1" spans="1:2">
+    <row r="827" s="7" customFormat="1" spans="1:2">
       <c r="A827" s="10"/>
       <c r="B827" s="7" t="s">
         <v>1877</v>
@@ -17370,15 +17487,178 @@
         <v>2008</v>
       </c>
     </row>
+    <row r="876" spans="2:2">
+      <c r="B876" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="877" spans="2:4">
+      <c r="B877" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C877" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D877" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="878" spans="2:4">
+      <c r="B878" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D878" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="879" spans="2:4">
+      <c r="B879" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C879" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D879" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="880" spans="2:4">
+      <c r="B880" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C880" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D880" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="881" spans="2:4">
+      <c r="B881" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C881" t="s">
+        <v>82</v>
+      </c>
+      <c r="D881" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="882" spans="2:4">
+      <c r="B882" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C882" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D882" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="883" spans="2:4">
+      <c r="B883" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C883" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D883" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="884" spans="2:4">
+      <c r="B884" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D884" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="885" spans="2:4">
+      <c r="B885" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C885" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D885" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="886" spans="2:4">
+      <c r="B886" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D886" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="887" spans="2:4">
+      <c r="B887" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C887" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D887" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="888" spans="2:4">
+      <c r="B888" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C888" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D888" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="889" spans="2:4">
+      <c r="B889" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C889" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D889" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="890" spans="2:4">
+      <c r="B890" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C890" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D890" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="891" spans="2:4">
+      <c r="B891" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C891" t="s">
+        <v>748</v>
+      </c>
+      <c r="D891" t="s">
+        <v>2047</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A875">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="0"/>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A875"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
